--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM25.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>2.049290998214876</v>
+        <v>3.474884736103484</v>
       </c>
       <c r="C2">
-        <v>9.216781486431467</v>
+        <v>15.62845556394901</v>
       </c>
       <c r="D2">
-        <v>0.005279293623127099</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E2">
-        <v>0.5021548546556949</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F2">
-        <v>2.134898261873889</v>
+        <v>3.620044878829639</v>
       </c>
       <c r="G2">
-        <v>2.466586110745956</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="H2">
-        <v>0.4192904379783391</v>
+        <v>0.7109707426589228</v>
       </c>
       <c r="I2">
-        <v>3.107619446065882</v>
+        <v>5.269441669416063</v>
       </c>
       <c r="J2">
-        <v>3.088890680100164</v>
+        <v>5.237684196691584</v>
       </c>
       <c r="K2">
-        <v>4.09102139627745</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="L2">
-        <v>23.8285723235499</v>
+        <v>40.40497046167157</v>
       </c>
       <c r="M2">
-        <v>14.99419324107224</v>
+        <v>25.42493636529641</v>
       </c>
       <c r="N2">
-        <v>0.05882587757412965</v>
+        <v>0.09974822719091547</v>
       </c>
       <c r="O2">
-        <v>0.2444838160314994</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="P2">
-        <v>66.2078882241946</v>
+        <v>112.2655495975474</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>2.458781941406558</v>
+        <v>4.169238944124164</v>
       </c>
       <c r="C3">
-        <v>11.0584860307632</v>
+        <v>18.75134587825065</v>
       </c>
       <c r="D3">
-        <v>0.0127182982738971</v>
+        <v>0.02156581011660813</v>
       </c>
       <c r="E3">
-        <v>1.209736695306901</v>
+        <v>2.051292657259529</v>
       </c>
       <c r="F3">
-        <v>4.011020976853974</v>
+        <v>6.801296439013265</v>
       </c>
       <c r="G3">
-        <v>4.63419208685604</v>
+        <v>7.857977886408063</v>
       </c>
       <c r="H3">
-        <v>0.1840787288685391</v>
+        <v>0.3121334967770881</v>
       </c>
       <c r="I3">
-        <v>1.364320732419168</v>
+        <v>2.313413415841197</v>
       </c>
       <c r="J3">
-        <v>2.508743699573738</v>
+        <v>4.25395670797286</v>
       </c>
       <c r="K3">
-        <v>3.322656971595899</v>
+        <v>5.634070517053916</v>
       </c>
       <c r="L3">
-        <v>7.810476483830242</v>
+        <v>13.24385142910345</v>
       </c>
       <c r="M3">
-        <v>4.914763340129236</v>
+        <v>8.333729141958266</v>
       </c>
       <c r="N3">
-        <v>0.1372603810063025</v>
+        <v>0.2327458634454695</v>
       </c>
       <c r="O3">
-        <v>0.5704622374068319</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="P3">
-        <v>44.19769860429052</v>
+        <v>74.94392372031872</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>2.642410167053052</v>
+        <v>4.480608544133435</v>
       </c>
       <c r="C4">
-        <v>11.88436250804201</v>
+        <v>20.15174512233212</v>
       </c>
       <c r="D4">
-        <v>0.01319823405781775</v>
+        <v>0.02237961427195184</v>
       </c>
       <c r="E4">
-        <v>1.255387136639238</v>
+        <v>2.128699927344794</v>
       </c>
       <c r="F4">
-        <v>3.687551543236718</v>
+        <v>6.252804790705741</v>
       </c>
       <c r="G4">
-        <v>4.260466918561197</v>
+        <v>7.2242699923429</v>
       </c>
       <c r="H4">
-        <v>0.1329457486272782</v>
+        <v>0.2254297476723413</v>
       </c>
       <c r="I4">
-        <v>0.9853427511916212</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="J4">
-        <v>2.681219828919432</v>
+        <v>4.546416231645995</v>
       </c>
       <c r="K4">
-        <v>3.551089638393117</v>
+        <v>6.021412865101372</v>
       </c>
       <c r="L4">
-        <v>7.280952654418022</v>
+        <v>12.34596319662186</v>
       </c>
       <c r="M4">
-        <v>4.581559045883185</v>
+        <v>7.768730556062793</v>
       </c>
       <c r="N4">
-        <v>0.1274560680772809</v>
+        <v>0.2161211589136501</v>
       </c>
       <c r="O4">
-        <v>0.5297149347349155</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="P4">
-        <v>43.61365717783488</v>
+        <v>73.95359260589395</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.598339392897892</v>
+        <v>4.40587984013121</v>
       </c>
       <c r="C5">
-        <v>11.6861521534951</v>
+        <v>19.81564930375255</v>
       </c>
       <c r="D5">
-        <v>0.01175842670605582</v>
+        <v>0.01993820180592073</v>
       </c>
       <c r="E5">
-        <v>1.11843581264223</v>
+        <v>1.896478117088998</v>
       </c>
       <c r="F5">
-        <v>3.299388222896012</v>
+        <v>5.594614812736715</v>
       </c>
       <c r="G5">
-        <v>3.811996716607387</v>
+        <v>6.4638205194647</v>
       </c>
       <c r="H5">
-        <v>0.1943053249167913</v>
+        <v>0.3294742465980374</v>
       </c>
       <c r="I5">
-        <v>1.440116328664677</v>
+        <v>2.44193638338793</v>
       </c>
       <c r="J5">
-        <v>3.167288920711844</v>
+        <v>5.370620343815736</v>
       </c>
       <c r="K5">
-        <v>4.194854426639822</v>
+        <v>7.113014027780569</v>
       </c>
       <c r="L5">
-        <v>7.545714569124134</v>
+        <v>12.79490731286266</v>
       </c>
       <c r="M5">
-        <v>4.748161193006211</v>
+        <v>8.051229849010529</v>
       </c>
       <c r="N5">
-        <v>0.1274560680772809</v>
+        <v>0.2161211589136501</v>
       </c>
       <c r="O5">
-        <v>0.5297149347349155</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="P5">
-        <v>44.47368249112036</v>
+        <v>75.41189639798667</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>2.68280837669528</v>
+        <v>4.549109856135477</v>
       </c>
       <c r="C6">
-        <v>12.06605533304335</v>
+        <v>20.45983295603003</v>
       </c>
       <c r="D6">
-        <v>0.0127182982738971</v>
+        <v>0.02156581011660813</v>
       </c>
       <c r="E6">
-        <v>1.209736695306901</v>
+        <v>2.051292657259529</v>
       </c>
       <c r="F6">
-        <v>4.140408750300876</v>
+        <v>7.020693098336273</v>
       </c>
       <c r="G6">
-        <v>4.783682154173976</v>
+        <v>8.111461044034135</v>
       </c>
       <c r="H6">
-        <v>0.1943053249167913</v>
+        <v>0.3294742465980374</v>
       </c>
       <c r="I6">
-        <v>1.440116328664677</v>
+        <v>2.44193638338793</v>
       </c>
       <c r="J6">
-        <v>2.75961806953111</v>
+        <v>4.679352378770145</v>
       </c>
       <c r="K6">
-        <v>3.654922668755488</v>
+        <v>6.197477568759307</v>
       </c>
       <c r="L6">
-        <v>6.089524038240529</v>
+        <v>10.32571467353829</v>
       </c>
       <c r="M6">
-        <v>3.831849383829574</v>
+        <v>6.497483737797972</v>
       </c>
       <c r="N6">
-        <v>0.08823881636119446</v>
+        <v>0.1496223407863732</v>
       </c>
       <c r="O6">
-        <v>0.3667257240472492</v>
+        <v>0.6218392712105527</v>
       </c>
       <c r="P6">
-        <v>43.3207099621409</v>
+        <v>73.45685602276066</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>2.747078255671553</v>
+        <v>4.658089216138721</v>
       </c>
       <c r="C7">
-        <v>12.35511210009093</v>
+        <v>20.94997269145854</v>
       </c>
       <c r="D7">
-        <v>0.01151845881409549</v>
+        <v>0.01953129972824888</v>
       </c>
       <c r="E7">
-        <v>1.095610591976062</v>
+        <v>1.857774482046366</v>
       </c>
       <c r="F7">
-        <v>4.528572070641583</v>
+        <v>7.678883076305299</v>
       </c>
       <c r="G7">
-        <v>5.232152356127787</v>
+        <v>8.871910516912331</v>
       </c>
       <c r="H7">
-        <v>0.2965712853993129</v>
+        <v>0.5028817448075308</v>
       </c>
       <c r="I7">
-        <v>2.19807229111977</v>
+        <v>3.727166058855262</v>
       </c>
       <c r="J7">
-        <v>2.367626866472715</v>
+        <v>4.014671643149386</v>
       </c>
       <c r="K7">
-        <v>3.13575751694363</v>
+        <v>5.317154050469633</v>
       </c>
       <c r="L7">
-        <v>5.162857336769145</v>
+        <v>8.754410266695501</v>
       </c>
       <c r="M7">
-        <v>3.248741868898986</v>
+        <v>5.508736212480888</v>
       </c>
       <c r="N7">
-        <v>0.1372603810063025</v>
+        <v>0.2327458634454695</v>
       </c>
       <c r="O7">
-        <v>0.5704622374068319</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="P7">
-        <v>43.08739361733871</v>
+        <v>73.06123265548736</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>3.029865723167155</v>
+        <v>5.137598400153</v>
       </c>
       <c r="C8">
-        <v>13.62696187510029</v>
+        <v>23.10658752734397</v>
       </c>
       <c r="D8">
-        <v>0.01247833038193678</v>
+        <v>0.02115890803893628</v>
       </c>
       <c r="E8">
-        <v>1.186911474640734</v>
+        <v>2.012589022216896</v>
       </c>
       <c r="F8">
-        <v>3.946327090130524</v>
+        <v>6.691598109351756</v>
       </c>
       <c r="G8">
-        <v>4.559447053197071</v>
+        <v>7.731236307595034</v>
       </c>
       <c r="H8">
-        <v>0.357930861688826</v>
+        <v>0.6069262437332268</v>
       </c>
       <c r="I8">
-        <v>2.652845868592827</v>
+        <v>4.498303864135661</v>
       </c>
       <c r="J8">
-        <v>2.336267570228043</v>
+        <v>3.961497184299726</v>
       </c>
       <c r="K8">
-        <v>3.094224304798681</v>
+        <v>5.246728169006459</v>
       </c>
       <c r="L8">
-        <v>3.309523933826374</v>
+        <v>5.611801453009935</v>
       </c>
       <c r="M8">
-        <v>2.082526839037811</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="N8">
-        <v>0.2353035102965186</v>
+        <v>0.3989929087636619</v>
       </c>
       <c r="O8">
-        <v>0.9779352641259977</v>
+        <v>1.658238056561474</v>
       </c>
       <c r="P8">
-        <v>41.40854969921278</v>
+        <v>70.21449731605647</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>3.364069093843775</v>
+        <v>5.704291072169882</v>
       </c>
       <c r="C9">
-        <v>15.13005706374772</v>
+        <v>25.6553141515722</v>
       </c>
       <c r="D9">
-        <v>0.008158908326650971</v>
+        <v>0.01383467064084295</v>
       </c>
       <c r="E9">
-        <v>0.7760575026497104</v>
+        <v>1.315923591449509</v>
       </c>
       <c r="F9">
-        <v>3.040612676002207</v>
+        <v>5.155821494090701</v>
       </c>
       <c r="G9">
-        <v>3.513016581971513</v>
+        <v>5.956854204212568</v>
       </c>
       <c r="H9">
-        <v>0.5522361866056174</v>
+        <v>0.936400490331264</v>
       </c>
       <c r="I9">
-        <v>4.092962197257503</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="J9">
-        <v>2.2735489777387</v>
+        <v>3.855148266600403</v>
       </c>
       <c r="K9">
-        <v>3.011157880508784</v>
+        <v>5.10587640608011</v>
       </c>
       <c r="L9">
-        <v>2.780000104414156</v>
+        <v>4.713913220528348</v>
       </c>
       <c r="M9">
-        <v>1.749322544791761</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="N9">
-        <v>0.05882587757412965</v>
+        <v>0.09974822719091547</v>
       </c>
       <c r="O9">
-        <v>0.2444838160314994</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="P9">
-        <v>40.59450941146373</v>
+        <v>68.83416813248193</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>3.266746134251131</v>
+        <v>5.539265184164964</v>
       </c>
       <c r="C10">
-        <v>14.69234253078995</v>
+        <v>24.91310255220904</v>
       </c>
       <c r="D10">
-        <v>0.005279293623127099</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E10">
-        <v>0.5021548546556949</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F10">
-        <v>2.523061582214598</v>
+        <v>4.278234856798664</v>
       </c>
       <c r="G10">
-        <v>2.915056312699767</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="H10">
-        <v>0.7363149154741565</v>
+        <v>1.248533987108352</v>
       </c>
       <c r="I10">
-        <v>5.457282929676672</v>
+        <v>9.253653663364789</v>
       </c>
       <c r="J10">
-        <v>1.223012553542197</v>
+        <v>2.073803895136769</v>
       </c>
       <c r="K10">
-        <v>1.619795273653001</v>
+        <v>2.746609377063783</v>
       </c>
       <c r="L10">
-        <v>2.382857232354988</v>
+        <v>4.040497046167155</v>
       </c>
       <c r="M10">
-        <v>1.499419324107224</v>
+        <v>2.542493636529642</v>
       </c>
       <c r="N10">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O10">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P10">
-        <v>36.87387455264344</v>
+        <v>62.5252655457867</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>2.302697949607039</v>
+        <v>3.904574784116281</v>
       </c>
       <c r="C11">
-        <v>10.35649102507622</v>
+        <v>17.56100652078142</v>
       </c>
       <c r="D11">
-        <v>0.004559389947246131</v>
+        <v>0.007731139475765179</v>
       </c>
       <c r="E11">
-        <v>0.433679192657191</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="F11">
-        <v>2.19959214859734</v>
+        <v>3.729743208491144</v>
       </c>
       <c r="G11">
-        <v>2.541331144404925</v>
+        <v>4.309213679643134</v>
       </c>
       <c r="H11">
-        <v>0.5726893787021217</v>
+        <v>0.9710819899731628</v>
       </c>
       <c r="I11">
-        <v>4.244553389748522</v>
+        <v>7.197286182617058</v>
       </c>
       <c r="J11">
-        <v>0.6271859248934344</v>
+        <v>1.063489176993215</v>
       </c>
       <c r="K11">
-        <v>0.8306642428989747</v>
+        <v>1.408517629263479</v>
       </c>
       <c r="L11">
-        <v>1.456190530883604</v>
+        <v>2.469192639324372</v>
       </c>
       <c r="M11">
-        <v>0.9163118091766371</v>
+        <v>1.553746111212558</v>
       </c>
       <c r="N11">
-        <v>0.02941293878706482</v>
+        <v>0.04987411359545774</v>
       </c>
       <c r="O11">
-        <v>0.1222419080157497</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="P11">
-        <v>26.63760097339607</v>
+        <v>45.16810599836725</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.951968038622234</v>
+        <v>3.309858848098571</v>
       </c>
       <c r="C12">
-        <v>8.779066953473702</v>
+        <v>14.88624396458585</v>
       </c>
       <c r="D12">
-        <v>0.00959871567841291</v>
+        <v>0.01627608310687406</v>
       </c>
       <c r="E12">
-        <v>0.9130088266467181</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="F12">
-        <v>1.487959394639378</v>
+        <v>2.523061582214598</v>
       </c>
       <c r="G12">
-        <v>1.719135774156273</v>
+        <v>2.915056312699767</v>
       </c>
       <c r="H12">
-        <v>0.4806500142678521</v>
+        <v>0.8150152415846187</v>
       </c>
       <c r="I12">
-        <v>3.562393023538938</v>
+        <v>6.040579474696461</v>
       </c>
       <c r="J12">
-        <v>0.5958266286487627</v>
+        <v>1.010314718143554</v>
       </c>
       <c r="K12">
-        <v>0.789131030754026</v>
+        <v>1.338091747800305</v>
       </c>
       <c r="L12">
-        <v>2.250476275001934</v>
+        <v>3.816024988046757</v>
       </c>
       <c r="M12">
-        <v>1.416118250545712</v>
+        <v>2.401243990055772</v>
       </c>
       <c r="N12">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O12">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P12">
-        <v>24.00588454157488</v>
+        <v>40.70563030962698</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>1.566348764764596</v>
+        <v>2.655982688079099</v>
       </c>
       <c r="C13">
-        <v>7.044726351188208</v>
+        <v>11.94540555201479</v>
       </c>
       <c r="D13">
-        <v>0.007199036758809682</v>
+        <v>0.01220706233015555</v>
       </c>
       <c r="E13">
-        <v>0.6847566199850387</v>
+        <v>1.161109051278979</v>
       </c>
       <c r="F13">
-        <v>1.164489961022122</v>
+        <v>1.974569933907076</v>
       </c>
       <c r="G13">
-        <v>1.345410605861431</v>
+        <v>2.2813484186346</v>
       </c>
       <c r="H13">
-        <v>0.4090638419300868</v>
+        <v>0.6936299928379733</v>
       </c>
       <c r="I13">
-        <v>3.031823849820374</v>
+        <v>5.140918701869327</v>
       </c>
       <c r="J13">
-        <v>0.3449522586913888</v>
+        <v>0.5849190473462681</v>
       </c>
       <c r="K13">
-        <v>0.456865333594436</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="L13">
-        <v>1.456190530883604</v>
+        <v>2.469192639324372</v>
       </c>
       <c r="M13">
-        <v>0.9163118091766371</v>
+        <v>1.553746111212558</v>
       </c>
       <c r="N13">
-        <v>0.01960862585804321</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O13">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P13">
-        <v>18.52924219487861</v>
+        <v>31.4191498087072</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.188074619932818</v>
+        <v>2.014561312059995</v>
       </c>
       <c r="C14">
-        <v>5.34342080799387</v>
+        <v>9.060583109206997</v>
       </c>
       <c r="D14">
-        <v>0.008158908326650971</v>
+        <v>0.01383467064084295</v>
       </c>
       <c r="E14">
-        <v>0.7760575026497104</v>
+        <v>1.315923591449509</v>
       </c>
       <c r="F14">
-        <v>0.9704083008517679</v>
+        <v>1.645474944922563</v>
       </c>
       <c r="G14">
-        <v>1.121175504884526</v>
+        <v>1.9011236821955</v>
       </c>
       <c r="H14">
-        <v>0.1329457486272782</v>
+        <v>0.2254297476723413</v>
       </c>
       <c r="I14">
-        <v>0.9853427511916212</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="J14">
-        <v>0.2195150737127021</v>
+        <v>0.3722212119476253</v>
       </c>
       <c r="K14">
-        <v>0.2907324850146412</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="L14">
-        <v>0.9266667014713849</v>
+        <v>1.571304406842783</v>
       </c>
       <c r="M14">
-        <v>0.5831075149305871</v>
+        <v>0.988747525317083</v>
       </c>
       <c r="N14">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O14">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P14">
-        <v>12.5961575351885</v>
+        <v>21.35870190749354</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.7436943138683016</v>
+        <v>1.261046880037554</v>
       </c>
       <c r="C15">
-        <v>3.344799732979163</v>
+        <v>5.671616938529885</v>
       </c>
       <c r="D15">
-        <v>0.005279293623127099</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E15">
-        <v>0.5021548546556949</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F15">
-        <v>0.7763266406814145</v>
+        <v>1.31637995593805</v>
       </c>
       <c r="G15">
-        <v>0.8969404039076204</v>
+        <v>1.5208989457564</v>
       </c>
       <c r="H15">
-        <v>0.09203936443426956</v>
+        <v>0.156066748388544</v>
       </c>
       <c r="I15">
-        <v>0.682160366209584</v>
+        <v>1.156706707920599</v>
       </c>
       <c r="J15">
-        <v>0.3606319068137248</v>
+        <v>0.6115062767710985</v>
       </c>
       <c r="K15">
-        <v>0.4776319396669105</v>
+        <v>0.8098976368265004</v>
       </c>
       <c r="L15">
-        <v>1.58857148823666</v>
+        <v>2.693664697444769</v>
       </c>
       <c r="M15">
-        <v>0.9996128827381492</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="N15">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O15">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P15">
-        <v>10.52039480341556</v>
+        <v>17.83893031883508</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.5582298059653426</v>
+        <v>0.9465635840281896</v>
       </c>
       <c r="C16">
-        <v>2.510664490927569</v>
+        <v>4.257213702007616</v>
       </c>
       <c r="D16">
-        <v>0.007439004650770005</v>
+        <v>0.0126139644078274</v>
       </c>
       <c r="E16">
-        <v>0.7075818406512066</v>
+        <v>1.199812686321611</v>
       </c>
       <c r="F16">
-        <v>0.3881633203407073</v>
+        <v>0.6581899779690252</v>
       </c>
       <c r="G16">
-        <v>0.4484702019538102</v>
+        <v>0.7604494728781999</v>
       </c>
       <c r="H16">
-        <v>0.03067978814475652</v>
+        <v>0.052022249462848</v>
       </c>
       <c r="I16">
-        <v>0.227386788736528</v>
+        <v>0.3855689026401996</v>
       </c>
       <c r="J16">
-        <v>0.1411168331010227</v>
+        <v>0.2392850648234734</v>
       </c>
       <c r="K16">
-        <v>0.1868994546522693</v>
+        <v>0.3169164665842827</v>
       </c>
       <c r="L16">
-        <v>1.05904765882444</v>
+        <v>1.79577646496318</v>
       </c>
       <c r="M16">
-        <v>0.6664085884920996</v>
+        <v>1.129997171790951</v>
       </c>
       <c r="N16">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O16">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P16">
-        <v>6.982639392041459</v>
+        <v>11.84012766476595</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.3562387577541988</v>
+        <v>0.6040570240179896</v>
       </c>
       <c r="C17">
-        <v>1.602200365920883</v>
+        <v>2.716774533518018</v>
       </c>
       <c r="D17">
-        <v>0.008398876218611294</v>
+        <v>0.0142415727185148</v>
       </c>
       <c r="E17">
-        <v>0.7988827233158786</v>
+        <v>1.354627226492142</v>
       </c>
       <c r="H17">
-        <v>0.01022659604825217</v>
+        <v>0.01734074982094934</v>
       </c>
       <c r="I17">
-        <v>0.07579559624550933</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="J17">
-        <v>0.2979133143243813</v>
+        <v>0.5051573590717771</v>
       </c>
       <c r="K17">
-        <v>0.394565515377013</v>
+        <v>0.6690458739001525</v>
       </c>
       <c r="L17">
-        <v>1.05904765882444</v>
+        <v>1.79577646496318</v>
       </c>
       <c r="M17">
-        <v>0.6664085884920996</v>
+        <v>1.129997171790951</v>
       </c>
       <c r="N17">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O17">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P17">
-        <v>5.320229608122205</v>
+        <v>9.021258900728954</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,37 +1274,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.2130087417499333</v>
+        <v>0.3611887360107565</v>
       </c>
       <c r="C18">
-        <v>0.9580167136434141</v>
+        <v>1.624463123134486</v>
       </c>
       <c r="D18">
-        <v>0.006959068866849358</v>
+        <v>0.01180016025248369</v>
       </c>
       <c r="E18">
-        <v>0.6619313993188705</v>
+        <v>1.122405416236346</v>
       </c>
       <c r="F18">
-        <v>0.3881633203407073</v>
+        <v>0.6581899779690252</v>
       </c>
       <c r="G18">
-        <v>0.4484702019538102</v>
+        <v>0.7604494728781999</v>
       </c>
       <c r="J18">
-        <v>0.2195150737127021</v>
+        <v>0.3722212119476253</v>
       </c>
       <c r="K18">
-        <v>0.2907324850146412</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="L18">
-        <v>1.85333340294277</v>
+        <v>3.142608813685566</v>
       </c>
       <c r="M18">
-        <v>1.166215029861174</v>
+        <v>1.977495050634166</v>
       </c>
       <c r="P18">
-        <v>6.206345437404873</v>
+        <v>10.52380313299087</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1312,43 +1312,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.2644246449309515</v>
+        <v>0.4483722240133527</v>
       </c>
       <c r="C19">
-        <v>1.189262127281479</v>
+        <v>2.016574911477292</v>
       </c>
       <c r="D19">
-        <v>0.004559389947246131</v>
+        <v>0.007731139475765179</v>
       </c>
       <c r="E19">
-        <v>0.433679192657191</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="F19">
-        <v>0.323469433617256</v>
+        <v>0.5484916483075213</v>
       </c>
       <c r="G19">
-        <v>0.373725168294842</v>
+        <v>0.6337078940651664</v>
       </c>
       <c r="H19">
-        <v>0.04090638419300869</v>
+        <v>0.06936299928379734</v>
       </c>
       <c r="I19">
-        <v>0.3031823849820373</v>
+        <v>0.5140918701869328</v>
       </c>
       <c r="J19">
-        <v>0.2195150737127021</v>
+        <v>0.3722212119476253</v>
       </c>
       <c r="K19">
-        <v>0.2907324850146412</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="L19">
-        <v>2.250476275001934</v>
+        <v>3.816024988046757</v>
       </c>
       <c r="M19">
-        <v>1.416118250545712</v>
+        <v>2.401243990055772</v>
       </c>
       <c r="P19">
-        <v>7.110050810179001</v>
+        <v>12.05617311291222</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,43 +1356,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.4370351770386562</v>
+        <v>0.7410596480220694</v>
       </c>
       <c r="C20">
-        <v>1.965586015923556</v>
+        <v>3.332950200913857</v>
       </c>
       <c r="D20">
-        <v>0.004079454163325486</v>
+        <v>0.006917335320421476</v>
       </c>
       <c r="E20">
-        <v>0.3880287513248552</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="F20">
-        <v>0.646938867234512</v>
+        <v>1.096983296615043</v>
       </c>
       <c r="G20">
-        <v>0.747450336589684</v>
+        <v>1.267415788130333</v>
       </c>
       <c r="H20">
-        <v>0.02045319209650434</v>
+        <v>0.03468149964189867</v>
       </c>
       <c r="I20">
-        <v>0.1515911924910187</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="J20">
-        <v>0.3763115549360606</v>
+        <v>0.6380935061959289</v>
       </c>
       <c r="K20">
-        <v>0.4983985457393848</v>
+        <v>0.8451105775580874</v>
       </c>
       <c r="L20">
-        <v>2.780000104414156</v>
+        <v>4.713913220528348</v>
       </c>
       <c r="M20">
-        <v>1.749322544791761</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="P20">
-        <v>9.765195736743474</v>
+        <v>16.55837537969545</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1400,49 +1400,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.9897561362346037</v>
+        <v>1.67828214404998</v>
       </c>
       <c r="C21">
-        <v>4.45147421253276</v>
+        <v>7.548151925599031</v>
       </c>
       <c r="D21">
-        <v>0.004559389947246131</v>
+        <v>0.007731139475765179</v>
       </c>
       <c r="E21">
-        <v>0.433679192657191</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="F21">
-        <v>1.487959394639378</v>
+        <v>2.523061582214598</v>
       </c>
       <c r="G21">
-        <v>1.719135774156273</v>
+        <v>2.915056312699767</v>
       </c>
       <c r="H21">
-        <v>0.2658914972545564</v>
+        <v>0.4508594953446827</v>
       </c>
       <c r="I21">
-        <v>1.970685502383242</v>
+        <v>3.341597156215064</v>
       </c>
       <c r="J21">
-        <v>0.9407788873401514</v>
+        <v>1.595233765489822</v>
       </c>
       <c r="K21">
-        <v>1.245996364348462</v>
+        <v>2.112776443895219</v>
       </c>
       <c r="L21">
-        <v>4.368571592650814</v>
+        <v>7.407577917973119</v>
       </c>
       <c r="M21">
-        <v>2.748935427529911</v>
+        <v>4.661238333637675</v>
       </c>
       <c r="N21">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O21">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P21">
-        <v>20.67797498727553</v>
+        <v>35.06265323929329</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1450,49 +1450,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.825264562926153</v>
+        <v>3.095013824092172</v>
       </c>
       <c r="C22">
-        <v>8.209212184151326</v>
+        <v>13.91996848616963</v>
       </c>
       <c r="D22">
-        <v>0.005039325731166778</v>
+        <v>0.008544943631108885</v>
       </c>
       <c r="E22">
-        <v>0.4793296339895269</v>
+        <v>0.812776335895285</v>
       </c>
       <c r="F22">
-        <v>2.652449355661499</v>
+        <v>4.497631516121673</v>
       </c>
       <c r="G22">
-        <v>3.064546380017704</v>
+        <v>5.196404731334367</v>
       </c>
       <c r="H22">
-        <v>0.951073432487452</v>
+        <v>1.612689733348289</v>
       </c>
       <c r="I22">
-        <v>7.048990450832367</v>
+        <v>11.95263598184619</v>
       </c>
       <c r="J22">
-        <v>1.615003756600593</v>
+        <v>2.738484630757529</v>
       </c>
       <c r="K22">
-        <v>2.13896042546486</v>
+        <v>3.626932895353458</v>
       </c>
       <c r="L22">
-        <v>7.148571697064967</v>
+        <v>12.12149113850147</v>
       </c>
       <c r="M22">
-        <v>4.498257972321674</v>
+        <v>7.627480909588921</v>
       </c>
       <c r="N22">
-        <v>0.03921725171608641</v>
+        <v>0.066498818127277</v>
       </c>
       <c r="O22">
-        <v>0.1629892106876663</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="P22">
-        <v>39.83890563965304</v>
+        <v>67.55292695419429</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1500,49 +1500,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>2.568958876794453</v>
+        <v>4.356060704129728</v>
       </c>
       <c r="C23">
-        <v>11.55401191713048</v>
+        <v>19.59158542469953</v>
       </c>
       <c r="D23">
-        <v>0.003119582595484196</v>
+        <v>0.00528972700973407</v>
       </c>
       <c r="E23">
-        <v>0.2967278686601834</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="F23">
-        <v>2.134898261873889</v>
+        <v>3.620044878829639</v>
       </c>
       <c r="G23">
-        <v>2.466586110745956</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="H23">
-        <v>0.7465415115224088</v>
+        <v>1.265874736929302</v>
       </c>
       <c r="I23">
-        <v>5.533078525922183</v>
+        <v>9.382176630911527</v>
       </c>
       <c r="J23">
-        <v>1.865878126557967</v>
+        <v>3.163880301554814</v>
       </c>
       <c r="K23">
-        <v>2.471226122624449</v>
+        <v>4.19033994705885</v>
       </c>
       <c r="L23">
-        <v>7.148571697064967</v>
+        <v>12.12149113850147</v>
       </c>
       <c r="M23">
-        <v>4.498257972321674</v>
+        <v>7.627480909588921</v>
       </c>
       <c r="N23">
-        <v>0.06863019050315125</v>
+        <v>0.1163729317227347</v>
       </c>
       <c r="O23">
-        <v>0.2852311187034159</v>
+        <v>0.4836527664970966</v>
       </c>
       <c r="P23">
-        <v>41.64171788302068</v>
+        <v>70.60986945381768</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1550,49 +1550,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>3.140042658555052</v>
+        <v>5.324420160158566</v>
       </c>
       <c r="C24">
-        <v>14.12248776146757</v>
+        <v>23.94682707379285</v>
       </c>
       <c r="D24">
-        <v>0.006719100974889037</v>
+        <v>0.01139325817481184</v>
       </c>
       <c r="E24">
-        <v>0.6391061786527028</v>
+        <v>1.083701781193713</v>
       </c>
       <c r="F24">
-        <v>3.493469883066365</v>
+        <v>5.92370980172123</v>
       </c>
       <c r="G24">
-        <v>4.036231817584293</v>
+        <v>6.844045255903801</v>
       </c>
       <c r="H24">
-        <v>0.3988372458818347</v>
+        <v>0.6762892430170243</v>
       </c>
       <c r="I24">
-        <v>2.956028253574864</v>
+        <v>5.012395734322595</v>
       </c>
       <c r="J24">
-        <v>2.242189681494028</v>
+        <v>3.801973807750743</v>
       </c>
       <c r="K24">
-        <v>2.969624668363834</v>
+        <v>5.035450524616937</v>
       </c>
       <c r="L24">
-        <v>10.32571467353829</v>
+        <v>17.508820533391</v>
       </c>
       <c r="M24">
-        <v>6.497483737797972</v>
+        <v>11.01747242496178</v>
       </c>
       <c r="N24">
-        <v>0.08823881636119446</v>
+        <v>0.1496223407863732</v>
       </c>
       <c r="O24">
-        <v>0.3667257240472492</v>
+        <v>0.6218392712105527</v>
       </c>
       <c r="P24">
-        <v>51.28290020136014</v>
+        <v>86.95796121100197</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1600,49 +1600,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>2.365131546326844</v>
+        <v>4.010440448119432</v>
       </c>
       <c r="C25">
-        <v>10.63728902735101</v>
+        <v>18.03714226376912</v>
       </c>
       <c r="D25">
-        <v>0.004319422055285808</v>
+        <v>0.00732423739809333</v>
       </c>
       <c r="E25">
-        <v>0.4108539719910232</v>
+        <v>0.6966654307673871</v>
       </c>
       <c r="F25">
-        <v>3.299388222896012</v>
+        <v>5.594614812736715</v>
       </c>
       <c r="G25">
-        <v>3.811996716607387</v>
+        <v>6.4638205194647</v>
       </c>
       <c r="H25">
-        <v>0.8488074720049302</v>
+        <v>1.439282235138795</v>
       </c>
       <c r="I25">
-        <v>6.291034488377274</v>
+        <v>10.66740630637886</v>
       </c>
       <c r="J25">
-        <v>2.540102995818409</v>
+        <v>4.307131166822518</v>
       </c>
       <c r="K25">
-        <v>3.364190183740848</v>
+        <v>5.704496398517089</v>
       </c>
       <c r="L25">
-        <v>16.54761966913187</v>
+        <v>28.05900726504969</v>
       </c>
       <c r="M25">
-        <v>10.41263419518905</v>
+        <v>17.65620580923362</v>
       </c>
       <c r="N25">
-        <v>0.1764776327223889</v>
+        <v>0.2992446815727465</v>
       </c>
       <c r="O25">
-        <v>0.7334514480944984</v>
+        <v>1.243678542421105</v>
       </c>
       <c r="P25">
-        <v>61.44329699230683</v>
+        <v>104.1864601173899</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1650,49 +1650,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>2.008892788572648</v>
+        <v>3.406383424101447</v>
       </c>
       <c r="C26">
-        <v>9.03508866143013</v>
+        <v>15.3203677302511</v>
       </c>
       <c r="D26">
-        <v>0.004079454163325486</v>
+        <v>0.006917335320421476</v>
       </c>
       <c r="E26">
-        <v>0.3880287513248552</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="F26">
-        <v>3.105306562725658</v>
+        <v>5.265519823752202</v>
       </c>
       <c r="G26">
-        <v>3.587761615630482</v>
+        <v>6.083595783025599</v>
       </c>
       <c r="H26">
-        <v>0.4090638419300868</v>
+        <v>0.6936299928379733</v>
       </c>
       <c r="I26">
-        <v>3.031823849820374</v>
+        <v>5.140918701869327</v>
       </c>
       <c r="J26">
-        <v>3.010492439488485</v>
+        <v>5.104748049567431</v>
       </c>
       <c r="K26">
-        <v>3.987188365915078</v>
+        <v>6.760884620464699</v>
       </c>
       <c r="L26">
-        <v>25.94666764119876</v>
+        <v>43.99652339159791</v>
       </c>
       <c r="M26">
-        <v>16.32701041805644</v>
+        <v>27.68493070887831</v>
       </c>
       <c r="N26">
-        <v>0.06863019050315125</v>
+        <v>0.1163729317227347</v>
       </c>
       <c r="O26">
-        <v>0.2852311187034159</v>
+        <v>0.4836527664970966</v>
       </c>
       <c r="P26">
-        <v>71.19526569946291</v>
+        <v>120.722407055611</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1700,49 +1700,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>2.409202320482004</v>
+        <v>4.085169152121658</v>
       </c>
       <c r="C27">
-        <v>10.83549938189793</v>
+        <v>18.37323808234865</v>
       </c>
       <c r="D27">
-        <v>0.009838683570373232</v>
+        <v>0.01668298518454591</v>
       </c>
       <c r="E27">
-        <v>0.9358340473128861</v>
+        <v>1.586849036747937</v>
       </c>
       <c r="F27">
-        <v>5.757755918387157</v>
+        <v>9.763151339873875</v>
       </c>
       <c r="G27">
-        <v>6.652307995648187</v>
+        <v>11.28000051435996</v>
       </c>
       <c r="H27">
-        <v>0.1738521328202869</v>
+        <v>0.2947927469561388</v>
       </c>
       <c r="I27">
-        <v>1.288525136173659</v>
+        <v>2.184890448294464</v>
       </c>
       <c r="J27">
-        <v>2.446025107084394</v>
+        <v>4.147607790273539</v>
       </c>
       <c r="K27">
-        <v>3.239590547306002</v>
+        <v>5.493218754127566</v>
       </c>
       <c r="L27">
-        <v>8.472381270595516</v>
+        <v>14.36621171970544</v>
       </c>
       <c r="M27">
-        <v>5.331268707936797</v>
+        <v>9.039977374327611</v>
       </c>
       <c r="N27">
-        <v>0.1470646939353241</v>
+        <v>0.2493705679772887</v>
       </c>
       <c r="O27">
-        <v>0.6112095400787485</v>
+        <v>1.036398785350922</v>
       </c>
       <c r="P27">
-        <v>48.31035548322927</v>
+        <v>81.91755929764959</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1750,49 +1750,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>2.589157981615569</v>
+        <v>4.390311360130745</v>
       </c>
       <c r="C28">
-        <v>11.64485832963116</v>
+        <v>19.74562934154849</v>
       </c>
       <c r="D28">
-        <v>0.01007865146233356</v>
+        <v>0.01708988726221777</v>
       </c>
       <c r="E28">
-        <v>0.9586592679790539</v>
+        <v>1.62555267179057</v>
       </c>
       <c r="F28">
-        <v>5.304898711322998</v>
+        <v>8.995263032243345</v>
       </c>
       <c r="G28">
-        <v>6.129092760035407</v>
+        <v>10.39280946266873</v>
       </c>
       <c r="H28">
-        <v>0.1329457486272782</v>
+        <v>0.2254297476723413</v>
       </c>
       <c r="I28">
-        <v>0.9853427511916212</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="J28">
-        <v>2.618501236430089</v>
+        <v>4.440067313946671</v>
       </c>
       <c r="K28">
-        <v>3.468023214103219</v>
+        <v>5.880561102175025</v>
       </c>
       <c r="L28">
-        <v>7.942857441183299</v>
+        <v>13.46832348722385</v>
       </c>
       <c r="M28">
-        <v>4.998064413690747</v>
+        <v>8.474978788432137</v>
       </c>
       <c r="N28">
-        <v>0.1372603810063025</v>
+        <v>0.2327458634454695</v>
       </c>
       <c r="O28">
-        <v>0.5704622374068319</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="P28">
-        <v>47.49020312568592</v>
+        <v>80.52686616964132</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1800,49 +1800,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.546923489716875</v>
+        <v>4.318696352128614</v>
       </c>
       <c r="C29">
-        <v>11.45490673985703</v>
+        <v>19.42353751540974</v>
       </c>
       <c r="D29">
-        <v>0.009118779894492262</v>
+        <v>0.01546227895153036</v>
       </c>
       <c r="E29">
-        <v>0.867358385314382</v>
+        <v>1.470738131620039</v>
       </c>
       <c r="F29">
-        <v>4.722653730811938</v>
+        <v>8.007978065289809</v>
       </c>
       <c r="G29">
-        <v>5.456387457104692</v>
+        <v>9.252135253351437</v>
       </c>
       <c r="H29">
-        <v>0.1840787288685391</v>
+        <v>0.3121334967770881</v>
       </c>
       <c r="I29">
-        <v>1.364320732419168</v>
+        <v>2.313413415841197</v>
       </c>
       <c r="J29">
-        <v>3.088890680100164</v>
+        <v>5.237684196691584</v>
       </c>
       <c r="K29">
-        <v>4.09102139627745</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="L29">
-        <v>8.207619355889403</v>
+        <v>13.91726760346465</v>
       </c>
       <c r="M29">
-        <v>5.164666560813772</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="N29">
-        <v>0.1372603810063025</v>
+        <v>0.2327458634454695</v>
       </c>
       <c r="O29">
-        <v>0.5704622374068319</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="P29">
-        <v>47.86566865548104</v>
+        <v>81.16352511146786</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1850,49 +1850,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>2.629556191257796</v>
+        <v>4.458812672132789</v>
       </c>
       <c r="C30">
-        <v>11.82655115463249</v>
+        <v>20.05371717524641</v>
       </c>
       <c r="D30">
-        <v>0.009838683570373232</v>
+        <v>0.01668298518454591</v>
       </c>
       <c r="E30">
-        <v>0.9358340473128861</v>
+        <v>1.586849036747937</v>
       </c>
       <c r="F30">
-        <v>5.951837578557512</v>
+        <v>10.09224632885839</v>
       </c>
       <c r="G30">
-        <v>6.876543096625091</v>
+        <v>11.66022525079907</v>
       </c>
       <c r="H30">
-        <v>0.1840787288685391</v>
+        <v>0.3121334967770881</v>
       </c>
       <c r="I30">
-        <v>1.364320732419168</v>
+        <v>2.313413415841197</v>
       </c>
       <c r="J30">
-        <v>2.696899477041768</v>
+        <v>4.573003461070824</v>
       </c>
       <c r="K30">
-        <v>3.571856244465591</v>
+        <v>6.056625805832958</v>
       </c>
       <c r="L30">
-        <v>6.619047867652749</v>
+        <v>11.22360290601987</v>
       </c>
       <c r="M30">
-        <v>4.165053678075622</v>
+        <v>7.062482323693447</v>
       </c>
       <c r="N30">
-        <v>0.09804312929021608</v>
+        <v>0.1662470453181925</v>
       </c>
       <c r="O30">
-        <v>0.4074730267191657</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="P30">
-        <v>47.33693363648897</v>
+        <v>80.26697442708999</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1900,49 +1900,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>2.691989787977606</v>
+        <v>4.564678336135938</v>
       </c>
       <c r="C31">
-        <v>12.10734915690728</v>
+        <v>20.52985291823408</v>
       </c>
       <c r="D31">
-        <v>0.008878812002531941</v>
+        <v>0.01505537687385851</v>
       </c>
       <c r="E31">
-        <v>0.8445331646482144</v>
+        <v>1.432034496577407</v>
       </c>
       <c r="F31">
-        <v>6.534082559068572</v>
+        <v>11.07953129581193</v>
       </c>
       <c r="G31">
-        <v>7.549248399555804</v>
+        <v>12.80089946011637</v>
       </c>
       <c r="H31">
-        <v>0.2863446893510608</v>
+        <v>0.4855409949865814</v>
       </c>
       <c r="I31">
-        <v>2.122276694874261</v>
+        <v>3.598643091308529</v>
       </c>
       <c r="J31">
-        <v>2.304908273983372</v>
+        <v>3.908322725450065</v>
       </c>
       <c r="K31">
-        <v>3.052691092653732</v>
+        <v>5.176302287543286</v>
       </c>
       <c r="L31">
-        <v>5.560000208828312</v>
+        <v>9.427826441056697</v>
       </c>
       <c r="M31">
-        <v>3.498645089583523</v>
+        <v>5.932485151902495</v>
       </c>
       <c r="N31">
-        <v>0.1470646939353241</v>
+        <v>0.2493705679772887</v>
       </c>
       <c r="O31">
-        <v>0.6112095400787485</v>
+        <v>1.036398785350922</v>
       </c>
       <c r="P31">
-        <v>47.31922216344834</v>
+        <v>80.23694192932544</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1950,49 +1950,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>2.969268408703814</v>
+        <v>5.034846432149944</v>
       </c>
       <c r="C32">
-        <v>13.35442263759829</v>
+        <v>22.6444557767971</v>
       </c>
       <c r="D32">
-        <v>0.00959871567841291</v>
+        <v>0.01627608310687406</v>
       </c>
       <c r="E32">
-        <v>0.9130088266467181</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="F32">
-        <v>5.693062031663706</v>
+        <v>9.65345301021237</v>
       </c>
       <c r="G32">
-        <v>6.577562961989219</v>
+        <v>11.15325893554693</v>
       </c>
       <c r="H32">
-        <v>0.3477042656405739</v>
+        <v>0.5895854939122775</v>
       </c>
       <c r="I32">
-        <v>2.577050272347317</v>
+        <v>4.369780896588929</v>
       </c>
       <c r="J32">
-        <v>2.2735489777387</v>
+        <v>3.855148266600403</v>
       </c>
       <c r="K32">
-        <v>3.011157880508784</v>
+        <v>5.10587640608011</v>
       </c>
       <c r="L32">
-        <v>3.574285848532484</v>
+        <v>6.060745569250733</v>
       </c>
       <c r="M32">
-        <v>2.249128986160837</v>
+        <v>3.81374045479446</v>
       </c>
       <c r="N32">
-        <v>0.2549121361545618</v>
+        <v>0.4322423178273003</v>
       </c>
       <c r="O32">
-        <v>1.059429869469831</v>
+        <v>1.796424561274931</v>
       </c>
       <c r="P32">
-        <v>44.86414181883324</v>
+        <v>76.07397960584767</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2000,49 +2000,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>3.29612665035457</v>
+        <v>5.589084320166446</v>
       </c>
       <c r="C33">
-        <v>14.82448276715456</v>
+        <v>25.13716643126207</v>
       </c>
       <c r="D33">
-        <v>0.006239165190968392</v>
+        <v>0.01057945401946814</v>
       </c>
       <c r="E33">
-        <v>0.5934557373203668</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="F33">
-        <v>4.39918429719468</v>
+        <v>7.459486416982288</v>
       </c>
       <c r="G33">
-        <v>5.082662288809851</v>
+        <v>8.618427359286267</v>
       </c>
       <c r="H33">
-        <v>0.5317829945091128</v>
+        <v>0.9017189906893653</v>
       </c>
       <c r="I33">
-        <v>3.941371004766485</v>
+        <v>6.683194312430128</v>
       </c>
       <c r="J33">
-        <v>2.210830385249356</v>
+        <v>3.748799348901082</v>
       </c>
       <c r="K33">
-        <v>2.928091456218886</v>
+        <v>4.965024643153763</v>
       </c>
       <c r="L33">
-        <v>3.044762019120264</v>
+        <v>5.162857336769143</v>
       </c>
       <c r="M33">
-        <v>1.915924691914787</v>
+        <v>3.248741868898986</v>
       </c>
       <c r="N33">
-        <v>0.06863019050315125</v>
+        <v>0.1163729317227347</v>
       </c>
       <c r="O33">
-        <v>0.2852311187034159</v>
+        <v>0.4836527664970966</v>
       </c>
       <c r="P33">
-        <v>43.12877476701046</v>
+        <v>73.13140069188731</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2050,49 +2050,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>3.200639973018393</v>
+        <v>5.427172128161629</v>
       </c>
       <c r="C34">
-        <v>14.39502699896959</v>
+        <v>24.40895882433971</v>
       </c>
       <c r="D34">
-        <v>0.004079454163325486</v>
+        <v>0.006917335320421476</v>
       </c>
       <c r="E34">
-        <v>0.3880287513248552</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="F34">
-        <v>3.622857656513268</v>
+        <v>6.143106461044237</v>
       </c>
       <c r="G34">
-        <v>4.18572188490223</v>
+        <v>7.097528413529865</v>
       </c>
       <c r="H34">
-        <v>0.715861723377652</v>
+        <v>1.213852487466454</v>
       </c>
       <c r="I34">
-        <v>5.305691737185653</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="J34">
-        <v>1.191653257297525</v>
+        <v>2.020629436287108</v>
       </c>
       <c r="K34">
-        <v>1.578262061508052</v>
+        <v>2.67618349560061</v>
       </c>
       <c r="L34">
-        <v>2.647619147061097</v>
+        <v>4.489441162407953</v>
       </c>
       <c r="M34">
-        <v>1.666021471230249</v>
+        <v>2.824992929477379</v>
       </c>
       <c r="N34">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O34">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P34">
-        <v>38.95201573215283</v>
+        <v>66.04907015451998</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>2.256790893195414</v>
+        <v>3.826732384113965</v>
       </c>
       <c r="C35">
-        <v>10.15002190575652</v>
+        <v>17.21090670976105</v>
       </c>
       <c r="D35">
-        <v>0.003599518379404841</v>
+        <v>0.006103531165077773</v>
       </c>
       <c r="E35">
-        <v>0.3423783099925193</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="F35">
-        <v>3.170000449449109</v>
+        <v>5.375218153413709</v>
       </c>
       <c r="G35">
-        <v>3.66250664928945</v>
+        <v>6.210337361838633</v>
       </c>
       <c r="H35">
-        <v>0.5522361866056174</v>
+        <v>0.936400490331264</v>
       </c>
       <c r="I35">
-        <v>4.092962197257503</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="J35">
-        <v>0.6115062767710986</v>
+        <v>1.036901947568385</v>
       </c>
       <c r="K35">
-        <v>0.8098976368265004</v>
+        <v>1.373304688531892</v>
       </c>
       <c r="L35">
-        <v>1.58857148823666</v>
+        <v>2.693664697444769</v>
       </c>
       <c r="M35">
-        <v>0.9996128827381492</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="N35">
-        <v>0.02941293878706482</v>
+        <v>0.04987411359545774</v>
       </c>
       <c r="O35">
-        <v>0.1222419080157497</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="P35">
-        <v>28.39173924130076</v>
+        <v>48.14251436568389</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.91340611123647</v>
+        <v>3.244471232096623</v>
       </c>
       <c r="C36">
-        <v>8.605632893245151</v>
+        <v>14.59216012332874</v>
       </c>
       <c r="D36">
-        <v>0.007439004650770005</v>
+        <v>0.0126139644078274</v>
       </c>
       <c r="E36">
-        <v>0.7075818406512066</v>
+        <v>1.199812686321611</v>
       </c>
       <c r="F36">
-        <v>2.134898261873889</v>
+        <v>3.620044878829639</v>
       </c>
       <c r="G36">
-        <v>2.466586110745956</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="H36">
-        <v>0.4704234182195999</v>
+        <v>0.7976744917636694</v>
       </c>
       <c r="I36">
-        <v>3.486597427293429</v>
+        <v>5.912056507149727</v>
       </c>
       <c r="J36">
-        <v>0.5801469805264269</v>
+        <v>0.9837274887187237</v>
       </c>
       <c r="K36">
-        <v>0.7683644246815515</v>
+        <v>1.302878807068718</v>
       </c>
       <c r="L36">
-        <v>2.515238189708043</v>
+        <v>4.264969104287552</v>
       </c>
       <c r="M36">
-        <v>1.582720397668737</v>
+        <v>2.683743283003509</v>
       </c>
       <c r="N36">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O36">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P36">
-        <v>25.28958667610216</v>
+        <v>42.88234262469499</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>1.535131966404692</v>
+        <v>2.603049856077522</v>
       </c>
       <c r="C37">
-        <v>6.904327350050817</v>
+        <v>11.70733768052094</v>
       </c>
       <c r="D37">
-        <v>0.005519261515087423</v>
+        <v>0.009358747786452586</v>
       </c>
       <c r="E37">
-        <v>0.524980075321863</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="F37">
-        <v>1.682041054809732</v>
+        <v>2.85215657119911</v>
       </c>
       <c r="G37">
-        <v>1.943370875133178</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="H37">
-        <v>0.3988372458818347</v>
+        <v>0.6762892430170243</v>
       </c>
       <c r="I37">
-        <v>2.956028253574864</v>
+        <v>5.012395734322595</v>
       </c>
       <c r="J37">
-        <v>0.3292726105690532</v>
+        <v>0.5583318179214378</v>
       </c>
       <c r="K37">
-        <v>0.4360987275219618</v>
+        <v>0.7394717553633264</v>
       </c>
       <c r="L37">
-        <v>1.58857148823666</v>
+        <v>2.693664697444769</v>
       </c>
       <c r="M37">
-        <v>0.9996128827381492</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="N37">
-        <v>0.01960862585804321</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O37">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P37">
-        <v>19.40489502295977</v>
+        <v>32.90395243023612</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,49 +2250,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.164202950598774</v>
+        <v>1.97408326405879</v>
       </c>
       <c r="C38">
-        <v>5.236056865947624</v>
+        <v>8.878531207476412</v>
       </c>
       <c r="D38">
-        <v>0.006239165190968392</v>
+        <v>0.01057945401946814</v>
       </c>
       <c r="E38">
-        <v>0.5934557373203668</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="F38">
-        <v>1.423265507915926</v>
+        <v>2.413363252553093</v>
       </c>
       <c r="G38">
-        <v>1.644390740497305</v>
+        <v>2.788314733886733</v>
       </c>
       <c r="H38">
-        <v>0.1329457486272782</v>
+        <v>0.2254297476723413</v>
       </c>
       <c r="I38">
-        <v>0.9853427511916212</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="J38">
-        <v>0.2195150737127021</v>
+        <v>0.3722212119476253</v>
       </c>
       <c r="K38">
-        <v>0.2907324850146412</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="L38">
-        <v>1.05904765882444</v>
+        <v>1.79577646496318</v>
       </c>
       <c r="M38">
-        <v>0.6664085884920996</v>
+        <v>1.129997171790951</v>
       </c>
       <c r="N38">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O38">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P38">
-        <v>13.47215488893469</v>
+        <v>22.84408872471534</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2300,49 +2300,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.7290040558165822</v>
+        <v>1.236137312036814</v>
       </c>
       <c r="C39">
-        <v>3.278729614796857</v>
+        <v>5.559584999003367</v>
       </c>
       <c r="D39">
-        <v>0.004079454163325486</v>
+        <v>0.006917335320421476</v>
       </c>
       <c r="E39">
-        <v>0.3880287513248552</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="F39">
-        <v>1.09979607429867</v>
+        <v>1.864871604245572</v>
       </c>
       <c r="G39">
-        <v>1.270665572202463</v>
+        <v>2.154606839821567</v>
       </c>
       <c r="H39">
-        <v>0.09203936443426956</v>
+        <v>0.156066748388544</v>
       </c>
       <c r="I39">
-        <v>0.682160366209584</v>
+        <v>1.156706707920599</v>
       </c>
       <c r="J39">
-        <v>0.3449522586913888</v>
+        <v>0.5849190473462681</v>
       </c>
       <c r="K39">
-        <v>0.456865333594436</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="L39">
-        <v>1.720952445589714</v>
+        <v>2.918136755565167</v>
       </c>
       <c r="M39">
-        <v>1.082913956299662</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="N39">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O39">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P39">
-        <v>11.20073886302274</v>
+        <v>18.99255720251683</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2350,49 +2350,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.5472121124265528</v>
+        <v>0.9278814080276333</v>
       </c>
       <c r="C40">
-        <v>2.461111902290841</v>
+        <v>4.173189747362728</v>
       </c>
       <c r="D40">
-        <v>0.005759229407047746</v>
+        <v>0.009765649864124438</v>
       </c>
       <c r="E40">
-        <v>0.5478052959880308</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="F40">
-        <v>0.5822449805110608</v>
+        <v>0.9872849669535378</v>
       </c>
       <c r="G40">
-        <v>0.6727053029307153</v>
+        <v>1.1406742093173</v>
       </c>
       <c r="H40">
-        <v>0.03067978814475652</v>
+        <v>0.052022249462848</v>
       </c>
       <c r="I40">
-        <v>0.227386788736528</v>
+        <v>0.3855689026401996</v>
       </c>
       <c r="J40">
-        <v>0.1411168331010227</v>
+        <v>0.2392850648234734</v>
       </c>
       <c r="K40">
-        <v>0.1868994546522693</v>
+        <v>0.3169164665842827</v>
       </c>
       <c r="L40">
-        <v>1.191428616177494</v>
+        <v>2.020248523083577</v>
       </c>
       <c r="M40">
-        <v>0.749709662053612</v>
+        <v>1.271246818264821</v>
       </c>
       <c r="N40">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O40">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P40">
-        <v>7.394611582020869</v>
+        <v>12.53868920429626</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2400,43 +2400,43 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.3488936287283389</v>
+        <v>0.5916022400176187</v>
       </c>
       <c r="C41">
-        <v>1.569165306829729</v>
+        <v>2.66075856375476</v>
       </c>
       <c r="D41">
-        <v>0.006479133082928712</v>
+        <v>0.01098635609713999</v>
       </c>
       <c r="E41">
-        <v>0.6162809579865347</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="H41">
-        <v>0.01022659604825217</v>
+        <v>0.01734074982094934</v>
       </c>
       <c r="I41">
-        <v>0.07579559624550933</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="J41">
-        <v>0.2979133143243813</v>
+        <v>0.5051573590717771</v>
       </c>
       <c r="K41">
-        <v>0.394565515377013</v>
+        <v>0.6690458739001525</v>
       </c>
       <c r="L41">
-        <v>1.191428616177494</v>
+        <v>2.020248523083577</v>
       </c>
       <c r="M41">
-        <v>0.749709662053612</v>
+        <v>1.271246818264821</v>
       </c>
       <c r="N41">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O41">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P41">
-        <v>5.311009942454731</v>
+        <v>9.005625554597156</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2444,37 +2444,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.2093361772370034</v>
+        <v>0.3549613440105711</v>
       </c>
       <c r="C42">
-        <v>0.9414991840978384</v>
+        <v>1.596455138252856</v>
       </c>
       <c r="D42">
-        <v>0.005279293623127099</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E42">
-        <v>0.5021548546556949</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F42">
-        <v>0.5822449805110608</v>
+        <v>0.9872849669535378</v>
       </c>
       <c r="G42">
-        <v>0.6727053029307153</v>
+        <v>1.1406742093173</v>
       </c>
       <c r="J42">
-        <v>0.2195150737127021</v>
+        <v>0.3722212119476253</v>
       </c>
       <c r="K42">
-        <v>0.2907324850146412</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="L42">
-        <v>1.985714360295825</v>
+        <v>3.367080871805963</v>
       </c>
       <c r="M42">
-        <v>1.249516103422687</v>
+        <v>2.118744697108034</v>
       </c>
       <c r="P42">
-        <v>6.658697815501295</v>
+        <v>11.2908354262848</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2482,43 +2482,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.2589157981615566</v>
+        <v>0.4390311360130748</v>
       </c>
       <c r="C43">
-        <v>1.164485832963116</v>
+        <v>1.974562934154848</v>
       </c>
       <c r="D43">
-        <v>0.003599518379404841</v>
+        <v>0.006103531165077773</v>
       </c>
       <c r="E43">
-        <v>0.3423783099925193</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="F43">
-        <v>0.4528572070641586</v>
+        <v>0.7678883076305296</v>
       </c>
       <c r="G43">
-        <v>0.5232152356127787</v>
+        <v>0.8871910516912331</v>
       </c>
       <c r="H43">
-        <v>0.04090638419300869</v>
+        <v>0.06936299928379734</v>
       </c>
       <c r="I43">
-        <v>0.3031823849820373</v>
+        <v>0.5140918701869328</v>
       </c>
       <c r="J43">
-        <v>0.2195150737127021</v>
+        <v>0.3722212119476253</v>
       </c>
       <c r="K43">
-        <v>0.2907324850146412</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="L43">
-        <v>2.515238189708043</v>
+        <v>4.264969104287552</v>
       </c>
       <c r="M43">
-        <v>1.582720397668737</v>
+        <v>2.683743283003509</v>
       </c>
       <c r="P43">
-        <v>7.697746817452703</v>
+        <v>13.05270112524589</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2526,43 +2526,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.4278537657563318</v>
+        <v>0.7254911680216055</v>
       </c>
       <c r="C44">
-        <v>1.924292192059617</v>
+        <v>3.262930238709786</v>
       </c>
       <c r="D44">
-        <v>0.003119582595484196</v>
+        <v>0.00528972700973407</v>
       </c>
       <c r="E44">
-        <v>0.2967278686601834</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="F44">
-        <v>0.9057144141283171</v>
+        <v>1.535776615261059</v>
       </c>
       <c r="G44">
-        <v>1.046430471225557</v>
+        <v>1.774382103382466</v>
       </c>
       <c r="H44">
-        <v>0.02045319209650434</v>
+        <v>0.03468149964189867</v>
       </c>
       <c r="I44">
-        <v>0.1515911924910187</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="J44">
-        <v>0.3606319068137248</v>
+        <v>0.6115062767710985</v>
       </c>
       <c r="K44">
-        <v>0.4776319396669105</v>
+        <v>0.8098976368265004</v>
       </c>
       <c r="L44">
-        <v>3.044762019120264</v>
+        <v>5.162857336769143</v>
       </c>
       <c r="M44">
-        <v>1.915924691914787</v>
+        <v>3.248741868898986</v>
       </c>
       <c r="P44">
-        <v>10.5751332365287</v>
+        <v>17.93174766193997</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2570,49 +2570,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.9695570314134898</v>
+        <v>1.64403148804896</v>
       </c>
       <c r="C45">
-        <v>4.360627800032094</v>
+        <v>7.394108008750072</v>
       </c>
       <c r="D45">
-        <v>0.003599518379404841</v>
+        <v>0.006103531165077773</v>
       </c>
       <c r="E45">
-        <v>0.3423783099925193</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="F45">
-        <v>2.134898261873889</v>
+        <v>3.620044878829639</v>
       </c>
       <c r="G45">
-        <v>2.466586110745956</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="H45">
-        <v>0.2556649012063043</v>
+        <v>0.4335187455237334</v>
       </c>
       <c r="I45">
-        <v>1.894889906137733</v>
+        <v>3.213074188668331</v>
       </c>
       <c r="J45">
-        <v>0.9094195910954799</v>
+        <v>1.542059306640161</v>
       </c>
       <c r="K45">
-        <v>1.204463152203513</v>
+        <v>2.042350562432044</v>
       </c>
       <c r="L45">
-        <v>4.765714464709976</v>
+        <v>8.08099409233431</v>
       </c>
       <c r="M45">
-        <v>2.998838648214448</v>
+        <v>5.084987273059284</v>
       </c>
       <c r="N45">
-        <v>0.009804312929021603</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O45">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P45">
-        <v>22.35718931160575</v>
+        <v>37.91001665880975</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2620,49 +2620,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.788538917796854</v>
+        <v>3.032739904090318</v>
       </c>
       <c r="C46">
-        <v>8.044036888695565</v>
+        <v>13.63988863735335</v>
       </c>
       <c r="D46">
-        <v>0.003839486271365164</v>
+        <v>0.006510433242749623</v>
       </c>
       <c r="E46">
-        <v>0.3652035306586873</v>
+        <v>0.6192581606821218</v>
       </c>
       <c r="F46">
-        <v>3.816939316683621</v>
+        <v>6.472201450028746</v>
       </c>
       <c r="G46">
-        <v>4.409956985879135</v>
+        <v>7.477753149968966</v>
       </c>
       <c r="H46">
-        <v>0.9203936443426951</v>
+        <v>1.56066748388544</v>
       </c>
       <c r="I46">
-        <v>6.821603662095841</v>
+        <v>11.56706707920599</v>
       </c>
       <c r="J46">
-        <v>1.567964812233586</v>
+        <v>2.658722942483037</v>
       </c>
       <c r="K46">
-        <v>2.076660607247437</v>
+        <v>3.521294073158698</v>
       </c>
       <c r="L46">
-        <v>7.810476483830242</v>
+        <v>13.24385142910345</v>
       </c>
       <c r="M46">
-        <v>4.914763340129236</v>
+        <v>8.333729141958266</v>
       </c>
       <c r="N46">
-        <v>0.03921725171608641</v>
+        <v>0.066498818127277</v>
       </c>
       <c r="O46">
-        <v>0.1629892106876663</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="P46">
-        <v>42.74258413826802</v>
+        <v>72.47655571271534</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2670,49 +2670,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>2.517542973613436</v>
+        <v>4.26887721612713</v>
       </c>
       <c r="C47">
-        <v>11.32276650349242</v>
+        <v>19.19947363635671</v>
       </c>
       <c r="D47">
-        <v>0.002399678919603227</v>
+        <v>0.004069020776718515</v>
       </c>
       <c r="E47">
-        <v>0.2282522066616795</v>
+        <v>0.3870363504263262</v>
       </c>
       <c r="F47">
-        <v>3.105306562725658</v>
+        <v>5.265519823752202</v>
       </c>
       <c r="G47">
-        <v>3.587761615630482</v>
+        <v>6.083595783025599</v>
       </c>
       <c r="H47">
-        <v>0.7260883194259043</v>
+        <v>1.231193237287403</v>
       </c>
       <c r="I47">
-        <v>5.381487333431161</v>
+        <v>9.12513069581806</v>
       </c>
       <c r="J47">
-        <v>1.81883918219096</v>
+        <v>3.084118613280323</v>
       </c>
       <c r="K47">
-        <v>2.408926304407026</v>
+        <v>4.084701124864089</v>
       </c>
       <c r="L47">
-        <v>7.810476483830242</v>
+        <v>13.24385142910345</v>
       </c>
       <c r="M47">
-        <v>4.914763340129236</v>
+        <v>8.333729141958266</v>
       </c>
       <c r="N47">
-        <v>0.07843450343217283</v>
+        <v>0.132997636254554</v>
       </c>
       <c r="O47">
-        <v>0.3259784213753326</v>
+        <v>0.5527460188538247</v>
       </c>
       <c r="P47">
-        <v>44.22902342926532</v>
+        <v>74.99703972788465</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2720,49 +2720,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>3.077609061835244</v>
+        <v>5.218554496155409</v>
       </c>
       <c r="C48">
-        <v>13.84168975919277</v>
+        <v>23.47069133080514</v>
       </c>
       <c r="D48">
-        <v>0.005279293623127099</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E48">
-        <v>0.5021548546556949</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F48">
-        <v>5.046123164429195</v>
+        <v>8.556469713597329</v>
       </c>
       <c r="G48">
-        <v>5.830112625399535</v>
+        <v>9.885843147416598</v>
       </c>
       <c r="H48">
-        <v>0.3886106498335825</v>
+        <v>0.6589484931960747</v>
       </c>
       <c r="I48">
-        <v>2.880232657329354</v>
+        <v>4.883872766775861</v>
       </c>
       <c r="J48">
-        <v>2.179471089004684</v>
+        <v>3.695624890051421</v>
       </c>
       <c r="K48">
-        <v>2.886558244073937</v>
+        <v>4.894598761690591</v>
       </c>
       <c r="L48">
-        <v>11.25238137500967</v>
+        <v>19.08012494023378</v>
       </c>
       <c r="M48">
-        <v>7.080591252728558</v>
+        <v>12.00621995027886</v>
       </c>
       <c r="N48">
-        <v>0.09804312929021608</v>
+        <v>0.1662470453181925</v>
       </c>
       <c r="O48">
-        <v>0.4074730267191657</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="P48">
-        <v>55.47633018312474</v>
+        <v>94.06855987573324</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2770,49 +2770,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>2.317388207658756</v>
+        <v>3.929484352117022</v>
       </c>
       <c r="C49">
-        <v>10.42256114325852</v>
+        <v>17.67303846030792</v>
       </c>
       <c r="D49">
-        <v>0.003359550487444519</v>
+        <v>0.005696629087405921</v>
       </c>
       <c r="E49">
-        <v>0.3195530893263514</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="F49">
-        <v>4.722653730811938</v>
+        <v>8.007978065289809</v>
       </c>
       <c r="G49">
-        <v>5.456387457104692</v>
+        <v>9.252135253351437</v>
       </c>
       <c r="H49">
-        <v>0.8283542799084258</v>
+        <v>1.404600735496896</v>
       </c>
       <c r="I49">
-        <v>6.139443295886254</v>
+        <v>10.41036037128539</v>
       </c>
       <c r="J49">
-        <v>2.477384403329066</v>
+        <v>4.200782249123199</v>
       </c>
       <c r="K49">
-        <v>3.28112375945095</v>
+        <v>5.563644635590742</v>
       </c>
       <c r="L49">
-        <v>18.00381020001547</v>
+        <v>30.52819990437406</v>
       </c>
       <c r="M49">
-        <v>11.32894600436569</v>
+        <v>19.20995192044618</v>
       </c>
       <c r="N49">
-        <v>0.1960862585804322</v>
+        <v>0.3324940906363849</v>
       </c>
       <c r="O49">
-        <v>0.8149460534383314</v>
+        <v>1.381865047134561</v>
       </c>
       <c r="P49">
-        <v>66.31199743362232</v>
+        <v>112.4420826048379</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM25.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>3.474884736103484</v>
+        <v>2.044247624142157</v>
       </c>
       <c r="C2">
-        <v>15.62845556394901</v>
+        <v>9.194098677194969</v>
       </c>
       <c r="D2">
-        <v>0.008951845708780735</v>
+        <v>0.005266301103956155</v>
       </c>
       <c r="E2">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="F2">
-        <v>3.620044878829639</v>
+        <v>2.129644205445981</v>
       </c>
       <c r="G2">
-        <v>4.1824721008301</v>
+        <v>2.460515759365941</v>
       </c>
       <c r="H2">
-        <v>0.7109707426589228</v>
+        <v>0.4182585501080067</v>
       </c>
       <c r="I2">
-        <v>5.269441669416063</v>
+        <v>3.099971490087048</v>
       </c>
       <c r="J2">
-        <v>5.237684196691584</v>
+        <v>3.081288816244298</v>
       </c>
       <c r="K2">
-        <v>6.936949324122633</v>
+        <v>4.080953255023282</v>
       </c>
       <c r="L2">
-        <v>40.40497046167157</v>
+        <v>23.76992940560842</v>
       </c>
       <c r="M2">
-        <v>25.42493636529641</v>
+        <v>14.95729202718937</v>
       </c>
       <c r="N2">
-        <v>0.09974822719091547</v>
+        <v>0.05868110511086269</v>
       </c>
       <c r="O2">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="P2">
-        <v>112.2655495975474</v>
+        <v>66.0449483844304</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>4.169238944124164</v>
+        <v>2.452730796349774</v>
       </c>
       <c r="C3">
-        <v>18.75134587825065</v>
+        <v>11.03127072469898</v>
       </c>
       <c r="D3">
-        <v>0.02156581011660813</v>
+        <v>0.01268699811407619</v>
       </c>
       <c r="E3">
-        <v>2.051292657259529</v>
+        <v>1.206759492611314</v>
       </c>
       <c r="F3">
-        <v>6.801296439013265</v>
+        <v>4.001149719322752</v>
       </c>
       <c r="G3">
-        <v>7.857977886408063</v>
+        <v>4.622787184263283</v>
       </c>
       <c r="H3">
-        <v>0.3121334967770881</v>
+        <v>0.1836257049254664</v>
       </c>
       <c r="I3">
-        <v>2.313413415841197</v>
+        <v>1.360963093208948</v>
       </c>
       <c r="J3">
-        <v>4.25395670797286</v>
+        <v>2.502569596949684</v>
       </c>
       <c r="K3">
-        <v>5.634070517053916</v>
+        <v>3.314479801034137</v>
       </c>
       <c r="L3">
-        <v>13.24385142910345</v>
+        <v>7.791254638504982</v>
       </c>
       <c r="M3">
-        <v>8.333729141958266</v>
+        <v>4.902667942245404</v>
       </c>
       <c r="N3">
-        <v>0.2327458634454695</v>
+        <v>0.136922578592013</v>
       </c>
       <c r="O3">
-        <v>0.9673055329941932</v>
+        <v>0.5690583106535749</v>
       </c>
       <c r="P3">
-        <v>74.94392372031872</v>
+        <v>44.0889265814744</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>4.480608544133435</v>
+        <v>2.635907106756777</v>
       </c>
       <c r="C4">
-        <v>20.15174512233212</v>
+        <v>11.85511469218956</v>
       </c>
       <c r="D4">
-        <v>0.02237961427195184</v>
+        <v>0.01316575275989039</v>
       </c>
       <c r="E4">
-        <v>2.128699927344794</v>
+        <v>1.252297586672118</v>
       </c>
       <c r="F4">
-        <v>6.252804790705741</v>
+        <v>3.678476354861238</v>
       </c>
       <c r="G4">
-        <v>7.2242699923429</v>
+        <v>4.249981766177535</v>
       </c>
       <c r="H4">
-        <v>0.2254297476723413</v>
+        <v>0.1326185646683924</v>
       </c>
       <c r="I4">
-        <v>1.670798578107532</v>
+        <v>0.9829177895397958</v>
       </c>
       <c r="J4">
-        <v>4.546416231645995</v>
+        <v>2.674621256739976</v>
       </c>
       <c r="K4">
-        <v>6.021412865101372</v>
+        <v>3.542350287355234</v>
       </c>
       <c r="L4">
-        <v>12.34596319662186</v>
+        <v>7.263033985047017</v>
       </c>
       <c r="M4">
-        <v>7.768730556062793</v>
+        <v>4.570283674974529</v>
       </c>
       <c r="N4">
-        <v>0.2161211589136501</v>
+        <v>0.1271423944068692</v>
       </c>
       <c r="O4">
-        <v>0.8982122806374654</v>
+        <v>0.5284112884640336</v>
       </c>
       <c r="P4">
-        <v>73.95359260589395</v>
+        <v>43.50632250061297</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>4.40587984013121</v>
+        <v>2.591944792259095</v>
       </c>
       <c r="C5">
-        <v>19.81564930375255</v>
+        <v>11.65739213999183</v>
       </c>
       <c r="D5">
-        <v>0.01993820180592073</v>
+        <v>0.0117294888224478</v>
       </c>
       <c r="E5">
-        <v>1.896478117088998</v>
+        <v>1.115683304489706</v>
       </c>
       <c r="F5">
-        <v>5.594614812736715</v>
+        <v>3.291268317507425</v>
       </c>
       <c r="G5">
-        <v>6.4638205194647</v>
+        <v>3.802615264474636</v>
       </c>
       <c r="H5">
-        <v>0.3294742465980374</v>
+        <v>0.1938271329768812</v>
       </c>
       <c r="I5">
-        <v>2.44193638338793</v>
+        <v>1.436572153942778</v>
       </c>
       <c r="J5">
-        <v>5.370620343815736</v>
+        <v>3.159494116148976</v>
       </c>
       <c r="K5">
-        <v>7.113014027780569</v>
+        <v>4.184530748805598</v>
       </c>
       <c r="L5">
-        <v>12.79490731286266</v>
+        <v>7.527144311775997</v>
       </c>
       <c r="M5">
-        <v>8.051229849010529</v>
+        <v>4.736475808609967</v>
       </c>
       <c r="N5">
-        <v>0.2161211589136501</v>
+        <v>0.1271423944068692</v>
       </c>
       <c r="O5">
-        <v>0.8982122806374654</v>
+        <v>0.5284112884640336</v>
       </c>
       <c r="P5">
-        <v>75.41189639798667</v>
+        <v>44.36423126267624</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>4.549109856135477</v>
+        <v>2.676205895046318</v>
       </c>
       <c r="C6">
-        <v>20.45983295603003</v>
+        <v>12.0363603650375</v>
       </c>
       <c r="D6">
-        <v>0.02156581011660813</v>
+        <v>0.01268699811407619</v>
       </c>
       <c r="E6">
-        <v>2.051292657259529</v>
+        <v>1.206759492611314</v>
       </c>
       <c r="F6">
-        <v>7.020693098336273</v>
+        <v>4.130219065107355</v>
       </c>
       <c r="G6">
-        <v>8.111461044034135</v>
+        <v>4.771909351497582</v>
       </c>
       <c r="H6">
-        <v>0.3294742465980374</v>
+        <v>0.1938271329768812</v>
       </c>
       <c r="I6">
-        <v>2.44193638338793</v>
+        <v>1.436572153942778</v>
       </c>
       <c r="J6">
-        <v>4.679352378770145</v>
+        <v>2.752826556644652</v>
       </c>
       <c r="K6">
-        <v>6.197477568759307</v>
+        <v>3.64592778113755</v>
       </c>
       <c r="L6">
-        <v>10.32571467353829</v>
+        <v>6.074537514766592</v>
       </c>
       <c r="M6">
-        <v>6.497483737797972</v>
+        <v>3.822419073615062</v>
       </c>
       <c r="N6">
-        <v>0.1496223407863732</v>
+        <v>0.08802165766629404</v>
       </c>
       <c r="O6">
-        <v>0.6218392712105527</v>
+        <v>0.3658231997058696</v>
       </c>
       <c r="P6">
-        <v>73.45685602276066</v>
+        <v>43.21409623786982</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>4.658089216138721</v>
+        <v>2.740317603688768</v>
       </c>
       <c r="C7">
-        <v>20.94997269145854</v>
+        <v>12.3247057536592</v>
       </c>
       <c r="D7">
-        <v>0.01953129972824888</v>
+        <v>0.0114901114995407</v>
       </c>
       <c r="E7">
-        <v>1.857774482046366</v>
+        <v>1.092914257459303</v>
       </c>
       <c r="F7">
-        <v>7.678883076305299</v>
+        <v>4.517427102461169</v>
       </c>
       <c r="G7">
-        <v>8.871910516912331</v>
+        <v>5.219275853200482</v>
       </c>
       <c r="H7">
-        <v>0.5028817448075308</v>
+        <v>0.2958414134910291</v>
       </c>
       <c r="I7">
-        <v>3.727166058855262</v>
+        <v>2.192662761281084</v>
       </c>
       <c r="J7">
-        <v>4.014671643149386</v>
+        <v>2.361800057121264</v>
       </c>
       <c r="K7">
-        <v>5.317154050469633</v>
+        <v>3.128040312225966</v>
       </c>
       <c r="L7">
-        <v>8.754410266695501</v>
+        <v>5.150151371215156</v>
       </c>
       <c r="M7">
-        <v>5.508736212480888</v>
+        <v>3.24074660589103</v>
       </c>
       <c r="N7">
-        <v>0.2327458634454695</v>
+        <v>0.136922578592013</v>
       </c>
       <c r="O7">
-        <v>0.9673055329941932</v>
+        <v>0.5690583106535749</v>
       </c>
       <c r="P7">
-        <v>73.06123265548736</v>
+        <v>42.98135409243959</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>5.137598400153</v>
+        <v>3.022409121715553</v>
       </c>
       <c r="C8">
-        <v>23.10658752734397</v>
+        <v>13.59342546359471</v>
       </c>
       <c r="D8">
-        <v>0.02115890803893628</v>
+        <v>0.01244762079116909</v>
       </c>
       <c r="E8">
-        <v>2.012589022216896</v>
+        <v>1.183990445580912</v>
       </c>
       <c r="F8">
-        <v>6.691598109351756</v>
+        <v>3.936615046430449</v>
       </c>
       <c r="G8">
-        <v>7.731236307595034</v>
+        <v>4.548226100646135</v>
       </c>
       <c r="H8">
-        <v>0.6069262437332268</v>
+        <v>0.357049981799518</v>
       </c>
       <c r="I8">
-        <v>4.498303864135661</v>
+        <v>2.646317125684067</v>
       </c>
       <c r="J8">
-        <v>3.961497184299726</v>
+        <v>2.330517937159393</v>
       </c>
       <c r="K8">
-        <v>5.246728169006459</v>
+        <v>3.08660931471304</v>
       </c>
       <c r="L8">
-        <v>5.611801453009935</v>
+        <v>3.30137908411228</v>
       </c>
       <c r="M8">
-        <v>3.531241161846724</v>
+        <v>2.077401670442968</v>
       </c>
       <c r="N8">
-        <v>0.3989929087636619</v>
+        <v>0.2347244204434508</v>
       </c>
       <c r="O8">
-        <v>1.658238056561474</v>
+        <v>0.9755285325489854</v>
       </c>
       <c r="P8">
-        <v>70.21449731605647</v>
+        <v>41.30664186566262</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>5.704291072169882</v>
+        <v>3.355790006656299</v>
       </c>
       <c r="C9">
-        <v>25.6553141515722</v>
+        <v>15.09282148442758</v>
       </c>
       <c r="D9">
-        <v>0.01383467064084295</v>
+        <v>0.00813882897884133</v>
       </c>
       <c r="E9">
-        <v>1.315923591449509</v>
+        <v>0.7741475990336733</v>
       </c>
       <c r="F9">
-        <v>5.155821494090701</v>
+        <v>3.033129625938213</v>
       </c>
       <c r="G9">
-        <v>5.956854204212568</v>
+        <v>3.504370930006038</v>
       </c>
       <c r="H9">
-        <v>0.936400490331264</v>
+        <v>0.5508771147763991</v>
       </c>
       <c r="I9">
-        <v>6.940240247523591</v>
+        <v>4.082889279626846</v>
       </c>
       <c r="J9">
-        <v>3.855148266600403</v>
+        <v>2.26795369723565</v>
       </c>
       <c r="K9">
-        <v>5.10587640608011</v>
+        <v>3.003747319687186</v>
       </c>
       <c r="L9">
-        <v>4.713913220528348</v>
+        <v>2.773158430654314</v>
       </c>
       <c r="M9">
-        <v>2.966242575951247</v>
+        <v>1.745017403172094</v>
       </c>
       <c r="N9">
-        <v>0.09974822719091547</v>
+        <v>0.05868110511086269</v>
       </c>
       <c r="O9">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="P9">
-        <v>68.83416813248193</v>
+        <v>40.49460495844124</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>5.539265184164964</v>
+        <v>3.258706562140587</v>
       </c>
       <c r="C10">
-        <v>24.91310255220904</v>
+        <v>14.65618418165757</v>
       </c>
       <c r="D10">
-        <v>0.008951845708780735</v>
+        <v>0.005266301103956155</v>
       </c>
       <c r="E10">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="F10">
-        <v>4.278234856798664</v>
+        <v>2.516852242799795</v>
       </c>
       <c r="G10">
-        <v>4.942921573708299</v>
+        <v>2.90788226106884</v>
       </c>
       <c r="H10">
-        <v>1.248533987108352</v>
+        <v>0.7345028197018656</v>
       </c>
       <c r="I10">
-        <v>9.253653663364789</v>
+        <v>5.443852372835794</v>
       </c>
       <c r="J10">
-        <v>2.073803895136769</v>
+        <v>1.220002678512971</v>
       </c>
       <c r="K10">
-        <v>2.746609377063783</v>
+        <v>1.615808903004142</v>
       </c>
       <c r="L10">
-        <v>4.040497046167155</v>
+        <v>2.37699294056084</v>
       </c>
       <c r="M10">
-        <v>2.542493636529642</v>
+        <v>1.495729202718937</v>
       </c>
       <c r="N10">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O10">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P10">
-        <v>62.5252655457867</v>
+        <v>36.78312670714882</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>3.904574784116281</v>
+        <v>2.297030932503821</v>
       </c>
       <c r="C11">
-        <v>17.56100652078142</v>
+        <v>10.33100335233198</v>
       </c>
       <c r="D11">
-        <v>0.007731139475765179</v>
+        <v>0.004548169135234859</v>
       </c>
       <c r="E11">
-        <v>0.7353690658100197</v>
+        <v>0.432611893577641</v>
       </c>
       <c r="F11">
-        <v>3.729743208491144</v>
+        <v>2.194178878338283</v>
       </c>
       <c r="G11">
-        <v>4.309213679643134</v>
+        <v>2.535076842983091</v>
       </c>
       <c r="H11">
-        <v>0.9710819899731628</v>
+        <v>0.5712799708792289</v>
       </c>
       <c r="I11">
-        <v>7.197286182617058</v>
+        <v>4.234107401094507</v>
       </c>
       <c r="J11">
-        <v>1.063489176993215</v>
+        <v>0.6256423992374209</v>
       </c>
       <c r="K11">
-        <v>1.408517629263479</v>
+        <v>0.8286199502585342</v>
       </c>
       <c r="L11">
-        <v>2.469192639324372</v>
+        <v>1.452606797009403</v>
       </c>
       <c r="M11">
-        <v>1.553746111212558</v>
+        <v>0.9140567349949059</v>
       </c>
       <c r="N11">
-        <v>0.04987411359545774</v>
+        <v>0.02934055255543135</v>
       </c>
       <c r="O11">
-        <v>0.2072797570701843</v>
+        <v>0.1219410665686232</v>
       </c>
       <c r="P11">
-        <v>45.16810599836725</v>
+        <v>26.5720449414681</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>3.309858848098571</v>
+        <v>1.947164179626444</v>
       </c>
       <c r="C12">
-        <v>14.88624396458585</v>
+        <v>8.757461374424956</v>
       </c>
       <c r="D12">
-        <v>0.01627608310687406</v>
+        <v>0.009575092916283917</v>
       </c>
       <c r="E12">
-        <v>1.548145401705305</v>
+        <v>0.9107618812160861</v>
       </c>
       <c r="F12">
-        <v>2.523061582214598</v>
+        <v>1.484297476522956</v>
       </c>
       <c r="G12">
-        <v>2.915056312699767</v>
+        <v>1.714904923194444</v>
       </c>
       <c r="H12">
-        <v>0.8150152415846187</v>
+        <v>0.4794671184164956</v>
       </c>
       <c r="I12">
-        <v>6.040579474696461</v>
+        <v>3.553625854490031</v>
       </c>
       <c r="J12">
-        <v>1.010314718143554</v>
+        <v>0.5943602792755499</v>
       </c>
       <c r="K12">
-        <v>1.338091747800305</v>
+        <v>0.7871889527456074</v>
       </c>
       <c r="L12">
-        <v>3.816024988046757</v>
+        <v>2.244937777196352</v>
       </c>
       <c r="M12">
-        <v>2.401243990055772</v>
+        <v>1.412633135901219</v>
       </c>
       <c r="N12">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O12">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P12">
-        <v>40.70563030962698</v>
+        <v>23.94680525230111</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>2.655982688079099</v>
+        <v>1.562493927771738</v>
       </c>
       <c r="C13">
-        <v>11.94540555201479</v>
+        <v>7.027389042694721</v>
       </c>
       <c r="D13">
-        <v>0.01220706233015555</v>
+        <v>0.007181319687212938</v>
       </c>
       <c r="E13">
-        <v>1.161109051278979</v>
+        <v>0.6830714109120647</v>
       </c>
       <c r="F13">
-        <v>1.974569933907076</v>
+        <v>1.161624112061444</v>
       </c>
       <c r="G13">
-        <v>2.2813484186346</v>
+        <v>1.342099505108695</v>
       </c>
       <c r="H13">
-        <v>0.6936299928379733</v>
+        <v>0.4080571220565918</v>
       </c>
       <c r="I13">
-        <v>5.140918701869327</v>
+        <v>3.024362429353218</v>
       </c>
       <c r="J13">
-        <v>0.5849190473462681</v>
+        <v>0.3441033195805815</v>
       </c>
       <c r="K13">
-        <v>0.7746846960949134</v>
+        <v>0.4557409726421938</v>
       </c>
       <c r="L13">
-        <v>2.469192639324372</v>
+        <v>1.452606797009403</v>
       </c>
       <c r="M13">
-        <v>1.553746111212558</v>
+        <v>0.9140567349949059</v>
       </c>
       <c r="N13">
-        <v>0.0332494090636385</v>
+        <v>0.01956036837028757</v>
       </c>
       <c r="O13">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="P13">
-        <v>31.4191498087072</v>
+        <v>18.48364110662213</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>2.014561312059995</v>
+        <v>1.185150728333311</v>
       </c>
       <c r="C14">
-        <v>9.060583109206997</v>
+        <v>5.330270469664107</v>
       </c>
       <c r="D14">
-        <v>0.01383467064084295</v>
+        <v>0.00813882897884133</v>
       </c>
       <c r="E14">
-        <v>1.315923591449509</v>
+        <v>0.7741475990336733</v>
       </c>
       <c r="F14">
-        <v>1.645474944922563</v>
+        <v>0.9680200933845364</v>
       </c>
       <c r="G14">
-        <v>1.9011236821955</v>
+        <v>1.118416254257246</v>
       </c>
       <c r="H14">
-        <v>0.2254297476723413</v>
+        <v>0.1326185646683924</v>
       </c>
       <c r="I14">
-        <v>1.670798578107532</v>
+        <v>0.9829177895397958</v>
       </c>
       <c r="J14">
-        <v>0.3722212119476253</v>
+        <v>0.2189748397330973</v>
       </c>
       <c r="K14">
-        <v>0.4929811702422176</v>
+        <v>0.290016982590487</v>
       </c>
       <c r="L14">
-        <v>1.571304406842783</v>
+        <v>0.9243861435514388</v>
       </c>
       <c r="M14">
-        <v>0.988747525317083</v>
+        <v>0.581672467724031</v>
       </c>
       <c r="N14">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O14">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P14">
-        <v>21.35870190749354</v>
+        <v>12.56515796783364</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>1.261046880037554</v>
+        <v>0.7418640571483628</v>
       </c>
       <c r="C15">
-        <v>5.671616938529885</v>
+        <v>3.336568068336883</v>
       </c>
       <c r="D15">
-        <v>0.008951845708780735</v>
+        <v>0.005266301103956155</v>
       </c>
       <c r="E15">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="F15">
-        <v>1.31637995593805</v>
+        <v>0.7744160747076294</v>
       </c>
       <c r="G15">
-        <v>1.5208989457564</v>
+        <v>0.8947330034057971</v>
       </c>
       <c r="H15">
-        <v>0.156066748388544</v>
+        <v>0.0918128524627332</v>
       </c>
       <c r="I15">
-        <v>1.156706707920599</v>
+        <v>0.6804815466044742</v>
       </c>
       <c r="J15">
-        <v>0.6115062767710985</v>
+        <v>0.359744379561517</v>
       </c>
       <c r="K15">
-        <v>0.8098976368265004</v>
+        <v>0.4764564713986572</v>
       </c>
       <c r="L15">
-        <v>2.693664697444769</v>
+        <v>1.584661960373895</v>
       </c>
       <c r="M15">
-        <v>1.694995757686427</v>
+        <v>0.9971528018126247</v>
       </c>
       <c r="N15">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O15">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P15">
-        <v>17.83893031883508</v>
+        <v>10.49450375796006</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.9465635840281896</v>
+        <v>0.5568559836372899</v>
       </c>
       <c r="C16">
-        <v>4.257213702007616</v>
+        <v>2.504485661171389</v>
       </c>
       <c r="D16">
-        <v>0.0126139644078274</v>
+        <v>0.007420697010120037</v>
       </c>
       <c r="E16">
-        <v>1.199812686321611</v>
+        <v>0.7058404579424669</v>
       </c>
       <c r="F16">
-        <v>0.6581899779690252</v>
+        <v>0.3872080373538147</v>
       </c>
       <c r="G16">
-        <v>0.7604494728781999</v>
+        <v>0.4473665017028985</v>
       </c>
       <c r="H16">
-        <v>0.052022249462848</v>
+        <v>0.0306042841542444</v>
       </c>
       <c r="I16">
-        <v>0.3855689026401996</v>
+        <v>0.2268271822014913</v>
       </c>
       <c r="J16">
-        <v>0.2392850648234734</v>
+        <v>0.1407695398284197</v>
       </c>
       <c r="K16">
-        <v>0.3169164665842827</v>
+        <v>0.1864394888081702</v>
       </c>
       <c r="L16">
-        <v>1.79577646496318</v>
+        <v>1.05644130691593</v>
       </c>
       <c r="M16">
-        <v>1.129997171790951</v>
+        <v>0.6647685345417498</v>
       </c>
       <c r="N16">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O16">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P16">
-        <v>11.84012766476595</v>
+        <v>6.965454881642668</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.6040570240179896</v>
+        <v>0.3553620421895864</v>
       </c>
       <c r="C17">
-        <v>2.716774533518018</v>
+        <v>1.598257296931741</v>
       </c>
       <c r="D17">
-        <v>0.0142415727185148</v>
+        <v>0.008378206301748429</v>
       </c>
       <c r="E17">
-        <v>1.354627226492142</v>
+        <v>0.7969166460640756</v>
       </c>
       <c r="H17">
-        <v>0.01734074982094934</v>
+        <v>0.0102014280514148</v>
       </c>
       <c r="I17">
-        <v>0.1285229675467332</v>
+        <v>0.07560906073383046</v>
       </c>
       <c r="J17">
-        <v>0.5051573590717771</v>
+        <v>0.297180139637775</v>
       </c>
       <c r="K17">
-        <v>0.6690458739001525</v>
+        <v>0.3935944763728037</v>
       </c>
       <c r="L17">
-        <v>1.79577646496318</v>
+        <v>1.05644130691593</v>
       </c>
       <c r="M17">
-        <v>1.129997171790951</v>
+        <v>0.6647685345417498</v>
       </c>
       <c r="N17">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O17">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P17">
-        <v>9.021258900728954</v>
+        <v>5.307136344115341</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,37 +1274,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.3611887360107565</v>
+        <v>0.2124845200721238</v>
       </c>
       <c r="C18">
-        <v>1.624463123134486</v>
+        <v>0.9556590022890825</v>
       </c>
       <c r="D18">
-        <v>0.01180016025248369</v>
+        <v>0.006941942364305839</v>
       </c>
       <c r="E18">
-        <v>1.122405416236346</v>
+        <v>0.6603023638816625</v>
       </c>
       <c r="F18">
-        <v>0.6581899779690252</v>
+        <v>0.3872080373538147</v>
       </c>
       <c r="G18">
-        <v>0.7604494728781999</v>
+        <v>0.4473665017028985</v>
       </c>
       <c r="J18">
-        <v>0.3722212119476253</v>
+        <v>0.2189748397330973</v>
       </c>
       <c r="K18">
-        <v>0.4929811702422176</v>
+        <v>0.290016982590487</v>
       </c>
       <c r="L18">
-        <v>3.142608813685566</v>
+        <v>1.848772287102878</v>
       </c>
       <c r="M18">
-        <v>1.977495050634166</v>
+        <v>1.163344935448062</v>
       </c>
       <c r="P18">
-        <v>10.52380313299087</v>
+        <v>6.191071412538411</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1312,43 +1312,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.4483722240133527</v>
+        <v>0.2637738869860846</v>
       </c>
       <c r="C19">
-        <v>2.016574911477292</v>
+        <v>1.186335313186447</v>
       </c>
       <c r="D19">
-        <v>0.007731139475765179</v>
+        <v>0.004548169135234859</v>
       </c>
       <c r="E19">
-        <v>0.7353690658100197</v>
+        <v>0.432611893577641</v>
       </c>
       <c r="F19">
-        <v>0.5484916483075213</v>
+        <v>0.3226733644615122</v>
       </c>
       <c r="G19">
-        <v>0.6337078940651664</v>
+        <v>0.3728054180857487</v>
       </c>
       <c r="H19">
-        <v>0.06936299928379734</v>
+        <v>0.04080571220565921</v>
       </c>
       <c r="I19">
-        <v>0.5140918701869328</v>
+        <v>0.3024362429353218</v>
       </c>
       <c r="J19">
-        <v>0.3722212119476253</v>
+        <v>0.2189748397330973</v>
       </c>
       <c r="K19">
-        <v>0.4929811702422176</v>
+        <v>0.290016982590487</v>
       </c>
       <c r="L19">
-        <v>3.816024988046757</v>
+        <v>2.244937777196352</v>
       </c>
       <c r="M19">
-        <v>2.401243990055772</v>
+        <v>1.412633135901219</v>
       </c>
       <c r="P19">
-        <v>12.05617311291222</v>
+        <v>7.092552735994804</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,43 +1356,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.7410596480220694</v>
+        <v>0.4359596187686676</v>
       </c>
       <c r="C20">
-        <v>3.332950200913857</v>
+        <v>1.960748642627601</v>
       </c>
       <c r="D20">
-        <v>0.006917335320421476</v>
+        <v>0.004069414489420665</v>
       </c>
       <c r="E20">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="F20">
-        <v>1.096983296615043</v>
+        <v>0.6453467289230245</v>
       </c>
       <c r="G20">
-        <v>1.267415788130333</v>
+        <v>0.7456108361714974</v>
       </c>
       <c r="H20">
-        <v>0.03468149964189867</v>
+        <v>0.0204028561028296</v>
       </c>
       <c r="I20">
-        <v>0.2570459350934664</v>
+        <v>0.1512181214676609</v>
       </c>
       <c r="J20">
-        <v>0.6380935061959289</v>
+        <v>0.3753854395424525</v>
       </c>
       <c r="K20">
-        <v>0.8451105775580874</v>
+        <v>0.4971719701551205</v>
       </c>
       <c r="L20">
-        <v>4.713913220528348</v>
+        <v>2.773158430654314</v>
       </c>
       <c r="M20">
-        <v>2.966242575951247</v>
+        <v>1.745017403172094</v>
       </c>
       <c r="P20">
-        <v>16.55837537969545</v>
+        <v>9.741163261591518</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1400,49 +1400,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>1.67828214404998</v>
+        <v>0.9873203130937473</v>
       </c>
       <c r="C21">
-        <v>7.548151925599031</v>
+        <v>4.440518984774271</v>
       </c>
       <c r="D21">
-        <v>0.007731139475765179</v>
+        <v>0.004548169135234859</v>
       </c>
       <c r="E21">
-        <v>0.7353690658100197</v>
+        <v>0.432611893577641</v>
       </c>
       <c r="F21">
-        <v>2.523061582214598</v>
+        <v>1.484297476522956</v>
       </c>
       <c r="G21">
-        <v>2.915056312699767</v>
+        <v>1.714904923194444</v>
       </c>
       <c r="H21">
-        <v>0.4508594953446827</v>
+        <v>0.2652371293367847</v>
       </c>
       <c r="I21">
-        <v>3.341597156215064</v>
+        <v>1.965835579079592</v>
       </c>
       <c r="J21">
-        <v>1.595233765489822</v>
+        <v>0.9384635988561314</v>
       </c>
       <c r="K21">
-        <v>2.112776443895219</v>
+        <v>1.242929925387801</v>
       </c>
       <c r="L21">
-        <v>7.407577917973119</v>
+        <v>4.357820391028211</v>
       </c>
       <c r="M21">
-        <v>4.661238333637675</v>
+        <v>2.742170204984718</v>
       </c>
       <c r="N21">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O21">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P21">
-        <v>35.06265323929329</v>
+        <v>20.62708579534622</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1450,49 +1450,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>3.095013824092172</v>
+        <v>1.820772525445612</v>
       </c>
       <c r="C22">
-        <v>13.91996848616963</v>
+        <v>8.189009036856449</v>
       </c>
       <c r="D22">
-        <v>0.008544943631108885</v>
+        <v>0.005026923781049057</v>
       </c>
       <c r="E22">
-        <v>0.812776335895285</v>
+        <v>0.4781499876384451</v>
       </c>
       <c r="F22">
-        <v>4.497631516121673</v>
+        <v>2.6459215885844</v>
       </c>
       <c r="G22">
-        <v>5.196404731334367</v>
+        <v>3.05700442830314</v>
       </c>
       <c r="H22">
-        <v>1.612689733348289</v>
+        <v>0.9487328087815764</v>
       </c>
       <c r="I22">
-        <v>11.95263598184619</v>
+        <v>7.031642648246232</v>
       </c>
       <c r="J22">
-        <v>2.738484630757529</v>
+        <v>1.611029178036359</v>
       </c>
       <c r="K22">
-        <v>3.626932895353458</v>
+        <v>2.133696371915726</v>
       </c>
       <c r="L22">
-        <v>12.12149113850147</v>
+        <v>7.130978821682529</v>
       </c>
       <c r="M22">
-        <v>7.627480909588921</v>
+        <v>4.487187608156813</v>
       </c>
       <c r="N22">
-        <v>0.066498818127277</v>
+        <v>0.03912073674057515</v>
       </c>
       <c r="O22">
-        <v>0.2763730094269123</v>
+        <v>0.1625880887581642</v>
       </c>
       <c r="P22">
-        <v>67.55292695419429</v>
+        <v>39.74086075292707</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1500,49 +1500,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>4.356060704129728</v>
+        <v>2.562636582593975</v>
       </c>
       <c r="C23">
-        <v>19.59158542469953</v>
+        <v>11.52557710519332</v>
       </c>
       <c r="D23">
-        <v>0.00528972700973407</v>
+        <v>0.003111905197792273</v>
       </c>
       <c r="E23">
-        <v>0.503147255554224</v>
+        <v>0.2959976113952281</v>
       </c>
       <c r="F23">
-        <v>3.620044878829639</v>
+        <v>2.129644205445981</v>
       </c>
       <c r="G23">
-        <v>4.1824721008301</v>
+        <v>2.460515759365941</v>
       </c>
       <c r="H23">
-        <v>1.265874736929302</v>
+        <v>0.7447042477532799</v>
       </c>
       <c r="I23">
-        <v>9.382176630911527</v>
+        <v>5.519461433569623</v>
       </c>
       <c r="J23">
-        <v>3.163880301554814</v>
+        <v>1.861286137731328</v>
       </c>
       <c r="K23">
-        <v>4.19033994705885</v>
+        <v>2.46514435201914</v>
       </c>
       <c r="L23">
-        <v>12.12149113850147</v>
+        <v>7.130978821682529</v>
       </c>
       <c r="M23">
-        <v>7.627480909588921</v>
+        <v>4.487187608156813</v>
       </c>
       <c r="N23">
-        <v>0.1163729317227347</v>
+        <v>0.06846128929600651</v>
       </c>
       <c r="O23">
-        <v>0.4836527664970966</v>
+        <v>0.2845291553267875</v>
       </c>
       <c r="P23">
-        <v>70.60986945381768</v>
+        <v>41.53923621472774</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1550,49 +1550,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>5.324420160158566</v>
+        <v>3.132314907959756</v>
       </c>
       <c r="C24">
-        <v>23.94682707379285</v>
+        <v>14.08773184408906</v>
       </c>
       <c r="D24">
-        <v>0.01139325817481184</v>
+        <v>0.006702565041398741</v>
       </c>
       <c r="E24">
-        <v>1.083701781193713</v>
+        <v>0.6375333168512606</v>
       </c>
       <c r="F24">
-        <v>5.92370980172123</v>
+        <v>3.484872336184331</v>
       </c>
       <c r="G24">
-        <v>6.844045255903801</v>
+        <v>4.026298515326086</v>
       </c>
       <c r="H24">
-        <v>0.6762892430170243</v>
+        <v>0.3978556940051772</v>
       </c>
       <c r="I24">
-        <v>5.012395734322595</v>
+        <v>2.948753368619388</v>
       </c>
       <c r="J24">
-        <v>3.801973807750743</v>
+        <v>2.23667157727378</v>
       </c>
       <c r="K24">
-        <v>5.035450524616937</v>
+        <v>2.96231632217426</v>
       </c>
       <c r="L24">
-        <v>17.508820533391</v>
+        <v>10.30030274243031</v>
       </c>
       <c r="M24">
-        <v>11.01747242496178</v>
+        <v>6.481493211782061</v>
       </c>
       <c r="N24">
-        <v>0.1496223407863732</v>
+        <v>0.08802165766629404</v>
       </c>
       <c r="O24">
-        <v>0.6218392712105527</v>
+        <v>0.3658231997058696</v>
       </c>
       <c r="P24">
-        <v>86.95796121100197</v>
+        <v>51.15669125910903</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1600,49 +1600,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>4.010440448119432</v>
+        <v>2.359310878042201</v>
       </c>
       <c r="C25">
-        <v>18.03714226376912</v>
+        <v>10.61111030127877</v>
       </c>
       <c r="D25">
-        <v>0.00732423739809333</v>
+        <v>0.004308791812327762</v>
       </c>
       <c r="E25">
-        <v>0.6966654307673871</v>
+        <v>0.4098428465472388</v>
       </c>
       <c r="F25">
-        <v>5.594614812736715</v>
+        <v>3.291268317507425</v>
       </c>
       <c r="G25">
-        <v>6.4638205194647</v>
+        <v>3.802615264474636</v>
       </c>
       <c r="H25">
-        <v>1.439282235138795</v>
+        <v>0.8467185282674287</v>
       </c>
       <c r="I25">
-        <v>10.66740630637886</v>
+        <v>6.275552040907927</v>
       </c>
       <c r="J25">
-        <v>4.307131166822518</v>
+        <v>2.533851716911555</v>
       </c>
       <c r="K25">
-        <v>5.704496398517089</v>
+        <v>3.355910798547063</v>
       </c>
       <c r="L25">
-        <v>28.05900726504969</v>
+        <v>16.50689542056141</v>
       </c>
       <c r="M25">
-        <v>17.65620580923362</v>
+        <v>10.38700835221484</v>
       </c>
       <c r="N25">
-        <v>0.2992446815727465</v>
+        <v>0.1760433153325881</v>
       </c>
       <c r="O25">
-        <v>1.243678542421105</v>
+        <v>0.7316463994117391</v>
       </c>
       <c r="P25">
-        <v>104.1864601173899</v>
+        <v>61.29208297181716</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1650,49 +1650,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>3.406383424101447</v>
+        <v>2.003948835852615</v>
       </c>
       <c r="C26">
-        <v>15.3203677302511</v>
+        <v>9.012853004347038</v>
       </c>
       <c r="D26">
-        <v>0.006917335320421476</v>
+        <v>0.004069414489420665</v>
       </c>
       <c r="E26">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="F26">
-        <v>5.265519823752202</v>
+        <v>3.097664298830518</v>
       </c>
       <c r="G26">
-        <v>6.083595783025599</v>
+        <v>3.578932013623188</v>
       </c>
       <c r="H26">
-        <v>0.6936299928379733</v>
+        <v>0.4080571220565918</v>
       </c>
       <c r="I26">
-        <v>5.140918701869327</v>
+        <v>3.024362429353218</v>
       </c>
       <c r="J26">
-        <v>5.104748049567431</v>
+        <v>3.00308351633962</v>
       </c>
       <c r="K26">
-        <v>6.760884620464699</v>
+        <v>3.977375761240964</v>
       </c>
       <c r="L26">
-        <v>43.99652339159791</v>
+        <v>25.88281201944028</v>
       </c>
       <c r="M26">
-        <v>27.68493070887831</v>
+        <v>16.28682909627288</v>
       </c>
       <c r="N26">
-        <v>0.1163729317227347</v>
+        <v>0.06846128929600651</v>
       </c>
       <c r="O26">
-        <v>0.4836527664970966</v>
+        <v>0.2845291553267875</v>
       </c>
       <c r="P26">
-        <v>120.722407055611</v>
+        <v>71.02005175598597</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1700,49 +1700,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>4.085169152121658</v>
+        <v>2.403273192539884</v>
       </c>
       <c r="C27">
-        <v>18.37323808234865</v>
+        <v>10.80883285347652</v>
       </c>
       <c r="D27">
-        <v>0.01668298518454591</v>
+        <v>0.009814470239191018</v>
       </c>
       <c r="E27">
-        <v>1.586849036747937</v>
+        <v>0.9335309282464883</v>
       </c>
       <c r="F27">
-        <v>9.763151339873875</v>
+        <v>5.743585887414913</v>
       </c>
       <c r="G27">
-        <v>11.28000051435996</v>
+        <v>6.635936441926328</v>
       </c>
       <c r="H27">
-        <v>0.2947927469561388</v>
+        <v>0.1734242768740516</v>
       </c>
       <c r="I27">
-        <v>2.184890448294464</v>
+        <v>1.285354032475118</v>
       </c>
       <c r="J27">
-        <v>4.147607790273539</v>
+        <v>2.440005357025942</v>
       </c>
       <c r="K27">
-        <v>5.493218754127566</v>
+        <v>3.231617806008284</v>
       </c>
       <c r="L27">
-        <v>14.36621171970544</v>
+        <v>8.45153045532744</v>
       </c>
       <c r="M27">
-        <v>9.039977374327611</v>
+        <v>5.318148276333998</v>
       </c>
       <c r="N27">
-        <v>0.2493705679772887</v>
+        <v>0.1467027627771568</v>
       </c>
       <c r="O27">
-        <v>1.036398785350922</v>
+        <v>0.6097053328431158</v>
       </c>
       <c r="P27">
-        <v>81.91755929764959</v>
+        <v>48.19146207350843</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1750,49 +1750,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>4.390311360130745</v>
+        <v>2.582785976738747</v>
       </c>
       <c r="C28">
-        <v>19.74562934154849</v>
+        <v>11.61619994161729</v>
       </c>
       <c r="D28">
-        <v>0.01708988726221777</v>
+        <v>0.01005384756209811</v>
       </c>
       <c r="E28">
-        <v>1.62555267179057</v>
+        <v>0.9562999752768903</v>
       </c>
       <c r="F28">
-        <v>8.995263032243345</v>
+        <v>5.291843177168801</v>
       </c>
       <c r="G28">
-        <v>10.39280946266873</v>
+        <v>6.11400885660628</v>
       </c>
       <c r="H28">
-        <v>0.2254297476723413</v>
+        <v>0.1326185646683924</v>
       </c>
       <c r="I28">
-        <v>1.670798578107532</v>
+        <v>0.9829177895397958</v>
       </c>
       <c r="J28">
-        <v>4.440067313946671</v>
+        <v>2.612057016816233</v>
       </c>
       <c r="K28">
-        <v>5.880561102175025</v>
+        <v>3.45948829232938</v>
       </c>
       <c r="L28">
-        <v>13.46832348722385</v>
+        <v>7.923309801869472</v>
       </c>
       <c r="M28">
-        <v>8.474978788432137</v>
+        <v>4.985764009063123</v>
       </c>
       <c r="N28">
-        <v>0.2327458634454695</v>
+        <v>0.136922578592013</v>
       </c>
       <c r="O28">
-        <v>0.9673055329941932</v>
+        <v>0.5690583106535749</v>
       </c>
       <c r="P28">
-        <v>80.52686616964132</v>
+        <v>47.3733281385021</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1800,49 +1800,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>4.318696352128614</v>
+        <v>2.540655425345137</v>
       </c>
       <c r="C29">
-        <v>19.42353751540974</v>
+        <v>11.42671582909446</v>
       </c>
       <c r="D29">
-        <v>0.01546227895153036</v>
+        <v>0.009096338270469718</v>
       </c>
       <c r="E29">
-        <v>1.470738131620039</v>
+        <v>0.8652237871552819</v>
       </c>
       <c r="F29">
-        <v>8.007978065289809</v>
+        <v>4.711031121138078</v>
       </c>
       <c r="G29">
-        <v>9.252135253351437</v>
+        <v>5.442959104051931</v>
       </c>
       <c r="H29">
-        <v>0.3121334967770881</v>
+        <v>0.1836257049254664</v>
       </c>
       <c r="I29">
-        <v>2.313413415841197</v>
+        <v>1.360963093208948</v>
       </c>
       <c r="J29">
-        <v>5.237684196691584</v>
+        <v>3.081288816244298</v>
       </c>
       <c r="K29">
-        <v>6.936949324122633</v>
+        <v>4.080953255023282</v>
       </c>
       <c r="L29">
-        <v>13.91726760346465</v>
+        <v>8.187420128598454</v>
       </c>
       <c r="M29">
-        <v>8.757478081379874</v>
+        <v>5.151956142698562</v>
       </c>
       <c r="N29">
-        <v>0.2327458634454695</v>
+        <v>0.136922578592013</v>
       </c>
       <c r="O29">
-        <v>0.9673055329941932</v>
+        <v>0.5690583106535749</v>
       </c>
       <c r="P29">
-        <v>81.16352511146786</v>
+        <v>47.74786963499996</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1850,49 +1850,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>4.458812672132789</v>
+        <v>2.623084765028288</v>
       </c>
       <c r="C30">
-        <v>20.05371717524641</v>
+        <v>11.79744561446523</v>
       </c>
       <c r="D30">
-        <v>0.01668298518454591</v>
+        <v>0.009814470239191018</v>
       </c>
       <c r="E30">
-        <v>1.586849036747937</v>
+        <v>0.9335309282464883</v>
       </c>
       <c r="F30">
-        <v>10.09224632885839</v>
+        <v>5.937189906091823</v>
       </c>
       <c r="G30">
-        <v>11.66022525079907</v>
+        <v>6.859619692777777</v>
       </c>
       <c r="H30">
-        <v>0.3121334967770881</v>
+        <v>0.1836257049254664</v>
       </c>
       <c r="I30">
-        <v>2.313413415841197</v>
+        <v>1.360963093208948</v>
       </c>
       <c r="J30">
-        <v>4.573003461070824</v>
+        <v>2.69026231672091</v>
       </c>
       <c r="K30">
-        <v>6.056625805832958</v>
+        <v>3.563065786111696</v>
       </c>
       <c r="L30">
-        <v>11.22360290601987</v>
+        <v>6.60275816822456</v>
       </c>
       <c r="M30">
-        <v>7.062482323693447</v>
+        <v>4.154803340885936</v>
       </c>
       <c r="N30">
-        <v>0.1662470453181925</v>
+        <v>0.09780184185143785</v>
       </c>
       <c r="O30">
-        <v>0.6909325235672807</v>
+        <v>0.4064702218954105</v>
       </c>
       <c r="P30">
-        <v>80.26697442708999</v>
+        <v>47.22043585067316</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1900,49 +1900,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>4.564678336135938</v>
+        <v>2.685364710566668</v>
       </c>
       <c r="C31">
-        <v>20.52985291823408</v>
+        <v>12.07755256341203</v>
       </c>
       <c r="D31">
-        <v>0.01505537687385851</v>
+        <v>0.008856960947562623</v>
       </c>
       <c r="E31">
-        <v>1.432034496577407</v>
+        <v>0.8424547401248796</v>
       </c>
       <c r="F31">
-        <v>11.07953129581193</v>
+        <v>6.518001962122544</v>
       </c>
       <c r="G31">
-        <v>12.80089946011637</v>
+        <v>7.530669445332125</v>
       </c>
       <c r="H31">
-        <v>0.4855409949865814</v>
+        <v>0.2856399854396144</v>
       </c>
       <c r="I31">
-        <v>3.598643091308529</v>
+        <v>2.117053700547253</v>
       </c>
       <c r="J31">
-        <v>3.908322725450065</v>
+        <v>2.299235817197522</v>
       </c>
       <c r="K31">
-        <v>5.176302287543286</v>
+        <v>3.045178317200114</v>
       </c>
       <c r="L31">
-        <v>9.427826441056697</v>
+        <v>5.546316861308629</v>
       </c>
       <c r="M31">
-        <v>5.932485151902495</v>
+        <v>3.490034806344187</v>
       </c>
       <c r="N31">
-        <v>0.2493705679772887</v>
+        <v>0.1467027627771568</v>
       </c>
       <c r="O31">
-        <v>1.036398785350922</v>
+        <v>0.6097053328431158</v>
       </c>
       <c r="P31">
-        <v>80.23694192932544</v>
+        <v>47.20276796616339</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1950,49 +1950,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>5.034846432149944</v>
+        <v>2.961960939281242</v>
       </c>
       <c r="C32">
-        <v>22.6444557767971</v>
+        <v>13.32155695432281</v>
       </c>
       <c r="D32">
-        <v>0.01627608310687406</v>
+        <v>0.009575092916283917</v>
       </c>
       <c r="E32">
-        <v>1.548145401705305</v>
+        <v>0.9107618812160861</v>
       </c>
       <c r="F32">
-        <v>9.65345301021237</v>
+        <v>5.679051214522613</v>
       </c>
       <c r="G32">
-        <v>11.15325893554693</v>
+        <v>6.561375358309177</v>
       </c>
       <c r="H32">
-        <v>0.5895854939122775</v>
+        <v>0.3468485537481032</v>
       </c>
       <c r="I32">
-        <v>4.369780896588929</v>
+        <v>2.570708064950235</v>
       </c>
       <c r="J32">
-        <v>3.855148266600403</v>
+        <v>2.26795369723565</v>
       </c>
       <c r="K32">
-        <v>5.10587640608011</v>
+        <v>3.003747319687186</v>
       </c>
       <c r="L32">
-        <v>6.060745569250733</v>
+        <v>3.565489410841264</v>
       </c>
       <c r="M32">
-        <v>3.81374045479446</v>
+        <v>2.243593804078406</v>
       </c>
       <c r="N32">
-        <v>0.4322423178273003</v>
+        <v>0.2542847888137384</v>
       </c>
       <c r="O32">
-        <v>1.796424561274931</v>
+        <v>1.056822576928067</v>
       </c>
       <c r="P32">
-        <v>76.07397960584767</v>
+        <v>44.75372965685087</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2000,49 +2000,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>5.589084320166446</v>
+        <v>3.28801477180571</v>
       </c>
       <c r="C33">
-        <v>25.13716643126207</v>
+        <v>14.78799921645606</v>
       </c>
       <c r="D33">
-        <v>0.01057945401946814</v>
+        <v>0.006223810395584546</v>
       </c>
       <c r="E33">
-        <v>1.006294511108448</v>
+        <v>0.5919952227904561</v>
       </c>
       <c r="F33">
-        <v>7.459486416982288</v>
+        <v>4.388357756676565</v>
       </c>
       <c r="G33">
-        <v>8.618427359286267</v>
+        <v>5.070153685966181</v>
       </c>
       <c r="H33">
-        <v>0.9017189906893653</v>
+        <v>0.5304742586735695</v>
       </c>
       <c r="I33">
-        <v>6.683194312430128</v>
+        <v>3.931671158159183</v>
       </c>
       <c r="J33">
-        <v>3.748799348901082</v>
+        <v>2.205389457311909</v>
       </c>
       <c r="K33">
-        <v>4.965024643153763</v>
+        <v>2.920885324661333</v>
       </c>
       <c r="L33">
-        <v>5.162857336769143</v>
+        <v>3.037268757383296</v>
       </c>
       <c r="M33">
-        <v>3.248741868898986</v>
+        <v>1.911209536807531</v>
       </c>
       <c r="N33">
-        <v>0.1163729317227347</v>
+        <v>0.06846128929600651</v>
       </c>
       <c r="O33">
-        <v>0.4836527664970966</v>
+        <v>0.2845291553267875</v>
       </c>
       <c r="P33">
-        <v>73.13140069188731</v>
+        <v>43.02263340171017</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2050,49 +2050,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>5.427172128161629</v>
+        <v>3.192763090394067</v>
       </c>
       <c r="C34">
-        <v>24.40895882433971</v>
+        <v>14.35960035336096</v>
       </c>
       <c r="D34">
-        <v>0.006917335320421476</v>
+        <v>0.004069414489420665</v>
       </c>
       <c r="E34">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="F34">
-        <v>6.143106461044237</v>
+        <v>3.613941681968936</v>
       </c>
       <c r="G34">
-        <v>7.097528413529865</v>
+        <v>4.175420682560384</v>
       </c>
       <c r="H34">
-        <v>1.213852487466454</v>
+        <v>0.714099963599036</v>
       </c>
       <c r="I34">
-        <v>8.996607728271321</v>
+        <v>5.292634251368133</v>
       </c>
       <c r="J34">
-        <v>2.020629436287108</v>
+        <v>1.1887205585511</v>
       </c>
       <c r="K34">
-        <v>2.67618349560061</v>
+        <v>1.574377905491215</v>
       </c>
       <c r="L34">
-        <v>4.489441162407953</v>
+        <v>2.641103267289825</v>
       </c>
       <c r="M34">
-        <v>2.824992929477379</v>
+        <v>1.661921336354375</v>
       </c>
       <c r="N34">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O34">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P34">
-        <v>66.04907015451998</v>
+        <v>38.85615351131897</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>3.826732384113965</v>
+        <v>2.25123685490207</v>
       </c>
       <c r="C35">
-        <v>17.21090670976105</v>
+        <v>10.12504236045933</v>
       </c>
       <c r="D35">
-        <v>0.006103531165077773</v>
+        <v>0.003590659843606469</v>
       </c>
       <c r="E35">
-        <v>0.5805545256394893</v>
+        <v>0.3415357054560323</v>
       </c>
       <c r="F35">
-        <v>5.375218153413709</v>
+        <v>3.162198971722819</v>
       </c>
       <c r="G35">
-        <v>6.210337361838633</v>
+        <v>3.653493097240338</v>
       </c>
       <c r="H35">
-        <v>0.936400490331264</v>
+        <v>0.5508771147763991</v>
       </c>
       <c r="I35">
-        <v>6.940240247523591</v>
+        <v>4.082889279626846</v>
       </c>
       <c r="J35">
-        <v>1.036901947568385</v>
+        <v>0.6100013392564855</v>
       </c>
       <c r="K35">
-        <v>1.373304688531892</v>
+        <v>0.8079044515020709</v>
       </c>
       <c r="L35">
-        <v>2.693664697444769</v>
+        <v>1.584661960373895</v>
       </c>
       <c r="M35">
-        <v>1.694995757686427</v>
+        <v>0.9971528018126247</v>
       </c>
       <c r="N35">
-        <v>0.04987411359545774</v>
+        <v>0.02934055255543135</v>
       </c>
       <c r="O35">
-        <v>0.2072797570701843</v>
+        <v>0.1219410665686232</v>
       </c>
       <c r="P35">
-        <v>48.14251436568389</v>
+        <v>28.32186621609657</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>3.244471232096623</v>
+        <v>1.908697154440975</v>
       </c>
       <c r="C36">
-        <v>14.59216012332874</v>
+        <v>8.584454141251934</v>
       </c>
       <c r="D36">
-        <v>0.0126139644078274</v>
+        <v>0.007420697010120037</v>
       </c>
       <c r="E36">
-        <v>1.199812686321611</v>
+        <v>0.7058404579424669</v>
       </c>
       <c r="F36">
-        <v>3.620044878829639</v>
+        <v>2.129644205445981</v>
       </c>
       <c r="G36">
-        <v>4.1824721008301</v>
+        <v>2.460515759365941</v>
       </c>
       <c r="H36">
-        <v>0.7976744917636694</v>
+        <v>0.4692656903650807</v>
       </c>
       <c r="I36">
-        <v>5.912056507149727</v>
+        <v>3.478016793756201</v>
       </c>
       <c r="J36">
-        <v>0.9837274887187237</v>
+        <v>0.5787192192946145</v>
       </c>
       <c r="K36">
-        <v>1.302878807068718</v>
+        <v>0.7664734539891439</v>
       </c>
       <c r="L36">
-        <v>4.264969104287552</v>
+        <v>2.509048103925333</v>
       </c>
       <c r="M36">
-        <v>2.683743283003509</v>
+        <v>1.578825269536656</v>
       </c>
       <c r="N36">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O36">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P36">
-        <v>42.88234262469499</v>
+        <v>25.22734815269913</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>2.603049856077522</v>
+        <v>1.531353955002548</v>
       </c>
       <c r="C37">
-        <v>11.70733768052094</v>
+        <v>6.887335568221319</v>
       </c>
       <c r="D37">
-        <v>0.009358747786452586</v>
+        <v>0.005505678426863252</v>
       </c>
       <c r="E37">
-        <v>0.8901836059805501</v>
+        <v>0.5236880816992495</v>
       </c>
       <c r="F37">
-        <v>2.85215657119911</v>
+        <v>1.677901495199864</v>
       </c>
       <c r="G37">
-        <v>3.295281049138867</v>
+        <v>1.938588174045894</v>
       </c>
       <c r="H37">
-        <v>0.6762892430170243</v>
+        <v>0.3978556940051772</v>
       </c>
       <c r="I37">
-        <v>5.012395734322595</v>
+        <v>2.948753368619388</v>
       </c>
       <c r="J37">
-        <v>0.5583318179214378</v>
+        <v>0.3284622595996459</v>
       </c>
       <c r="K37">
-        <v>0.7394717553633264</v>
+        <v>0.4350254738857304</v>
       </c>
       <c r="L37">
-        <v>2.693664697444769</v>
+        <v>1.584661960373895</v>
       </c>
       <c r="M37">
-        <v>1.694995757686427</v>
+        <v>0.9971528018126247</v>
       </c>
       <c r="N37">
-        <v>0.0332494090636385</v>
+        <v>0.01956036837028757</v>
       </c>
       <c r="O37">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="P37">
-        <v>32.90395243023612</v>
+        <v>19.35713892364157</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,49 +2250,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.97408326405879</v>
+        <v>1.161337807980401</v>
       </c>
       <c r="C38">
-        <v>8.878531207476412</v>
+        <v>5.22317075389033</v>
       </c>
       <c r="D38">
-        <v>0.01057945401946814</v>
+        <v>0.006223810395584546</v>
       </c>
       <c r="E38">
-        <v>1.006294511108448</v>
+        <v>0.5919952227904561</v>
       </c>
       <c r="F38">
-        <v>2.413363252553093</v>
+        <v>1.419762803630653</v>
       </c>
       <c r="G38">
-        <v>2.788314733886733</v>
+        <v>1.640343839577294</v>
       </c>
       <c r="H38">
-        <v>0.2254297476723413</v>
+        <v>0.1326185646683924</v>
       </c>
       <c r="I38">
-        <v>1.670798578107532</v>
+        <v>0.9829177895397958</v>
       </c>
       <c r="J38">
-        <v>0.3722212119476253</v>
+        <v>0.2189748397330973</v>
       </c>
       <c r="K38">
-        <v>0.4929811702422176</v>
+        <v>0.290016982590487</v>
       </c>
       <c r="L38">
-        <v>1.79577646496318</v>
+        <v>1.05644130691593</v>
       </c>
       <c r="M38">
-        <v>1.129997171790951</v>
+        <v>0.6647685345417498</v>
       </c>
       <c r="N38">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O38">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P38">
-        <v>22.84408872471534</v>
+        <v>13.43899946262886</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2300,49 +2300,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>1.236137312036814</v>
+        <v>0.7272099523158029</v>
       </c>
       <c r="C39">
-        <v>5.559584999003367</v>
+        <v>3.270660550937637</v>
       </c>
       <c r="D39">
-        <v>0.006917335320421476</v>
+        <v>0.004069414489420665</v>
       </c>
       <c r="E39">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="F39">
-        <v>1.864871604245572</v>
+        <v>1.097089439169141</v>
       </c>
       <c r="G39">
-        <v>2.154606839821567</v>
+        <v>1.267538421491545</v>
       </c>
       <c r="H39">
-        <v>0.156066748388544</v>
+        <v>0.0918128524627332</v>
       </c>
       <c r="I39">
-        <v>1.156706707920599</v>
+        <v>0.6804815466044742</v>
       </c>
       <c r="J39">
-        <v>0.5849190473462681</v>
+        <v>0.3441033195805815</v>
       </c>
       <c r="K39">
-        <v>0.7746846960949134</v>
+        <v>0.4557409726421938</v>
       </c>
       <c r="L39">
-        <v>2.918136755565167</v>
+        <v>1.716717123738386</v>
       </c>
       <c r="M39">
-        <v>1.836245404160296</v>
+        <v>1.080248868630344</v>
       </c>
       <c r="N39">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O39">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P39">
-        <v>18.99255720251683</v>
+        <v>11.17317346795378</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2350,49 +2350,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.9278814080276333</v>
+        <v>0.5458654050128697</v>
       </c>
       <c r="C40">
-        <v>4.173189747362728</v>
+        <v>2.455055023121953</v>
       </c>
       <c r="D40">
-        <v>0.009765649864124438</v>
+        <v>0.005745055749770351</v>
       </c>
       <c r="E40">
-        <v>0.9288872410231829</v>
+        <v>0.5464571287296517</v>
       </c>
       <c r="F40">
-        <v>0.9872849669535378</v>
+        <v>0.5808120560307219</v>
       </c>
       <c r="G40">
-        <v>1.1406742093173</v>
+        <v>0.6710497525543476</v>
       </c>
       <c r="H40">
-        <v>0.052022249462848</v>
+        <v>0.0306042841542444</v>
       </c>
       <c r="I40">
-        <v>0.3855689026401996</v>
+        <v>0.2268271822014913</v>
       </c>
       <c r="J40">
-        <v>0.2392850648234734</v>
+        <v>0.1407695398284197</v>
       </c>
       <c r="K40">
-        <v>0.3169164665842827</v>
+        <v>0.1864394888081702</v>
       </c>
       <c r="L40">
-        <v>2.020248523083577</v>
+        <v>1.18849647028042</v>
       </c>
       <c r="M40">
-        <v>1.271246818264821</v>
+        <v>0.7478646013594684</v>
       </c>
       <c r="N40">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O40">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P40">
-        <v>12.53868920429626</v>
+        <v>7.376413194206213</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2400,43 +2400,43 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.5916022400176187</v>
+        <v>0.3480349897733063</v>
       </c>
       <c r="C41">
-        <v>2.66075856375476</v>
+        <v>1.565303538232119</v>
       </c>
       <c r="D41">
-        <v>0.01098635609713999</v>
+        <v>0.006463187718491645</v>
       </c>
       <c r="E41">
-        <v>1.04499814615108</v>
+        <v>0.6147642698208582</v>
       </c>
       <c r="H41">
-        <v>0.01734074982094934</v>
+        <v>0.0102014280514148</v>
       </c>
       <c r="I41">
-        <v>0.1285229675467332</v>
+        <v>0.07560906073383046</v>
       </c>
       <c r="J41">
-        <v>0.5051573590717771</v>
+        <v>0.297180139637775</v>
       </c>
       <c r="K41">
-        <v>0.6690458739001525</v>
+        <v>0.3935944763728037</v>
       </c>
       <c r="L41">
-        <v>2.020248523083577</v>
+        <v>1.18849647028042</v>
       </c>
       <c r="M41">
-        <v>1.271246818264821</v>
+        <v>0.7478646013594684</v>
       </c>
       <c r="N41">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O41">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P41">
-        <v>9.005625554597156</v>
+        <v>5.297939368355172</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2444,37 +2444,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.3549613440105711</v>
+        <v>0.2088209938639837</v>
       </c>
       <c r="C42">
-        <v>1.596455138252856</v>
+        <v>0.9391821229392712</v>
       </c>
       <c r="D42">
-        <v>0.008951845708780735</v>
+        <v>0.005266301103956155</v>
       </c>
       <c r="E42">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="F42">
-        <v>0.9872849669535378</v>
+        <v>0.5808120560307219</v>
       </c>
       <c r="G42">
-        <v>1.1406742093173</v>
+        <v>0.6710497525543476</v>
       </c>
       <c r="J42">
-        <v>0.3722212119476253</v>
+        <v>0.2189748397330973</v>
       </c>
       <c r="K42">
-        <v>0.4929811702422176</v>
+        <v>0.290016982590487</v>
       </c>
       <c r="L42">
-        <v>3.367080871805963</v>
+        <v>1.980827450467368</v>
       </c>
       <c r="M42">
-        <v>2.118744697108034</v>
+        <v>1.246441002265781</v>
       </c>
       <c r="P42">
-        <v>11.2908354262848</v>
+        <v>6.642310536217861</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2482,43 +2482,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.4390311360130748</v>
+        <v>0.2582785976738748</v>
       </c>
       <c r="C43">
-        <v>1.974562934154848</v>
+        <v>1.161619994161729</v>
       </c>
       <c r="D43">
-        <v>0.006103531165077773</v>
+        <v>0.003590659843606469</v>
       </c>
       <c r="E43">
-        <v>0.5805545256394893</v>
+        <v>0.3415357054560323</v>
       </c>
       <c r="F43">
-        <v>0.7678883076305296</v>
+        <v>0.451742710246117</v>
       </c>
       <c r="G43">
-        <v>0.8871910516912331</v>
+        <v>0.521927585320048</v>
       </c>
       <c r="H43">
-        <v>0.06936299928379734</v>
+        <v>0.04080571220565921</v>
       </c>
       <c r="I43">
-        <v>0.5140918701869328</v>
+        <v>0.3024362429353218</v>
       </c>
       <c r="J43">
-        <v>0.3722212119476253</v>
+        <v>0.2189748397330973</v>
       </c>
       <c r="K43">
-        <v>0.4929811702422176</v>
+        <v>0.290016982590487</v>
       </c>
       <c r="L43">
-        <v>4.264969104287552</v>
+        <v>2.509048103925333</v>
       </c>
       <c r="M43">
-        <v>2.683743283003509</v>
+        <v>1.578825269536656</v>
       </c>
       <c r="P43">
-        <v>13.05270112524589</v>
+        <v>7.678802403627962</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2526,43 +2526,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.7254911680216055</v>
+        <v>0.4268008032483174</v>
       </c>
       <c r="C44">
-        <v>3.262930238709786</v>
+        <v>1.919556444253071</v>
       </c>
       <c r="D44">
-        <v>0.00528972700973407</v>
+        <v>0.003111905197792273</v>
       </c>
       <c r="E44">
-        <v>0.503147255554224</v>
+        <v>0.2959976113952281</v>
       </c>
       <c r="F44">
-        <v>1.535776615261059</v>
+        <v>0.9034854204922339</v>
       </c>
       <c r="G44">
-        <v>1.774382103382466</v>
+        <v>1.043855170640096</v>
       </c>
       <c r="H44">
-        <v>0.03468149964189867</v>
+        <v>0.0204028561028296</v>
       </c>
       <c r="I44">
-        <v>0.2570459350934664</v>
+        <v>0.1512181214676609</v>
       </c>
       <c r="J44">
-        <v>0.6115062767710985</v>
+        <v>0.359744379561517</v>
       </c>
       <c r="K44">
-        <v>0.8098976368265004</v>
+        <v>0.4764564713986572</v>
       </c>
       <c r="L44">
-        <v>5.162857336769143</v>
+        <v>3.037268757383296</v>
       </c>
       <c r="M44">
-        <v>3.248741868898986</v>
+        <v>1.911209536807531</v>
       </c>
       <c r="P44">
-        <v>17.93174766193997</v>
+        <v>10.54910747794823</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2570,49 +2570,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>1.64403148804896</v>
+        <v>0.9671709189489772</v>
       </c>
       <c r="C45">
-        <v>7.394108008750072</v>
+        <v>4.349896148350306</v>
       </c>
       <c r="D45">
-        <v>0.006103531165077773</v>
+        <v>0.003590659843606469</v>
       </c>
       <c r="E45">
-        <v>0.5805545256394893</v>
+        <v>0.3415357054560323</v>
       </c>
       <c r="F45">
-        <v>3.620044878829639</v>
+        <v>2.129644205445981</v>
       </c>
       <c r="G45">
-        <v>4.1824721008301</v>
+        <v>2.460515759365941</v>
       </c>
       <c r="H45">
-        <v>0.4335187455237334</v>
+        <v>0.25503570128537</v>
       </c>
       <c r="I45">
-        <v>3.213074188668331</v>
+        <v>1.890226518345762</v>
       </c>
       <c r="J45">
-        <v>1.542059306640161</v>
+        <v>0.9071814788942606</v>
       </c>
       <c r="K45">
-        <v>2.042350562432044</v>
+        <v>1.201498927874874</v>
       </c>
       <c r="L45">
-        <v>8.08099409233431</v>
+        <v>4.753985881121681</v>
       </c>
       <c r="M45">
-        <v>5.084987273059284</v>
+        <v>2.991458405437874</v>
       </c>
       <c r="N45">
-        <v>0.01662470453181925</v>
+        <v>0.009780184185143787</v>
       </c>
       <c r="O45">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="P45">
-        <v>37.91001665880975</v>
+        <v>22.30216751674535</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2620,49 +2620,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>3.032739904090318</v>
+        <v>1.784137263364212</v>
       </c>
       <c r="C46">
-        <v>13.63988863735335</v>
+        <v>8.02424024335833</v>
       </c>
       <c r="D46">
-        <v>0.006510433242749623</v>
+        <v>0.003830037166513567</v>
       </c>
       <c r="E46">
-        <v>0.6192581606821218</v>
+        <v>0.3643047524864346</v>
       </c>
       <c r="F46">
-        <v>6.472201450028746</v>
+        <v>3.807545700645844</v>
       </c>
       <c r="G46">
-        <v>7.477753149968966</v>
+        <v>4.399103933411834</v>
       </c>
       <c r="H46">
-        <v>1.56066748388544</v>
+        <v>0.9181285246273317</v>
       </c>
       <c r="I46">
-        <v>11.56706707920599</v>
+        <v>6.804815466044741</v>
       </c>
       <c r="J46">
-        <v>2.658722942483037</v>
+        <v>1.564105998093553</v>
       </c>
       <c r="K46">
-        <v>3.521294073158698</v>
+        <v>2.071549875646336</v>
       </c>
       <c r="L46">
-        <v>13.24385142910345</v>
+        <v>7.791254638504982</v>
       </c>
       <c r="M46">
-        <v>8.333729141958266</v>
+        <v>4.902667942245404</v>
       </c>
       <c r="N46">
-        <v>0.066498818127277</v>
+        <v>0.03912073674057515</v>
       </c>
       <c r="O46">
-        <v>0.2763730094269123</v>
+        <v>0.1625880887581642</v>
       </c>
       <c r="P46">
-        <v>72.47655571271534</v>
+        <v>42.63739320109425</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2670,49 +2670,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>4.26887721612713</v>
+        <v>2.511347215680015</v>
       </c>
       <c r="C47">
-        <v>19.19947363635671</v>
+        <v>11.29490079429597</v>
       </c>
       <c r="D47">
-        <v>0.004069020776718515</v>
+        <v>0.002393773229070979</v>
       </c>
       <c r="E47">
-        <v>0.3870363504263262</v>
+        <v>0.2276904703040215</v>
       </c>
       <c r="F47">
-        <v>5.265519823752202</v>
+        <v>3.097664298830518</v>
       </c>
       <c r="G47">
-        <v>6.083595783025599</v>
+        <v>3.578932013623188</v>
       </c>
       <c r="H47">
-        <v>1.231193237287403</v>
+        <v>0.7243013916504506</v>
       </c>
       <c r="I47">
-        <v>9.12513069581806</v>
+        <v>5.368243312101962</v>
       </c>
       <c r="J47">
-        <v>3.084118613280323</v>
+        <v>1.814362957788521</v>
       </c>
       <c r="K47">
-        <v>4.084701124864089</v>
+        <v>2.402997855749749</v>
       </c>
       <c r="L47">
-        <v>13.24385142910345</v>
+        <v>7.791254638504982</v>
       </c>
       <c r="M47">
-        <v>8.333729141958266</v>
+        <v>4.902667942245404</v>
       </c>
       <c r="N47">
-        <v>0.132997636254554</v>
+        <v>0.07824147348115029</v>
       </c>
       <c r="O47">
-        <v>0.5527460188538247</v>
+        <v>0.3251761775163284</v>
       </c>
       <c r="P47">
-        <v>74.99703972788465</v>
+        <v>44.12017431500132</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2720,49 +2720,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>5.218554496155409</v>
+        <v>3.070034962421375</v>
       </c>
       <c r="C48">
-        <v>23.47069133080514</v>
+        <v>13.80762489514227</v>
       </c>
       <c r="D48">
-        <v>0.008951845708780735</v>
+        <v>0.005266301103956155</v>
       </c>
       <c r="E48">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="F48">
-        <v>8.556469713597329</v>
+        <v>5.033704485599589</v>
       </c>
       <c r="G48">
-        <v>9.885843147416598</v>
+        <v>5.81576452213768</v>
       </c>
       <c r="H48">
-        <v>0.6589484931960747</v>
+        <v>0.3876542659537624</v>
       </c>
       <c r="I48">
-        <v>4.883872766775861</v>
+        <v>2.873144307885557</v>
       </c>
       <c r="J48">
-        <v>3.695624890051421</v>
+        <v>2.174107337350038</v>
       </c>
       <c r="K48">
-        <v>4.894598761690591</v>
+        <v>2.879454327148407</v>
       </c>
       <c r="L48">
-        <v>19.08012494023378</v>
+        <v>11.22468888598175</v>
       </c>
       <c r="M48">
-        <v>12.00621995027886</v>
+        <v>7.063165679506092</v>
       </c>
       <c r="N48">
-        <v>0.1662470453181925</v>
+        <v>0.09780184185143785</v>
       </c>
       <c r="O48">
-        <v>0.6909325235672807</v>
+        <v>0.4064702218954105</v>
       </c>
       <c r="P48">
-        <v>94.06855987573324</v>
+        <v>55.33980106864617</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2770,49 +2770,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>3.929484352117022</v>
+        <v>2.311685037336381</v>
       </c>
       <c r="C49">
-        <v>17.67303846030792</v>
+        <v>10.39691086973122</v>
       </c>
       <c r="D49">
-        <v>0.005696629087405921</v>
+        <v>0.00335128252069937</v>
       </c>
       <c r="E49">
-        <v>0.5418508905968565</v>
+        <v>0.3187666584256303</v>
       </c>
       <c r="F49">
-        <v>8.007978065289809</v>
+        <v>4.711031121138078</v>
       </c>
       <c r="G49">
-        <v>9.252135253351437</v>
+        <v>5.442959104051931</v>
       </c>
       <c r="H49">
-        <v>1.404600735496896</v>
+        <v>0.8263156721645989</v>
       </c>
       <c r="I49">
-        <v>10.41036037128539</v>
+        <v>6.124333919440268</v>
       </c>
       <c r="J49">
-        <v>4.200782249123199</v>
+        <v>2.471287476987813</v>
       </c>
       <c r="K49">
-        <v>5.563644635590742</v>
+        <v>3.27304880352121</v>
       </c>
       <c r="L49">
-        <v>30.52819990437406</v>
+        <v>17.95950221757082</v>
       </c>
       <c r="M49">
-        <v>19.20995192044618</v>
+        <v>11.30106508720975</v>
       </c>
       <c r="N49">
-        <v>0.3324940906363849</v>
+        <v>0.1956036837028757</v>
       </c>
       <c r="O49">
-        <v>1.381865047134561</v>
+        <v>0.812940443790821</v>
       </c>
       <c r="P49">
-        <v>112.4420826048379</v>
+        <v>66.14880137759209</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM25.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>2.044247624142157</v>
+        <v>3.474884736103484</v>
       </c>
       <c r="C2">
-        <v>9.194098677194969</v>
+        <v>15.62845556394901</v>
       </c>
       <c r="D2">
-        <v>0.005266301103956155</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E2">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F2">
-        <v>2.129644205445981</v>
+        <v>3.620044878829639</v>
       </c>
       <c r="G2">
-        <v>2.460515759365941</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="H2">
-        <v>0.4182585501080067</v>
+        <v>0.7109707426589228</v>
       </c>
       <c r="I2">
-        <v>3.099971490087048</v>
+        <v>5.269441669416063</v>
       </c>
       <c r="J2">
-        <v>3.081288816244298</v>
+        <v>5.237684196691584</v>
       </c>
       <c r="K2">
-        <v>4.080953255023282</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="L2">
-        <v>23.76992940560842</v>
+        <v>40.40497046167157</v>
       </c>
       <c r="M2">
-        <v>14.95729202718937</v>
+        <v>25.42493636529641</v>
       </c>
       <c r="N2">
-        <v>0.05868110511086269</v>
+        <v>0.09974822719091547</v>
       </c>
       <c r="O2">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="P2">
-        <v>66.0449483844304</v>
+        <v>112.2655495975474</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>2.452730796349774</v>
+        <v>4.169238944124164</v>
       </c>
       <c r="C3">
-        <v>11.03127072469898</v>
+        <v>18.75134587825065</v>
       </c>
       <c r="D3">
-        <v>0.01268699811407619</v>
+        <v>0.02156581011660813</v>
       </c>
       <c r="E3">
-        <v>1.206759492611314</v>
+        <v>2.051292657259529</v>
       </c>
       <c r="F3">
-        <v>4.001149719322752</v>
+        <v>6.801296439013265</v>
       </c>
       <c r="G3">
-        <v>4.622787184263283</v>
+        <v>7.857977886408063</v>
       </c>
       <c r="H3">
-        <v>0.1836257049254664</v>
+        <v>0.3121334967770881</v>
       </c>
       <c r="I3">
-        <v>1.360963093208948</v>
+        <v>2.313413415841197</v>
       </c>
       <c r="J3">
-        <v>2.502569596949684</v>
+        <v>4.25395670797286</v>
       </c>
       <c r="K3">
-        <v>3.314479801034137</v>
+        <v>5.634070517053916</v>
       </c>
       <c r="L3">
-        <v>7.791254638504982</v>
+        <v>13.24385142910345</v>
       </c>
       <c r="M3">
-        <v>4.902667942245404</v>
+        <v>8.333729141958266</v>
       </c>
       <c r="N3">
-        <v>0.136922578592013</v>
+        <v>0.2327458634454695</v>
       </c>
       <c r="O3">
-        <v>0.5690583106535749</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="P3">
-        <v>44.0889265814744</v>
+        <v>74.94392372031872</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>2.635907106756777</v>
+        <v>4.480608544133435</v>
       </c>
       <c r="C4">
-        <v>11.85511469218956</v>
+        <v>20.15174512233212</v>
       </c>
       <c r="D4">
-        <v>0.01316575275989039</v>
+        <v>0.02237961427195184</v>
       </c>
       <c r="E4">
-        <v>1.252297586672118</v>
+        <v>2.128699927344794</v>
       </c>
       <c r="F4">
-        <v>3.678476354861238</v>
+        <v>6.252804790705741</v>
       </c>
       <c r="G4">
-        <v>4.249981766177535</v>
+        <v>7.2242699923429</v>
       </c>
       <c r="H4">
-        <v>0.1326185646683924</v>
+        <v>0.2254297476723413</v>
       </c>
       <c r="I4">
-        <v>0.9829177895397958</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="J4">
-        <v>2.674621256739976</v>
+        <v>4.546416231645995</v>
       </c>
       <c r="K4">
-        <v>3.542350287355234</v>
+        <v>6.021412865101372</v>
       </c>
       <c r="L4">
-        <v>7.263033985047017</v>
+        <v>12.34596319662186</v>
       </c>
       <c r="M4">
-        <v>4.570283674974529</v>
+        <v>7.768730556062793</v>
       </c>
       <c r="N4">
-        <v>0.1271423944068692</v>
+        <v>0.2161211589136501</v>
       </c>
       <c r="O4">
-        <v>0.5284112884640336</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="P4">
-        <v>43.50632250061297</v>
+        <v>73.95359260589395</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.591944792259095</v>
+        <v>4.40587984013121</v>
       </c>
       <c r="C5">
-        <v>11.65739213999183</v>
+        <v>19.81564930375255</v>
       </c>
       <c r="D5">
-        <v>0.0117294888224478</v>
+        <v>0.01993820180592073</v>
       </c>
       <c r="E5">
-        <v>1.115683304489706</v>
+        <v>1.896478117088998</v>
       </c>
       <c r="F5">
-        <v>3.291268317507425</v>
+        <v>5.594614812736715</v>
       </c>
       <c r="G5">
-        <v>3.802615264474636</v>
+        <v>6.4638205194647</v>
       </c>
       <c r="H5">
-        <v>0.1938271329768812</v>
+        <v>0.3294742465980374</v>
       </c>
       <c r="I5">
-        <v>1.436572153942778</v>
+        <v>2.44193638338793</v>
       </c>
       <c r="J5">
-        <v>3.159494116148976</v>
+        <v>5.370620343815736</v>
       </c>
       <c r="K5">
-        <v>4.184530748805598</v>
+        <v>7.113014027780569</v>
       </c>
       <c r="L5">
-        <v>7.527144311775997</v>
+        <v>12.79490731286266</v>
       </c>
       <c r="M5">
-        <v>4.736475808609967</v>
+        <v>8.051229849010529</v>
       </c>
       <c r="N5">
-        <v>0.1271423944068692</v>
+        <v>0.2161211589136501</v>
       </c>
       <c r="O5">
-        <v>0.5284112884640336</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="P5">
-        <v>44.36423126267624</v>
+        <v>75.41189639798667</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>2.676205895046318</v>
+        <v>4.549109856135477</v>
       </c>
       <c r="C6">
-        <v>12.0363603650375</v>
+        <v>20.45983295603003</v>
       </c>
       <c r="D6">
-        <v>0.01268699811407619</v>
+        <v>0.02156581011660813</v>
       </c>
       <c r="E6">
-        <v>1.206759492611314</v>
+        <v>2.051292657259529</v>
       </c>
       <c r="F6">
-        <v>4.130219065107355</v>
+        <v>7.020693098336273</v>
       </c>
       <c r="G6">
-        <v>4.771909351497582</v>
+        <v>8.111461044034135</v>
       </c>
       <c r="H6">
-        <v>0.1938271329768812</v>
+        <v>0.3294742465980374</v>
       </c>
       <c r="I6">
-        <v>1.436572153942778</v>
+        <v>2.44193638338793</v>
       </c>
       <c r="J6">
-        <v>2.752826556644652</v>
+        <v>4.679352378770145</v>
       </c>
       <c r="K6">
-        <v>3.64592778113755</v>
+        <v>6.197477568759307</v>
       </c>
       <c r="L6">
-        <v>6.074537514766592</v>
+        <v>10.32571467353829</v>
       </c>
       <c r="M6">
-        <v>3.822419073615062</v>
+        <v>6.497483737797972</v>
       </c>
       <c r="N6">
-        <v>0.08802165766629404</v>
+        <v>0.1496223407863732</v>
       </c>
       <c r="O6">
-        <v>0.3658231997058696</v>
+        <v>0.6218392712105527</v>
       </c>
       <c r="P6">
-        <v>43.21409623786982</v>
+        <v>73.45685602276066</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>2.740317603688768</v>
+        <v>4.658089216138721</v>
       </c>
       <c r="C7">
-        <v>12.3247057536592</v>
+        <v>20.94997269145854</v>
       </c>
       <c r="D7">
-        <v>0.0114901114995407</v>
+        <v>0.01953129972824888</v>
       </c>
       <c r="E7">
-        <v>1.092914257459303</v>
+        <v>1.857774482046366</v>
       </c>
       <c r="F7">
-        <v>4.517427102461169</v>
+        <v>7.678883076305299</v>
       </c>
       <c r="G7">
-        <v>5.219275853200482</v>
+        <v>8.871910516912331</v>
       </c>
       <c r="H7">
-        <v>0.2958414134910291</v>
+        <v>0.5028817448075308</v>
       </c>
       <c r="I7">
-        <v>2.192662761281084</v>
+        <v>3.727166058855262</v>
       </c>
       <c r="J7">
-        <v>2.361800057121264</v>
+        <v>4.014671643149386</v>
       </c>
       <c r="K7">
-        <v>3.128040312225966</v>
+        <v>5.317154050469633</v>
       </c>
       <c r="L7">
-        <v>5.150151371215156</v>
+        <v>8.754410266695501</v>
       </c>
       <c r="M7">
-        <v>3.24074660589103</v>
+        <v>5.508736212480888</v>
       </c>
       <c r="N7">
-        <v>0.136922578592013</v>
+        <v>0.2327458634454695</v>
       </c>
       <c r="O7">
-        <v>0.5690583106535749</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="P7">
-        <v>42.98135409243959</v>
+        <v>73.06123265548736</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>3.022409121715553</v>
+        <v>5.137598400153</v>
       </c>
       <c r="C8">
-        <v>13.59342546359471</v>
+        <v>23.10658752734397</v>
       </c>
       <c r="D8">
-        <v>0.01244762079116909</v>
+        <v>0.02115890803893628</v>
       </c>
       <c r="E8">
-        <v>1.183990445580912</v>
+        <v>2.012589022216896</v>
       </c>
       <c r="F8">
-        <v>3.936615046430449</v>
+        <v>6.691598109351756</v>
       </c>
       <c r="G8">
-        <v>4.548226100646135</v>
+        <v>7.731236307595034</v>
       </c>
       <c r="H8">
-        <v>0.357049981799518</v>
+        <v>0.6069262437332268</v>
       </c>
       <c r="I8">
-        <v>2.646317125684067</v>
+        <v>4.498303864135661</v>
       </c>
       <c r="J8">
-        <v>2.330517937159393</v>
+        <v>3.961497184299726</v>
       </c>
       <c r="K8">
-        <v>3.08660931471304</v>
+        <v>5.246728169006459</v>
       </c>
       <c r="L8">
-        <v>3.30137908411228</v>
+        <v>5.611801453009935</v>
       </c>
       <c r="M8">
-        <v>2.077401670442968</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="N8">
-        <v>0.2347244204434508</v>
+        <v>0.3989929087636619</v>
       </c>
       <c r="O8">
-        <v>0.9755285325489854</v>
+        <v>1.658238056561474</v>
       </c>
       <c r="P8">
-        <v>41.30664186566262</v>
+        <v>70.21449731605647</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>3.355790006656299</v>
+        <v>5.704291072169882</v>
       </c>
       <c r="C9">
-        <v>15.09282148442758</v>
+        <v>25.6553141515722</v>
       </c>
       <c r="D9">
-        <v>0.00813882897884133</v>
+        <v>0.01383467064084295</v>
       </c>
       <c r="E9">
-        <v>0.7741475990336733</v>
+        <v>1.315923591449509</v>
       </c>
       <c r="F9">
-        <v>3.033129625938213</v>
+        <v>5.155821494090701</v>
       </c>
       <c r="G9">
-        <v>3.504370930006038</v>
+        <v>5.956854204212568</v>
       </c>
       <c r="H9">
-        <v>0.5508771147763991</v>
+        <v>0.936400490331264</v>
       </c>
       <c r="I9">
-        <v>4.082889279626846</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="J9">
-        <v>2.26795369723565</v>
+        <v>3.855148266600403</v>
       </c>
       <c r="K9">
-        <v>3.003747319687186</v>
+        <v>5.10587640608011</v>
       </c>
       <c r="L9">
-        <v>2.773158430654314</v>
+        <v>4.713913220528348</v>
       </c>
       <c r="M9">
-        <v>1.745017403172094</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="N9">
-        <v>0.05868110511086269</v>
+        <v>0.09974822719091547</v>
       </c>
       <c r="O9">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="P9">
-        <v>40.49460495844124</v>
+        <v>68.83416813248193</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>3.258706562140587</v>
+        <v>5.539265184164964</v>
       </c>
       <c r="C10">
-        <v>14.65618418165757</v>
+        <v>24.91310255220904</v>
       </c>
       <c r="D10">
-        <v>0.005266301103956155</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E10">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F10">
-        <v>2.516852242799795</v>
+        <v>4.278234856798664</v>
       </c>
       <c r="G10">
-        <v>2.90788226106884</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="H10">
-        <v>0.7345028197018656</v>
+        <v>1.248533987108352</v>
       </c>
       <c r="I10">
-        <v>5.443852372835794</v>
+        <v>9.253653663364789</v>
       </c>
       <c r="J10">
-        <v>1.220002678512971</v>
+        <v>2.073803895136769</v>
       </c>
       <c r="K10">
-        <v>1.615808903004142</v>
+        <v>2.746609377063783</v>
       </c>
       <c r="L10">
-        <v>2.37699294056084</v>
+        <v>4.040497046167155</v>
       </c>
       <c r="M10">
-        <v>1.495729202718937</v>
+        <v>2.542493636529642</v>
       </c>
       <c r="N10">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O10">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P10">
-        <v>36.78312670714882</v>
+        <v>62.5252655457867</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>2.297030932503821</v>
+        <v>3.904574784116281</v>
       </c>
       <c r="C11">
-        <v>10.33100335233198</v>
+        <v>17.56100652078142</v>
       </c>
       <c r="D11">
-        <v>0.004548169135234859</v>
+        <v>0.007731139475765179</v>
       </c>
       <c r="E11">
-        <v>0.432611893577641</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="F11">
-        <v>2.194178878338283</v>
+        <v>3.729743208491144</v>
       </c>
       <c r="G11">
-        <v>2.535076842983091</v>
+        <v>4.309213679643134</v>
       </c>
       <c r="H11">
-        <v>0.5712799708792289</v>
+        <v>0.9710819899731628</v>
       </c>
       <c r="I11">
-        <v>4.234107401094507</v>
+        <v>7.197286182617058</v>
       </c>
       <c r="J11">
-        <v>0.6256423992374209</v>
+        <v>1.063489176993215</v>
       </c>
       <c r="K11">
-        <v>0.8286199502585342</v>
+        <v>1.408517629263479</v>
       </c>
       <c r="L11">
-        <v>1.452606797009403</v>
+        <v>2.469192639324372</v>
       </c>
       <c r="M11">
-        <v>0.9140567349949059</v>
+        <v>1.553746111212558</v>
       </c>
       <c r="N11">
-        <v>0.02934055255543135</v>
+        <v>0.04987411359545774</v>
       </c>
       <c r="O11">
-        <v>0.1219410665686232</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="P11">
-        <v>26.5720449414681</v>
+        <v>45.16810599836725</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.947164179626444</v>
+        <v>3.309858848098571</v>
       </c>
       <c r="C12">
-        <v>8.757461374424956</v>
+        <v>14.88624396458585</v>
       </c>
       <c r="D12">
-        <v>0.009575092916283917</v>
+        <v>0.01627608310687406</v>
       </c>
       <c r="E12">
-        <v>0.9107618812160861</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="F12">
-        <v>1.484297476522956</v>
+        <v>2.523061582214598</v>
       </c>
       <c r="G12">
-        <v>1.714904923194444</v>
+        <v>2.915056312699767</v>
       </c>
       <c r="H12">
-        <v>0.4794671184164956</v>
+        <v>0.8150152415846187</v>
       </c>
       <c r="I12">
-        <v>3.553625854490031</v>
+        <v>6.040579474696461</v>
       </c>
       <c r="J12">
-        <v>0.5943602792755499</v>
+        <v>1.010314718143554</v>
       </c>
       <c r="K12">
-        <v>0.7871889527456074</v>
+        <v>1.338091747800305</v>
       </c>
       <c r="L12">
-        <v>2.244937777196352</v>
+        <v>3.816024988046757</v>
       </c>
       <c r="M12">
-        <v>1.412633135901219</v>
+        <v>2.401243990055772</v>
       </c>
       <c r="N12">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O12">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P12">
-        <v>23.94680525230111</v>
+        <v>40.70563030962698</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>1.562493927771738</v>
+        <v>2.655982688079099</v>
       </c>
       <c r="C13">
-        <v>7.027389042694721</v>
+        <v>11.94540555201479</v>
       </c>
       <c r="D13">
-        <v>0.007181319687212938</v>
+        <v>0.01220706233015555</v>
       </c>
       <c r="E13">
-        <v>0.6830714109120647</v>
+        <v>1.161109051278979</v>
       </c>
       <c r="F13">
-        <v>1.161624112061444</v>
+        <v>1.974569933907076</v>
       </c>
       <c r="G13">
-        <v>1.342099505108695</v>
+        <v>2.2813484186346</v>
       </c>
       <c r="H13">
-        <v>0.4080571220565918</v>
+        <v>0.6936299928379733</v>
       </c>
       <c r="I13">
-        <v>3.024362429353218</v>
+        <v>5.140918701869327</v>
       </c>
       <c r="J13">
-        <v>0.3441033195805815</v>
+        <v>0.5849190473462681</v>
       </c>
       <c r="K13">
-        <v>0.4557409726421938</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="L13">
-        <v>1.452606797009403</v>
+        <v>2.469192639324372</v>
       </c>
       <c r="M13">
-        <v>0.9140567349949059</v>
+        <v>1.553746111212558</v>
       </c>
       <c r="N13">
-        <v>0.01956036837028757</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O13">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P13">
-        <v>18.48364110662213</v>
+        <v>31.4191498087072</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.185150728333311</v>
+        <v>2.014561312059995</v>
       </c>
       <c r="C14">
-        <v>5.330270469664107</v>
+        <v>9.060583109206997</v>
       </c>
       <c r="D14">
-        <v>0.00813882897884133</v>
+        <v>0.01383467064084295</v>
       </c>
       <c r="E14">
-        <v>0.7741475990336733</v>
+        <v>1.315923591449509</v>
       </c>
       <c r="F14">
-        <v>0.9680200933845364</v>
+        <v>1.645474944922563</v>
       </c>
       <c r="G14">
-        <v>1.118416254257246</v>
+        <v>1.9011236821955</v>
       </c>
       <c r="H14">
-        <v>0.1326185646683924</v>
+        <v>0.2254297476723413</v>
       </c>
       <c r="I14">
-        <v>0.9829177895397958</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="J14">
-        <v>0.2189748397330973</v>
+        <v>0.3722212119476253</v>
       </c>
       <c r="K14">
-        <v>0.290016982590487</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="L14">
-        <v>0.9243861435514388</v>
+        <v>1.571304406842783</v>
       </c>
       <c r="M14">
-        <v>0.581672467724031</v>
+        <v>0.988747525317083</v>
       </c>
       <c r="N14">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O14">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P14">
-        <v>12.56515796783364</v>
+        <v>21.35870190749354</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.7418640571483628</v>
+        <v>1.261046880037554</v>
       </c>
       <c r="C15">
-        <v>3.336568068336883</v>
+        <v>5.671616938529885</v>
       </c>
       <c r="D15">
-        <v>0.005266301103956155</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E15">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F15">
-        <v>0.7744160747076294</v>
+        <v>1.31637995593805</v>
       </c>
       <c r="G15">
-        <v>0.8947330034057971</v>
+        <v>1.5208989457564</v>
       </c>
       <c r="H15">
-        <v>0.0918128524627332</v>
+        <v>0.156066748388544</v>
       </c>
       <c r="I15">
-        <v>0.6804815466044742</v>
+        <v>1.156706707920599</v>
       </c>
       <c r="J15">
-        <v>0.359744379561517</v>
+        <v>0.6115062767710985</v>
       </c>
       <c r="K15">
-        <v>0.4764564713986572</v>
+        <v>0.8098976368265004</v>
       </c>
       <c r="L15">
-        <v>1.584661960373895</v>
+        <v>2.693664697444769</v>
       </c>
       <c r="M15">
-        <v>0.9971528018126247</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="N15">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O15">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P15">
-        <v>10.49450375796006</v>
+        <v>17.83893031883508</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.5568559836372899</v>
+        <v>0.9465635840281896</v>
       </c>
       <c r="C16">
-        <v>2.504485661171389</v>
+        <v>4.257213702007616</v>
       </c>
       <c r="D16">
-        <v>0.007420697010120037</v>
+        <v>0.0126139644078274</v>
       </c>
       <c r="E16">
-        <v>0.7058404579424669</v>
+        <v>1.199812686321611</v>
       </c>
       <c r="F16">
-        <v>0.3872080373538147</v>
+        <v>0.6581899779690252</v>
       </c>
       <c r="G16">
-        <v>0.4473665017028985</v>
+        <v>0.7604494728781999</v>
       </c>
       <c r="H16">
-        <v>0.0306042841542444</v>
+        <v>0.052022249462848</v>
       </c>
       <c r="I16">
-        <v>0.2268271822014913</v>
+        <v>0.3855689026401996</v>
       </c>
       <c r="J16">
-        <v>0.1407695398284197</v>
+        <v>0.2392850648234734</v>
       </c>
       <c r="K16">
-        <v>0.1864394888081702</v>
+        <v>0.3169164665842827</v>
       </c>
       <c r="L16">
-        <v>1.05644130691593</v>
+        <v>1.79577646496318</v>
       </c>
       <c r="M16">
-        <v>0.6647685345417498</v>
+        <v>1.129997171790951</v>
       </c>
       <c r="N16">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O16">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P16">
-        <v>6.965454881642668</v>
+        <v>11.84012766476595</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.3553620421895864</v>
+        <v>0.6040570240179896</v>
       </c>
       <c r="C17">
-        <v>1.598257296931741</v>
+        <v>2.716774533518018</v>
       </c>
       <c r="D17">
-        <v>0.008378206301748429</v>
+        <v>0.0142415727185148</v>
       </c>
       <c r="E17">
-        <v>0.7969166460640756</v>
+        <v>1.354627226492142</v>
       </c>
       <c r="H17">
-        <v>0.0102014280514148</v>
+        <v>0.01734074982094934</v>
       </c>
       <c r="I17">
-        <v>0.07560906073383046</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="J17">
-        <v>0.297180139637775</v>
+        <v>0.5051573590717771</v>
       </c>
       <c r="K17">
-        <v>0.3935944763728037</v>
+        <v>0.6690458739001525</v>
       </c>
       <c r="L17">
-        <v>1.05644130691593</v>
+        <v>1.79577646496318</v>
       </c>
       <c r="M17">
-        <v>0.6647685345417498</v>
+        <v>1.129997171790951</v>
       </c>
       <c r="N17">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O17">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P17">
-        <v>5.307136344115341</v>
+        <v>9.021258900728954</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,37 +1274,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.2124845200721238</v>
+        <v>0.3611887360107565</v>
       </c>
       <c r="C18">
-        <v>0.9556590022890825</v>
+        <v>1.624463123134486</v>
       </c>
       <c r="D18">
-        <v>0.006941942364305839</v>
+        <v>0.01180016025248369</v>
       </c>
       <c r="E18">
-        <v>0.6603023638816625</v>
+        <v>1.122405416236346</v>
       </c>
       <c r="F18">
-        <v>0.3872080373538147</v>
+        <v>0.6581899779690252</v>
       </c>
       <c r="G18">
-        <v>0.4473665017028985</v>
+        <v>0.7604494728781999</v>
       </c>
       <c r="J18">
-        <v>0.2189748397330973</v>
+        <v>0.3722212119476253</v>
       </c>
       <c r="K18">
-        <v>0.290016982590487</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="L18">
-        <v>1.848772287102878</v>
+        <v>3.142608813685566</v>
       </c>
       <c r="M18">
-        <v>1.163344935448062</v>
+        <v>1.977495050634166</v>
       </c>
       <c r="P18">
-        <v>6.191071412538411</v>
+        <v>10.52380313299087</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1312,43 +1312,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.2637738869860846</v>
+        <v>0.4483722240133527</v>
       </c>
       <c r="C19">
-        <v>1.186335313186447</v>
+        <v>2.016574911477292</v>
       </c>
       <c r="D19">
-        <v>0.004548169135234859</v>
+        <v>0.007731139475765179</v>
       </c>
       <c r="E19">
-        <v>0.432611893577641</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="F19">
-        <v>0.3226733644615122</v>
+        <v>0.5484916483075213</v>
       </c>
       <c r="G19">
-        <v>0.3728054180857487</v>
+        <v>0.6337078940651664</v>
       </c>
       <c r="H19">
-        <v>0.04080571220565921</v>
+        <v>0.06936299928379734</v>
       </c>
       <c r="I19">
-        <v>0.3024362429353218</v>
+        <v>0.5140918701869328</v>
       </c>
       <c r="J19">
-        <v>0.2189748397330973</v>
+        <v>0.3722212119476253</v>
       </c>
       <c r="K19">
-        <v>0.290016982590487</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="L19">
-        <v>2.244937777196352</v>
+        <v>3.816024988046757</v>
       </c>
       <c r="M19">
-        <v>1.412633135901219</v>
+        <v>2.401243990055772</v>
       </c>
       <c r="P19">
-        <v>7.092552735994804</v>
+        <v>12.05617311291222</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,43 +1356,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.4359596187686676</v>
+        <v>0.7410596480220694</v>
       </c>
       <c r="C20">
-        <v>1.960748642627601</v>
+        <v>3.332950200913857</v>
       </c>
       <c r="D20">
-        <v>0.004069414489420665</v>
+        <v>0.006917335320421476</v>
       </c>
       <c r="E20">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="F20">
-        <v>0.6453467289230245</v>
+        <v>1.096983296615043</v>
       </c>
       <c r="G20">
-        <v>0.7456108361714974</v>
+        <v>1.267415788130333</v>
       </c>
       <c r="H20">
-        <v>0.0204028561028296</v>
+        <v>0.03468149964189867</v>
       </c>
       <c r="I20">
-        <v>0.1512181214676609</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="J20">
-        <v>0.3753854395424525</v>
+        <v>0.6380935061959289</v>
       </c>
       <c r="K20">
-        <v>0.4971719701551205</v>
+        <v>0.8451105775580874</v>
       </c>
       <c r="L20">
-        <v>2.773158430654314</v>
+        <v>4.713913220528348</v>
       </c>
       <c r="M20">
-        <v>1.745017403172094</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="P20">
-        <v>9.741163261591518</v>
+        <v>16.55837537969545</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1400,49 +1400,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.9873203130937473</v>
+        <v>1.67828214404998</v>
       </c>
       <c r="C21">
-        <v>4.440518984774271</v>
+        <v>7.548151925599031</v>
       </c>
       <c r="D21">
-        <v>0.004548169135234859</v>
+        <v>0.007731139475765179</v>
       </c>
       <c r="E21">
-        <v>0.432611893577641</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="F21">
-        <v>1.484297476522956</v>
+        <v>2.523061582214598</v>
       </c>
       <c r="G21">
-        <v>1.714904923194444</v>
+        <v>2.915056312699767</v>
       </c>
       <c r="H21">
-        <v>0.2652371293367847</v>
+        <v>0.4508594953446827</v>
       </c>
       <c r="I21">
-        <v>1.965835579079592</v>
+        <v>3.341597156215064</v>
       </c>
       <c r="J21">
-        <v>0.9384635988561314</v>
+        <v>1.595233765489822</v>
       </c>
       <c r="K21">
-        <v>1.242929925387801</v>
+        <v>2.112776443895219</v>
       </c>
       <c r="L21">
-        <v>4.357820391028211</v>
+        <v>7.407577917973119</v>
       </c>
       <c r="M21">
-        <v>2.742170204984718</v>
+        <v>4.661238333637675</v>
       </c>
       <c r="N21">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O21">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P21">
-        <v>20.62708579534622</v>
+        <v>35.06265323929329</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1450,49 +1450,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.820772525445612</v>
+        <v>3.095013824092172</v>
       </c>
       <c r="C22">
-        <v>8.189009036856449</v>
+        <v>13.91996848616963</v>
       </c>
       <c r="D22">
-        <v>0.005026923781049057</v>
+        <v>0.008544943631108885</v>
       </c>
       <c r="E22">
-        <v>0.4781499876384451</v>
+        <v>0.812776335895285</v>
       </c>
       <c r="F22">
-        <v>2.6459215885844</v>
+        <v>4.497631516121673</v>
       </c>
       <c r="G22">
-        <v>3.05700442830314</v>
+        <v>5.196404731334367</v>
       </c>
       <c r="H22">
-        <v>0.9487328087815764</v>
+        <v>1.612689733348289</v>
       </c>
       <c r="I22">
-        <v>7.031642648246232</v>
+        <v>11.95263598184619</v>
       </c>
       <c r="J22">
-        <v>1.611029178036359</v>
+        <v>2.738484630757529</v>
       </c>
       <c r="K22">
-        <v>2.133696371915726</v>
+        <v>3.626932895353458</v>
       </c>
       <c r="L22">
-        <v>7.130978821682529</v>
+        <v>12.12149113850147</v>
       </c>
       <c r="M22">
-        <v>4.487187608156813</v>
+        <v>7.627480909588921</v>
       </c>
       <c r="N22">
-        <v>0.03912073674057515</v>
+        <v>0.066498818127277</v>
       </c>
       <c r="O22">
-        <v>0.1625880887581642</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="P22">
-        <v>39.74086075292707</v>
+        <v>67.55292695419429</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1500,49 +1500,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>2.562636582593975</v>
+        <v>4.356060704129728</v>
       </c>
       <c r="C23">
-        <v>11.52557710519332</v>
+        <v>19.59158542469953</v>
       </c>
       <c r="D23">
-        <v>0.003111905197792273</v>
+        <v>0.00528972700973407</v>
       </c>
       <c r="E23">
-        <v>0.2959976113952281</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="F23">
-        <v>2.129644205445981</v>
+        <v>3.620044878829639</v>
       </c>
       <c r="G23">
-        <v>2.460515759365941</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="H23">
-        <v>0.7447042477532799</v>
+        <v>1.265874736929302</v>
       </c>
       <c r="I23">
-        <v>5.519461433569623</v>
+        <v>9.382176630911527</v>
       </c>
       <c r="J23">
-        <v>1.861286137731328</v>
+        <v>3.163880301554814</v>
       </c>
       <c r="K23">
-        <v>2.46514435201914</v>
+        <v>4.19033994705885</v>
       </c>
       <c r="L23">
-        <v>7.130978821682529</v>
+        <v>12.12149113850147</v>
       </c>
       <c r="M23">
-        <v>4.487187608156813</v>
+        <v>7.627480909588921</v>
       </c>
       <c r="N23">
-        <v>0.06846128929600651</v>
+        <v>0.1163729317227347</v>
       </c>
       <c r="O23">
-        <v>0.2845291553267875</v>
+        <v>0.4836527664970966</v>
       </c>
       <c r="P23">
-        <v>41.53923621472774</v>
+        <v>70.60986945381768</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1550,49 +1550,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>3.132314907959756</v>
+        <v>5.324420160158566</v>
       </c>
       <c r="C24">
-        <v>14.08773184408906</v>
+        <v>23.94682707379285</v>
       </c>
       <c r="D24">
-        <v>0.006702565041398741</v>
+        <v>0.01139325817481184</v>
       </c>
       <c r="E24">
-        <v>0.6375333168512606</v>
+        <v>1.083701781193713</v>
       </c>
       <c r="F24">
-        <v>3.484872336184331</v>
+        <v>5.92370980172123</v>
       </c>
       <c r="G24">
-        <v>4.026298515326086</v>
+        <v>6.844045255903801</v>
       </c>
       <c r="H24">
-        <v>0.3978556940051772</v>
+        <v>0.6762892430170243</v>
       </c>
       <c r="I24">
-        <v>2.948753368619388</v>
+        <v>5.012395734322595</v>
       </c>
       <c r="J24">
-        <v>2.23667157727378</v>
+        <v>3.801973807750743</v>
       </c>
       <c r="K24">
-        <v>2.96231632217426</v>
+        <v>5.035450524616937</v>
       </c>
       <c r="L24">
-        <v>10.30030274243031</v>
+        <v>17.508820533391</v>
       </c>
       <c r="M24">
-        <v>6.481493211782061</v>
+        <v>11.01747242496178</v>
       </c>
       <c r="N24">
-        <v>0.08802165766629404</v>
+        <v>0.1496223407863732</v>
       </c>
       <c r="O24">
-        <v>0.3658231997058696</v>
+        <v>0.6218392712105527</v>
       </c>
       <c r="P24">
-        <v>51.15669125910903</v>
+        <v>86.95796121100197</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1600,49 +1600,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>2.359310878042201</v>
+        <v>4.010440448119432</v>
       </c>
       <c r="C25">
-        <v>10.61111030127877</v>
+        <v>18.03714226376912</v>
       </c>
       <c r="D25">
-        <v>0.004308791812327762</v>
+        <v>0.00732423739809333</v>
       </c>
       <c r="E25">
-        <v>0.4098428465472388</v>
+        <v>0.6966654307673871</v>
       </c>
       <c r="F25">
-        <v>3.291268317507425</v>
+        <v>5.594614812736715</v>
       </c>
       <c r="G25">
-        <v>3.802615264474636</v>
+        <v>6.4638205194647</v>
       </c>
       <c r="H25">
-        <v>0.8467185282674287</v>
+        <v>1.439282235138795</v>
       </c>
       <c r="I25">
-        <v>6.275552040907927</v>
+        <v>10.66740630637886</v>
       </c>
       <c r="J25">
-        <v>2.533851716911555</v>
+        <v>4.307131166822518</v>
       </c>
       <c r="K25">
-        <v>3.355910798547063</v>
+        <v>5.704496398517089</v>
       </c>
       <c r="L25">
-        <v>16.50689542056141</v>
+        <v>28.05900726504969</v>
       </c>
       <c r="M25">
-        <v>10.38700835221484</v>
+        <v>17.65620580923362</v>
       </c>
       <c r="N25">
-        <v>0.1760433153325881</v>
+        <v>0.2992446815727465</v>
       </c>
       <c r="O25">
-        <v>0.7316463994117391</v>
+        <v>1.243678542421105</v>
       </c>
       <c r="P25">
-        <v>61.29208297181716</v>
+        <v>104.1864601173899</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1650,49 +1650,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>2.003948835852615</v>
+        <v>3.406383424101447</v>
       </c>
       <c r="C26">
-        <v>9.012853004347038</v>
+        <v>15.3203677302511</v>
       </c>
       <c r="D26">
-        <v>0.004069414489420665</v>
+        <v>0.006917335320421476</v>
       </c>
       <c r="E26">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="F26">
-        <v>3.097664298830518</v>
+        <v>5.265519823752202</v>
       </c>
       <c r="G26">
-        <v>3.578932013623188</v>
+        <v>6.083595783025599</v>
       </c>
       <c r="H26">
-        <v>0.4080571220565918</v>
+        <v>0.6936299928379733</v>
       </c>
       <c r="I26">
-        <v>3.024362429353218</v>
+        <v>5.140918701869327</v>
       </c>
       <c r="J26">
-        <v>3.00308351633962</v>
+        <v>5.104748049567431</v>
       </c>
       <c r="K26">
-        <v>3.977375761240964</v>
+        <v>6.760884620464699</v>
       </c>
       <c r="L26">
-        <v>25.88281201944028</v>
+        <v>43.99652339159791</v>
       </c>
       <c r="M26">
-        <v>16.28682909627288</v>
+        <v>27.68493070887831</v>
       </c>
       <c r="N26">
-        <v>0.06846128929600651</v>
+        <v>0.1163729317227347</v>
       </c>
       <c r="O26">
-        <v>0.2845291553267875</v>
+        <v>0.4836527664970966</v>
       </c>
       <c r="P26">
-        <v>71.02005175598597</v>
+        <v>120.722407055611</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1700,49 +1700,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>2.403273192539884</v>
+        <v>4.085169152121658</v>
       </c>
       <c r="C27">
-        <v>10.80883285347652</v>
+        <v>18.37323808234865</v>
       </c>
       <c r="D27">
-        <v>0.009814470239191018</v>
+        <v>0.01668298518454591</v>
       </c>
       <c r="E27">
-        <v>0.9335309282464883</v>
+        <v>1.586849036747937</v>
       </c>
       <c r="F27">
-        <v>5.743585887414913</v>
+        <v>9.763151339873875</v>
       </c>
       <c r="G27">
-        <v>6.635936441926328</v>
+        <v>11.28000051435996</v>
       </c>
       <c r="H27">
-        <v>0.1734242768740516</v>
+        <v>0.2947927469561388</v>
       </c>
       <c r="I27">
-        <v>1.285354032475118</v>
+        <v>2.184890448294464</v>
       </c>
       <c r="J27">
-        <v>2.440005357025942</v>
+        <v>4.147607790273539</v>
       </c>
       <c r="K27">
-        <v>3.231617806008284</v>
+        <v>5.493218754127566</v>
       </c>
       <c r="L27">
-        <v>8.45153045532744</v>
+        <v>14.36621171970544</v>
       </c>
       <c r="M27">
-        <v>5.318148276333998</v>
+        <v>9.039977374327611</v>
       </c>
       <c r="N27">
-        <v>0.1467027627771568</v>
+        <v>0.2493705679772887</v>
       </c>
       <c r="O27">
-        <v>0.6097053328431158</v>
+        <v>1.036398785350922</v>
       </c>
       <c r="P27">
-        <v>48.19146207350843</v>
+        <v>81.91755929764959</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1750,49 +1750,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>2.582785976738747</v>
+        <v>4.390311360130745</v>
       </c>
       <c r="C28">
-        <v>11.61619994161729</v>
+        <v>19.74562934154849</v>
       </c>
       <c r="D28">
-        <v>0.01005384756209811</v>
+        <v>0.01708988726221777</v>
       </c>
       <c r="E28">
-        <v>0.9562999752768903</v>
+        <v>1.62555267179057</v>
       </c>
       <c r="F28">
-        <v>5.291843177168801</v>
+        <v>8.995263032243345</v>
       </c>
       <c r="G28">
-        <v>6.11400885660628</v>
+        <v>10.39280946266873</v>
       </c>
       <c r="H28">
-        <v>0.1326185646683924</v>
+        <v>0.2254297476723413</v>
       </c>
       <c r="I28">
-        <v>0.9829177895397958</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="J28">
-        <v>2.612057016816233</v>
+        <v>4.440067313946671</v>
       </c>
       <c r="K28">
-        <v>3.45948829232938</v>
+        <v>5.880561102175025</v>
       </c>
       <c r="L28">
-        <v>7.923309801869472</v>
+        <v>13.46832348722385</v>
       </c>
       <c r="M28">
-        <v>4.985764009063123</v>
+        <v>8.474978788432137</v>
       </c>
       <c r="N28">
-        <v>0.136922578592013</v>
+        <v>0.2327458634454695</v>
       </c>
       <c r="O28">
-        <v>0.5690583106535749</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="P28">
-        <v>47.3733281385021</v>
+        <v>80.52686616964132</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1800,49 +1800,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.540655425345137</v>
+        <v>4.318696352128614</v>
       </c>
       <c r="C29">
-        <v>11.42671582909446</v>
+        <v>19.42353751540974</v>
       </c>
       <c r="D29">
-        <v>0.009096338270469718</v>
+        <v>0.01546227895153036</v>
       </c>
       <c r="E29">
-        <v>0.8652237871552819</v>
+        <v>1.470738131620039</v>
       </c>
       <c r="F29">
-        <v>4.711031121138078</v>
+        <v>8.007978065289809</v>
       </c>
       <c r="G29">
-        <v>5.442959104051931</v>
+        <v>9.252135253351437</v>
       </c>
       <c r="H29">
-        <v>0.1836257049254664</v>
+        <v>0.3121334967770881</v>
       </c>
       <c r="I29">
-        <v>1.360963093208948</v>
+        <v>2.313413415841197</v>
       </c>
       <c r="J29">
-        <v>3.081288816244298</v>
+        <v>5.237684196691584</v>
       </c>
       <c r="K29">
-        <v>4.080953255023282</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="L29">
-        <v>8.187420128598454</v>
+        <v>13.91726760346465</v>
       </c>
       <c r="M29">
-        <v>5.151956142698562</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="N29">
-        <v>0.136922578592013</v>
+        <v>0.2327458634454695</v>
       </c>
       <c r="O29">
-        <v>0.5690583106535749</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="P29">
-        <v>47.74786963499996</v>
+        <v>81.16352511146786</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1850,49 +1850,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>2.623084765028288</v>
+        <v>4.458812672132789</v>
       </c>
       <c r="C30">
-        <v>11.79744561446523</v>
+        <v>20.05371717524641</v>
       </c>
       <c r="D30">
-        <v>0.009814470239191018</v>
+        <v>0.01668298518454591</v>
       </c>
       <c r="E30">
-        <v>0.9335309282464883</v>
+        <v>1.586849036747937</v>
       </c>
       <c r="F30">
-        <v>5.937189906091823</v>
+        <v>10.09224632885839</v>
       </c>
       <c r="G30">
-        <v>6.859619692777777</v>
+        <v>11.66022525079907</v>
       </c>
       <c r="H30">
-        <v>0.1836257049254664</v>
+        <v>0.3121334967770881</v>
       </c>
       <c r="I30">
-        <v>1.360963093208948</v>
+        <v>2.313413415841197</v>
       </c>
       <c r="J30">
-        <v>2.69026231672091</v>
+        <v>4.573003461070824</v>
       </c>
       <c r="K30">
-        <v>3.563065786111696</v>
+        <v>6.056625805832958</v>
       </c>
       <c r="L30">
-        <v>6.60275816822456</v>
+        <v>11.22360290601987</v>
       </c>
       <c r="M30">
-        <v>4.154803340885936</v>
+        <v>7.062482323693447</v>
       </c>
       <c r="N30">
-        <v>0.09780184185143785</v>
+        <v>0.1662470453181925</v>
       </c>
       <c r="O30">
-        <v>0.4064702218954105</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="P30">
-        <v>47.22043585067316</v>
+        <v>80.26697442708999</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1900,49 +1900,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>2.685364710566668</v>
+        <v>4.564678336135938</v>
       </c>
       <c r="C31">
-        <v>12.07755256341203</v>
+        <v>20.52985291823408</v>
       </c>
       <c r="D31">
-        <v>0.008856960947562623</v>
+        <v>0.01505537687385851</v>
       </c>
       <c r="E31">
-        <v>0.8424547401248796</v>
+        <v>1.432034496577407</v>
       </c>
       <c r="F31">
-        <v>6.518001962122544</v>
+        <v>11.07953129581193</v>
       </c>
       <c r="G31">
-        <v>7.530669445332125</v>
+        <v>12.80089946011637</v>
       </c>
       <c r="H31">
-        <v>0.2856399854396144</v>
+        <v>0.4855409949865814</v>
       </c>
       <c r="I31">
-        <v>2.117053700547253</v>
+        <v>3.598643091308529</v>
       </c>
       <c r="J31">
-        <v>2.299235817197522</v>
+        <v>3.908322725450065</v>
       </c>
       <c r="K31">
-        <v>3.045178317200114</v>
+        <v>5.176302287543286</v>
       </c>
       <c r="L31">
-        <v>5.546316861308629</v>
+        <v>9.427826441056697</v>
       </c>
       <c r="M31">
-        <v>3.490034806344187</v>
+        <v>5.932485151902495</v>
       </c>
       <c r="N31">
-        <v>0.1467027627771568</v>
+        <v>0.2493705679772887</v>
       </c>
       <c r="O31">
-        <v>0.6097053328431158</v>
+        <v>1.036398785350922</v>
       </c>
       <c r="P31">
-        <v>47.20276796616339</v>
+        <v>80.23694192932544</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1950,49 +1950,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>2.961960939281242</v>
+        <v>5.034846432149944</v>
       </c>
       <c r="C32">
-        <v>13.32155695432281</v>
+        <v>22.6444557767971</v>
       </c>
       <c r="D32">
-        <v>0.009575092916283917</v>
+        <v>0.01627608310687406</v>
       </c>
       <c r="E32">
-        <v>0.9107618812160861</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="F32">
-        <v>5.679051214522613</v>
+        <v>9.65345301021237</v>
       </c>
       <c r="G32">
-        <v>6.561375358309177</v>
+        <v>11.15325893554693</v>
       </c>
       <c r="H32">
-        <v>0.3468485537481032</v>
+        <v>0.5895854939122775</v>
       </c>
       <c r="I32">
-        <v>2.570708064950235</v>
+        <v>4.369780896588929</v>
       </c>
       <c r="J32">
-        <v>2.26795369723565</v>
+        <v>3.855148266600403</v>
       </c>
       <c r="K32">
-        <v>3.003747319687186</v>
+        <v>5.10587640608011</v>
       </c>
       <c r="L32">
-        <v>3.565489410841264</v>
+        <v>6.060745569250733</v>
       </c>
       <c r="M32">
-        <v>2.243593804078406</v>
+        <v>3.81374045479446</v>
       </c>
       <c r="N32">
-        <v>0.2542847888137384</v>
+        <v>0.4322423178273003</v>
       </c>
       <c r="O32">
-        <v>1.056822576928067</v>
+        <v>1.796424561274931</v>
       </c>
       <c r="P32">
-        <v>44.75372965685087</v>
+        <v>76.07397960584767</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2000,49 +2000,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>3.28801477180571</v>
+        <v>5.589084320166446</v>
       </c>
       <c r="C33">
-        <v>14.78799921645606</v>
+        <v>25.13716643126207</v>
       </c>
       <c r="D33">
-        <v>0.006223810395584546</v>
+        <v>0.01057945401946814</v>
       </c>
       <c r="E33">
-        <v>0.5919952227904561</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="F33">
-        <v>4.388357756676565</v>
+        <v>7.459486416982288</v>
       </c>
       <c r="G33">
-        <v>5.070153685966181</v>
+        <v>8.618427359286267</v>
       </c>
       <c r="H33">
-        <v>0.5304742586735695</v>
+        <v>0.9017189906893653</v>
       </c>
       <c r="I33">
-        <v>3.931671158159183</v>
+        <v>6.683194312430128</v>
       </c>
       <c r="J33">
-        <v>2.205389457311909</v>
+        <v>3.748799348901082</v>
       </c>
       <c r="K33">
-        <v>2.920885324661333</v>
+        <v>4.965024643153763</v>
       </c>
       <c r="L33">
-        <v>3.037268757383296</v>
+        <v>5.162857336769143</v>
       </c>
       <c r="M33">
-        <v>1.911209536807531</v>
+        <v>3.248741868898986</v>
       </c>
       <c r="N33">
-        <v>0.06846128929600651</v>
+        <v>0.1163729317227347</v>
       </c>
       <c r="O33">
-        <v>0.2845291553267875</v>
+        <v>0.4836527664970966</v>
       </c>
       <c r="P33">
-        <v>43.02263340171017</v>
+        <v>73.13140069188731</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2050,49 +2050,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>3.192763090394067</v>
+        <v>5.427172128161629</v>
       </c>
       <c r="C34">
-        <v>14.35960035336096</v>
+        <v>24.40895882433971</v>
       </c>
       <c r="D34">
-        <v>0.004069414489420665</v>
+        <v>0.006917335320421476</v>
       </c>
       <c r="E34">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="F34">
-        <v>3.613941681968936</v>
+        <v>6.143106461044237</v>
       </c>
       <c r="G34">
-        <v>4.175420682560384</v>
+        <v>7.097528413529865</v>
       </c>
       <c r="H34">
-        <v>0.714099963599036</v>
+        <v>1.213852487466454</v>
       </c>
       <c r="I34">
-        <v>5.292634251368133</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="J34">
-        <v>1.1887205585511</v>
+        <v>2.020629436287108</v>
       </c>
       <c r="K34">
-        <v>1.574377905491215</v>
+        <v>2.67618349560061</v>
       </c>
       <c r="L34">
-        <v>2.641103267289825</v>
+        <v>4.489441162407953</v>
       </c>
       <c r="M34">
-        <v>1.661921336354375</v>
+        <v>2.824992929477379</v>
       </c>
       <c r="N34">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O34">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P34">
-        <v>38.85615351131897</v>
+        <v>66.04907015451998</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>2.25123685490207</v>
+        <v>3.826732384113965</v>
       </c>
       <c r="C35">
-        <v>10.12504236045933</v>
+        <v>17.21090670976105</v>
       </c>
       <c r="D35">
-        <v>0.003590659843606469</v>
+        <v>0.006103531165077773</v>
       </c>
       <c r="E35">
-        <v>0.3415357054560323</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="F35">
-        <v>3.162198971722819</v>
+        <v>5.375218153413709</v>
       </c>
       <c r="G35">
-        <v>3.653493097240338</v>
+        <v>6.210337361838633</v>
       </c>
       <c r="H35">
-        <v>0.5508771147763991</v>
+        <v>0.936400490331264</v>
       </c>
       <c r="I35">
-        <v>4.082889279626846</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="J35">
-        <v>0.6100013392564855</v>
+        <v>1.036901947568385</v>
       </c>
       <c r="K35">
-        <v>0.8079044515020709</v>
+        <v>1.373304688531892</v>
       </c>
       <c r="L35">
-        <v>1.584661960373895</v>
+        <v>2.693664697444769</v>
       </c>
       <c r="M35">
-        <v>0.9971528018126247</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="N35">
-        <v>0.02934055255543135</v>
+        <v>0.04987411359545774</v>
       </c>
       <c r="O35">
-        <v>0.1219410665686232</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="P35">
-        <v>28.32186621609657</v>
+        <v>48.14251436568389</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.908697154440975</v>
+        <v>3.244471232096623</v>
       </c>
       <c r="C36">
-        <v>8.584454141251934</v>
+        <v>14.59216012332874</v>
       </c>
       <c r="D36">
-        <v>0.007420697010120037</v>
+        <v>0.0126139644078274</v>
       </c>
       <c r="E36">
-        <v>0.7058404579424669</v>
+        <v>1.199812686321611</v>
       </c>
       <c r="F36">
-        <v>2.129644205445981</v>
+        <v>3.620044878829639</v>
       </c>
       <c r="G36">
-        <v>2.460515759365941</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="H36">
-        <v>0.4692656903650807</v>
+        <v>0.7976744917636694</v>
       </c>
       <c r="I36">
-        <v>3.478016793756201</v>
+        <v>5.912056507149727</v>
       </c>
       <c r="J36">
-        <v>0.5787192192946145</v>
+        <v>0.9837274887187237</v>
       </c>
       <c r="K36">
-        <v>0.7664734539891439</v>
+        <v>1.302878807068718</v>
       </c>
       <c r="L36">
-        <v>2.509048103925333</v>
+        <v>4.264969104287552</v>
       </c>
       <c r="M36">
-        <v>1.578825269536656</v>
+        <v>2.683743283003509</v>
       </c>
       <c r="N36">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O36">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P36">
-        <v>25.22734815269913</v>
+        <v>42.88234262469499</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>1.531353955002548</v>
+        <v>2.603049856077522</v>
       </c>
       <c r="C37">
-        <v>6.887335568221319</v>
+        <v>11.70733768052094</v>
       </c>
       <c r="D37">
-        <v>0.005505678426863252</v>
+        <v>0.009358747786452586</v>
       </c>
       <c r="E37">
-        <v>0.5236880816992495</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="F37">
-        <v>1.677901495199864</v>
+        <v>2.85215657119911</v>
       </c>
       <c r="G37">
-        <v>1.938588174045894</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="H37">
-        <v>0.3978556940051772</v>
+        <v>0.6762892430170243</v>
       </c>
       <c r="I37">
-        <v>2.948753368619388</v>
+        <v>5.012395734322595</v>
       </c>
       <c r="J37">
-        <v>0.3284622595996459</v>
+        <v>0.5583318179214378</v>
       </c>
       <c r="K37">
-        <v>0.4350254738857304</v>
+        <v>0.7394717553633264</v>
       </c>
       <c r="L37">
-        <v>1.584661960373895</v>
+        <v>2.693664697444769</v>
       </c>
       <c r="M37">
-        <v>0.9971528018126247</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="N37">
-        <v>0.01956036837028757</v>
+        <v>0.0332494090636385</v>
       </c>
       <c r="O37">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="P37">
-        <v>19.35713892364157</v>
+        <v>32.90395243023612</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,49 +2250,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.161337807980401</v>
+        <v>1.97408326405879</v>
       </c>
       <c r="C38">
-        <v>5.22317075389033</v>
+        <v>8.878531207476412</v>
       </c>
       <c r="D38">
-        <v>0.006223810395584546</v>
+        <v>0.01057945401946814</v>
       </c>
       <c r="E38">
-        <v>0.5919952227904561</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="F38">
-        <v>1.419762803630653</v>
+        <v>2.413363252553093</v>
       </c>
       <c r="G38">
-        <v>1.640343839577294</v>
+        <v>2.788314733886733</v>
       </c>
       <c r="H38">
-        <v>0.1326185646683924</v>
+        <v>0.2254297476723413</v>
       </c>
       <c r="I38">
-        <v>0.9829177895397958</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="J38">
-        <v>0.2189748397330973</v>
+        <v>0.3722212119476253</v>
       </c>
       <c r="K38">
-        <v>0.290016982590487</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="L38">
-        <v>1.05644130691593</v>
+        <v>1.79577646496318</v>
       </c>
       <c r="M38">
-        <v>0.6647685345417498</v>
+        <v>1.129997171790951</v>
       </c>
       <c r="N38">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O38">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P38">
-        <v>13.43899946262886</v>
+        <v>22.84408872471534</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2300,49 +2300,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.7272099523158029</v>
+        <v>1.236137312036814</v>
       </c>
       <c r="C39">
-        <v>3.270660550937637</v>
+        <v>5.559584999003367</v>
       </c>
       <c r="D39">
-        <v>0.004069414489420665</v>
+        <v>0.006917335320421476</v>
       </c>
       <c r="E39">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="F39">
-        <v>1.097089439169141</v>
+        <v>1.864871604245572</v>
       </c>
       <c r="G39">
-        <v>1.267538421491545</v>
+        <v>2.154606839821567</v>
       </c>
       <c r="H39">
-        <v>0.0918128524627332</v>
+        <v>0.156066748388544</v>
       </c>
       <c r="I39">
-        <v>0.6804815466044742</v>
+        <v>1.156706707920599</v>
       </c>
       <c r="J39">
-        <v>0.3441033195805815</v>
+        <v>0.5849190473462681</v>
       </c>
       <c r="K39">
-        <v>0.4557409726421938</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="L39">
-        <v>1.716717123738386</v>
+        <v>2.918136755565167</v>
       </c>
       <c r="M39">
-        <v>1.080248868630344</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="N39">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O39">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P39">
-        <v>11.17317346795378</v>
+        <v>18.99255720251683</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2350,49 +2350,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.5458654050128697</v>
+        <v>0.9278814080276333</v>
       </c>
       <c r="C40">
-        <v>2.455055023121953</v>
+        <v>4.173189747362728</v>
       </c>
       <c r="D40">
-        <v>0.005745055749770351</v>
+        <v>0.009765649864124438</v>
       </c>
       <c r="E40">
-        <v>0.5464571287296517</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="F40">
-        <v>0.5808120560307219</v>
+        <v>0.9872849669535378</v>
       </c>
       <c r="G40">
-        <v>0.6710497525543476</v>
+        <v>1.1406742093173</v>
       </c>
       <c r="H40">
-        <v>0.0306042841542444</v>
+        <v>0.052022249462848</v>
       </c>
       <c r="I40">
-        <v>0.2268271822014913</v>
+        <v>0.3855689026401996</v>
       </c>
       <c r="J40">
-        <v>0.1407695398284197</v>
+        <v>0.2392850648234734</v>
       </c>
       <c r="K40">
-        <v>0.1864394888081702</v>
+        <v>0.3169164665842827</v>
       </c>
       <c r="L40">
-        <v>1.18849647028042</v>
+        <v>2.020248523083577</v>
       </c>
       <c r="M40">
-        <v>0.7478646013594684</v>
+        <v>1.271246818264821</v>
       </c>
       <c r="N40">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O40">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P40">
-        <v>7.376413194206213</v>
+        <v>12.53868920429626</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2400,43 +2400,43 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.3480349897733063</v>
+        <v>0.5916022400176187</v>
       </c>
       <c r="C41">
-        <v>1.565303538232119</v>
+        <v>2.66075856375476</v>
       </c>
       <c r="D41">
-        <v>0.006463187718491645</v>
+        <v>0.01098635609713999</v>
       </c>
       <c r="E41">
-        <v>0.6147642698208582</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="H41">
-        <v>0.0102014280514148</v>
+        <v>0.01734074982094934</v>
       </c>
       <c r="I41">
-        <v>0.07560906073383046</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="J41">
-        <v>0.297180139637775</v>
+        <v>0.5051573590717771</v>
       </c>
       <c r="K41">
-        <v>0.3935944763728037</v>
+        <v>0.6690458739001525</v>
       </c>
       <c r="L41">
-        <v>1.18849647028042</v>
+        <v>2.020248523083577</v>
       </c>
       <c r="M41">
-        <v>0.7478646013594684</v>
+        <v>1.271246818264821</v>
       </c>
       <c r="N41">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O41">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P41">
-        <v>5.297939368355172</v>
+        <v>9.005625554597156</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2444,37 +2444,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.2088209938639837</v>
+        <v>0.3549613440105711</v>
       </c>
       <c r="C42">
-        <v>0.9391821229392712</v>
+        <v>1.596455138252856</v>
       </c>
       <c r="D42">
-        <v>0.005266301103956155</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E42">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F42">
-        <v>0.5808120560307219</v>
+        <v>0.9872849669535378</v>
       </c>
       <c r="G42">
-        <v>0.6710497525543476</v>
+        <v>1.1406742093173</v>
       </c>
       <c r="J42">
-        <v>0.2189748397330973</v>
+        <v>0.3722212119476253</v>
       </c>
       <c r="K42">
-        <v>0.290016982590487</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="L42">
-        <v>1.980827450467368</v>
+        <v>3.367080871805963</v>
       </c>
       <c r="M42">
-        <v>1.246441002265781</v>
+        <v>2.118744697108034</v>
       </c>
       <c r="P42">
-        <v>6.642310536217861</v>
+        <v>11.2908354262848</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2482,43 +2482,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.2582785976738748</v>
+        <v>0.4390311360130748</v>
       </c>
       <c r="C43">
-        <v>1.161619994161729</v>
+        <v>1.974562934154848</v>
       </c>
       <c r="D43">
-        <v>0.003590659843606469</v>
+        <v>0.006103531165077773</v>
       </c>
       <c r="E43">
-        <v>0.3415357054560323</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="F43">
-        <v>0.451742710246117</v>
+        <v>0.7678883076305296</v>
       </c>
       <c r="G43">
-        <v>0.521927585320048</v>
+        <v>0.8871910516912331</v>
       </c>
       <c r="H43">
-        <v>0.04080571220565921</v>
+        <v>0.06936299928379734</v>
       </c>
       <c r="I43">
-        <v>0.3024362429353218</v>
+        <v>0.5140918701869328</v>
       </c>
       <c r="J43">
-        <v>0.2189748397330973</v>
+        <v>0.3722212119476253</v>
       </c>
       <c r="K43">
-        <v>0.290016982590487</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="L43">
-        <v>2.509048103925333</v>
+        <v>4.264969104287552</v>
       </c>
       <c r="M43">
-        <v>1.578825269536656</v>
+        <v>2.683743283003509</v>
       </c>
       <c r="P43">
-        <v>7.678802403627962</v>
+        <v>13.05270112524589</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2526,43 +2526,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.4268008032483174</v>
+        <v>0.7254911680216055</v>
       </c>
       <c r="C44">
-        <v>1.919556444253071</v>
+        <v>3.262930238709786</v>
       </c>
       <c r="D44">
-        <v>0.003111905197792273</v>
+        <v>0.00528972700973407</v>
       </c>
       <c r="E44">
-        <v>0.2959976113952281</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="F44">
-        <v>0.9034854204922339</v>
+        <v>1.535776615261059</v>
       </c>
       <c r="G44">
-        <v>1.043855170640096</v>
+        <v>1.774382103382466</v>
       </c>
       <c r="H44">
-        <v>0.0204028561028296</v>
+        <v>0.03468149964189867</v>
       </c>
       <c r="I44">
-        <v>0.1512181214676609</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="J44">
-        <v>0.359744379561517</v>
+        <v>0.6115062767710985</v>
       </c>
       <c r="K44">
-        <v>0.4764564713986572</v>
+        <v>0.8098976368265004</v>
       </c>
       <c r="L44">
-        <v>3.037268757383296</v>
+        <v>5.162857336769143</v>
       </c>
       <c r="M44">
-        <v>1.911209536807531</v>
+        <v>3.248741868898986</v>
       </c>
       <c r="P44">
-        <v>10.54910747794823</v>
+        <v>17.93174766193997</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2570,49 +2570,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.9671709189489772</v>
+        <v>1.64403148804896</v>
       </c>
       <c r="C45">
-        <v>4.349896148350306</v>
+        <v>7.394108008750072</v>
       </c>
       <c r="D45">
-        <v>0.003590659843606469</v>
+        <v>0.006103531165077773</v>
       </c>
       <c r="E45">
-        <v>0.3415357054560323</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="F45">
-        <v>2.129644205445981</v>
+        <v>3.620044878829639</v>
       </c>
       <c r="G45">
-        <v>2.460515759365941</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="H45">
-        <v>0.25503570128537</v>
+        <v>0.4335187455237334</v>
       </c>
       <c r="I45">
-        <v>1.890226518345762</v>
+        <v>3.213074188668331</v>
       </c>
       <c r="J45">
-        <v>0.9071814788942606</v>
+        <v>1.542059306640161</v>
       </c>
       <c r="K45">
-        <v>1.201498927874874</v>
+        <v>2.042350562432044</v>
       </c>
       <c r="L45">
-        <v>4.753985881121681</v>
+        <v>8.08099409233431</v>
       </c>
       <c r="M45">
-        <v>2.991458405437874</v>
+        <v>5.084987273059284</v>
       </c>
       <c r="N45">
-        <v>0.009780184185143787</v>
+        <v>0.01662470453181925</v>
       </c>
       <c r="O45">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="P45">
-        <v>22.30216751674535</v>
+        <v>37.91001665880975</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2620,49 +2620,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.784137263364212</v>
+        <v>3.032739904090318</v>
       </c>
       <c r="C46">
-        <v>8.02424024335833</v>
+        <v>13.63988863735335</v>
       </c>
       <c r="D46">
-        <v>0.003830037166513567</v>
+        <v>0.006510433242749623</v>
       </c>
       <c r="E46">
-        <v>0.3643047524864346</v>
+        <v>0.6192581606821218</v>
       </c>
       <c r="F46">
-        <v>3.807545700645844</v>
+        <v>6.472201450028746</v>
       </c>
       <c r="G46">
-        <v>4.399103933411834</v>
+        <v>7.477753149968966</v>
       </c>
       <c r="H46">
-        <v>0.9181285246273317</v>
+        <v>1.56066748388544</v>
       </c>
       <c r="I46">
-        <v>6.804815466044741</v>
+        <v>11.56706707920599</v>
       </c>
       <c r="J46">
-        <v>1.564105998093553</v>
+        <v>2.658722942483037</v>
       </c>
       <c r="K46">
-        <v>2.071549875646336</v>
+        <v>3.521294073158698</v>
       </c>
       <c r="L46">
-        <v>7.791254638504982</v>
+        <v>13.24385142910345</v>
       </c>
       <c r="M46">
-        <v>4.902667942245404</v>
+        <v>8.333729141958266</v>
       </c>
       <c r="N46">
-        <v>0.03912073674057515</v>
+        <v>0.066498818127277</v>
       </c>
       <c r="O46">
-        <v>0.1625880887581642</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="P46">
-        <v>42.63739320109425</v>
+        <v>72.47655571271534</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2670,49 +2670,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>2.511347215680015</v>
+        <v>4.26887721612713</v>
       </c>
       <c r="C47">
-        <v>11.29490079429597</v>
+        <v>19.19947363635671</v>
       </c>
       <c r="D47">
-        <v>0.002393773229070979</v>
+        <v>0.004069020776718515</v>
       </c>
       <c r="E47">
-        <v>0.2276904703040215</v>
+        <v>0.3870363504263262</v>
       </c>
       <c r="F47">
-        <v>3.097664298830518</v>
+        <v>5.265519823752202</v>
       </c>
       <c r="G47">
-        <v>3.578932013623188</v>
+        <v>6.083595783025599</v>
       </c>
       <c r="H47">
-        <v>0.7243013916504506</v>
+        <v>1.231193237287403</v>
       </c>
       <c r="I47">
-        <v>5.368243312101962</v>
+        <v>9.12513069581806</v>
       </c>
       <c r="J47">
-        <v>1.814362957788521</v>
+        <v>3.084118613280323</v>
       </c>
       <c r="K47">
-        <v>2.402997855749749</v>
+        <v>4.084701124864089</v>
       </c>
       <c r="L47">
-        <v>7.791254638504982</v>
+        <v>13.24385142910345</v>
       </c>
       <c r="M47">
-        <v>4.902667942245404</v>
+        <v>8.333729141958266</v>
       </c>
       <c r="N47">
-        <v>0.07824147348115029</v>
+        <v>0.132997636254554</v>
       </c>
       <c r="O47">
-        <v>0.3251761775163284</v>
+        <v>0.5527460188538247</v>
       </c>
       <c r="P47">
-        <v>44.12017431500132</v>
+        <v>74.99703972788465</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2720,49 +2720,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>3.070034962421375</v>
+        <v>5.218554496155409</v>
       </c>
       <c r="C48">
-        <v>13.80762489514227</v>
+        <v>23.47069133080514</v>
       </c>
       <c r="D48">
-        <v>0.005266301103956155</v>
+        <v>0.008951845708780735</v>
       </c>
       <c r="E48">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="F48">
-        <v>5.033704485599589</v>
+        <v>8.556469713597329</v>
       </c>
       <c r="G48">
-        <v>5.81576452213768</v>
+        <v>9.885843147416598</v>
       </c>
       <c r="H48">
-        <v>0.3876542659537624</v>
+        <v>0.6589484931960747</v>
       </c>
       <c r="I48">
-        <v>2.873144307885557</v>
+        <v>4.883872766775861</v>
       </c>
       <c r="J48">
-        <v>2.174107337350038</v>
+        <v>3.695624890051421</v>
       </c>
       <c r="K48">
-        <v>2.879454327148407</v>
+        <v>4.894598761690591</v>
       </c>
       <c r="L48">
-        <v>11.22468888598175</v>
+        <v>19.08012494023378</v>
       </c>
       <c r="M48">
-        <v>7.063165679506092</v>
+        <v>12.00621995027886</v>
       </c>
       <c r="N48">
-        <v>0.09780184185143785</v>
+        <v>0.1662470453181925</v>
       </c>
       <c r="O48">
-        <v>0.4064702218954105</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="P48">
-        <v>55.33980106864617</v>
+        <v>94.06855987573324</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2770,49 +2770,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>2.311685037336381</v>
+        <v>3.929484352117022</v>
       </c>
       <c r="C49">
-        <v>10.39691086973122</v>
+        <v>17.67303846030792</v>
       </c>
       <c r="D49">
-        <v>0.00335128252069937</v>
+        <v>0.005696629087405921</v>
       </c>
       <c r="E49">
-        <v>0.3187666584256303</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="F49">
-        <v>4.711031121138078</v>
+        <v>8.007978065289809</v>
       </c>
       <c r="G49">
-        <v>5.442959104051931</v>
+        <v>9.252135253351437</v>
       </c>
       <c r="H49">
-        <v>0.8263156721645989</v>
+        <v>1.404600735496896</v>
       </c>
       <c r="I49">
-        <v>6.124333919440268</v>
+        <v>10.41036037128539</v>
       </c>
       <c r="J49">
-        <v>2.471287476987813</v>
+        <v>4.200782249123199</v>
       </c>
       <c r="K49">
-        <v>3.27304880352121</v>
+        <v>5.563644635590742</v>
       </c>
       <c r="L49">
-        <v>17.95950221757082</v>
+        <v>30.52819990437406</v>
       </c>
       <c r="M49">
-        <v>11.30106508720975</v>
+        <v>19.20995192044618</v>
       </c>
       <c r="N49">
-        <v>0.1956036837028757</v>
+        <v>0.3324940906363849</v>
       </c>
       <c r="O49">
-        <v>0.812940443790821</v>
+        <v>1.381865047134561</v>
       </c>
       <c r="P49">
-        <v>66.14880137759209</v>
+        <v>112.4420826048379</v>
       </c>
     </row>
   </sheetData>
